--- a/DataSets/NorthwindOrders.xlsx
+++ b/DataSets/NorthwindOrders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adaptable Samples\AdaptableSamples\NorthwindOrders\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Source\Repos\adaptableblotter-demo\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2189,9 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="C824" sqref="C824"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/DataSets/NorthwindOrders.xlsx
+++ b/DataSets/NorthwindOrders.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Source\Repos\adaptableblotter-demo\DataSets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24885" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NorthwindOrders" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NorthwindOrders!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1745,9 +1740,6 @@
     <t>City Center Plaza, 516 Main St.</t>
   </si>
   <si>
-    <t>OrderID</t>
-  </si>
-  <si>
     <t>CustomerReference</t>
   </si>
   <si>
@@ -1785,6 +1777,9 @@
   </si>
   <si>
     <t>ShipCountry</t>
+  </si>
+  <si>
+    <t>OrderId</t>
   </si>
 </sst>
 </file>
@@ -2191,77 +2186,77 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>10249</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>10252</v>
       </c>
@@ -2355,7 +2350,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>10250</v>
       </c>
@@ -2405,7 +2400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>10255</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>10251</v>
       </c>
@@ -2499,7 +2494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>10253</v>
       </c>
@@ -2549,7 +2544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>10248</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>10256</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>10257</v>
       </c>
@@ -2696,7 +2691,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10254</v>
       </c>
@@ -2743,7 +2738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10258</v>
       </c>
@@ -2790,7 +2785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>10259</v>
       </c>
@@ -2837,7 +2832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>10262</v>
       </c>
@@ -2887,7 +2882,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>10260</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>10261</v>
       </c>
@@ -2984,7 +2979,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>10263</v>
       </c>
@@ -3031,7 +3026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>10266</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>10268</v>
       </c>
@@ -3128,7 +3123,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>10270</v>
       </c>
@@ -3175,7 +3170,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>10267</v>
       </c>
@@ -3222,7 +3217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>10272</v>
       </c>
@@ -3272,7 +3267,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>10275</v>
       </c>
@@ -3319,7 +3314,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>10269</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>10265</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>10273</v>
       </c>
@@ -3463,7 +3458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>10277</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>10276</v>
       </c>
@@ -3557,7 +3552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>10278</v>
       </c>
@@ -3604,7 +3599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>10279</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>10274</v>
       </c>
@@ -3698,7 +3693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>10281</v>
       </c>
@@ -3745,7 +3740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>10282</v>
       </c>
@@ -3792,7 +3787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>10264</v>
       </c>
@@ -3839,7 +3834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>10283</v>
       </c>
@@ -3889,7 +3884,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>10285</v>
       </c>
@@ -3936,7 +3931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>10284</v>
       </c>
@@ -3983,7 +3978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>10289</v>
       </c>
@@ -4030,7 +4025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>10287</v>
       </c>
@@ -4080,7 +4075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>10286</v>
       </c>
@@ -4127,7 +4122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>10271</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>10292</v>
       </c>
@@ -4227,7 +4222,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>10290</v>
       </c>
@@ -4277,7 +4272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>10288</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>10291</v>
       </c>
@@ -4374,7 +4369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>10294</v>
       </c>
@@ -4424,7 +4419,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>10297</v>
       </c>
@@ -4471,7 +4466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>10295</v>
       </c>
@@ -4518,7 +4513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>10298</v>
       </c>
@@ -4565,7 +4560,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>10296</v>
       </c>
@@ -4615,7 +4610,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>10293</v>
       </c>
@@ -4662,7 +4657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>10280</v>
       </c>
@@ -4709,7 +4704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>10299</v>
       </c>
@@ -4759,7 +4754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>10304</v>
       </c>
@@ -4806,7 +4801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>10301</v>
       </c>
@@ -4853,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>10303</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>10300</v>
       </c>
@@ -4947,7 +4942,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>10306</v>
       </c>
@@ -4994,7 +4989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>10308</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>10307</v>
       </c>
@@ -5091,7 +5086,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>10311</v>
       </c>
@@ -5138,7 +5133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>10310</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>10315</v>
       </c>
@@ -5238,7 +5233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>10312</v>
       </c>
@@ -5285,7 +5280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>10318</v>
       </c>
@@ -5335,7 +5330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>10313</v>
       </c>
@@ -5382,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>10314</v>
       </c>
@@ -5432,7 +5427,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>10316</v>
       </c>
@@ -5482,7 +5477,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>10305</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>10302</v>
       </c>
@@ -5579,7 +5574,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>10317</v>
       </c>
@@ -5629,7 +5624,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>10324</v>
       </c>
@@ -5679,7 +5674,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>10321</v>
       </c>
@@ -5729,7 +5724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>10319</v>
       </c>
@@ -5776,7 +5771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>10326</v>
       </c>
@@ -5823,7 +5818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>10327</v>
       </c>
@@ -5870,7 +5865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>10323</v>
       </c>
@@ -5917,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>10325</v>
       </c>
@@ -5964,7 +5959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>10328</v>
       </c>
@@ -6011,7 +6006,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>10320</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>10331</v>
       </c>
@@ -6105,7 +6100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>10332</v>
       </c>
@@ -6155,7 +6150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>10309</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>10322</v>
       </c>
@@ -6249,7 +6244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>10329</v>
       </c>
@@ -6299,7 +6294,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>10335</v>
       </c>
@@ -6346,7 +6341,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>10336</v>
       </c>
@@ -6393,7 +6388,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>10333</v>
       </c>
@@ -6440,7 +6435,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>10330</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>10334</v>
       </c>
@@ -6537,7 +6532,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>10337</v>
       </c>
@@ -6584,7 +6579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>10338</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>10342</v>
       </c>
@@ -6681,7 +6676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>10339</v>
       </c>
@@ -6731,7 +6726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>10341</v>
       </c>
@@ -6778,7 +6773,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>10344</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>10343</v>
       </c>
@@ -6875,7 +6870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>10340</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>10347</v>
       </c>
@@ -6972,7 +6967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>10346</v>
       </c>
@@ -7022,7 +7017,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>10345</v>
       </c>
@@ -7069,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>10349</v>
       </c>
@@ -7119,7 +7114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>10348</v>
       </c>
@@ -7166,7 +7161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>10352</v>
       </c>
@@ -7213,7 +7208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>10355</v>
       </c>
@@ -7263,7 +7258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>10351</v>
       </c>
@@ -7310,7 +7305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>10354</v>
       </c>
@@ -7357,7 +7352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>10353</v>
       </c>
@@ -7404,7 +7399,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>10359</v>
       </c>
@@ -7451,7 +7446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>10358</v>
       </c>
@@ -7498,7 +7493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>10356</v>
       </c>
@@ -7545,7 +7540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>10362</v>
       </c>
@@ -7592,7 +7587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>10365</v>
       </c>
@@ -7639,7 +7634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>10360</v>
       </c>
@@ -7686,7 +7681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>10368</v>
       </c>
@@ -7733,7 +7728,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>10357</v>
       </c>
@@ -7783,7 +7778,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>10367</v>
       </c>
@@ -7830,7 +7825,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>10350</v>
       </c>
@@ -7877,7 +7872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>10361</v>
       </c>
@@ -7924,7 +7919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>10363</v>
       </c>
@@ -7971,7 +7966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>10364</v>
       </c>
@@ -8018,7 +8013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>10375</v>
       </c>
@@ -8068,7 +8063,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>10372</v>
       </c>
@@ -8118,7 +8113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>10369</v>
       </c>
@@ -8168,7 +8163,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>10374</v>
       </c>
@@ -8215,7 +8210,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>10373</v>
       </c>
@@ -8262,7 +8257,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>10381</v>
       </c>
@@ -8312,7 +8307,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>10376</v>
       </c>
@@ -8362,7 +8357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>10379</v>
       </c>
@@ -8412,7 +8407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>10377</v>
       </c>
@@ -8459,7 +8454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>10382</v>
       </c>
@@ -8506,7 +8501,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>10383</v>
       </c>
@@ -8556,7 +8551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>10378</v>
       </c>
@@ -8603,7 +8598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>10384</v>
       </c>
@@ -8650,7 +8645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>10387</v>
       </c>
@@ -8697,7 +8692,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>10388</v>
       </c>
@@ -8744,7 +8739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>10385</v>
       </c>
@@ -8794,7 +8789,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>10389</v>
       </c>
@@ -8844,7 +8839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>10371</v>
       </c>
@@ -8891,7 +8886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>10386</v>
       </c>
@@ -8941,7 +8936,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>10390</v>
       </c>
@@ -8988,7 +8983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>10370</v>
       </c>
@@ -9035,7 +9030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143">
         <v>10366</v>
       </c>
@@ -9082,7 +9077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>10391</v>
       </c>
@@ -9129,7 +9124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145">
         <v>10392</v>
       </c>
@@ -9176,7 +9171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146">
         <v>10397</v>
       </c>
@@ -9223,7 +9218,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147">
         <v>10395</v>
       </c>
@@ -9273,7 +9268,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148">
         <v>10394</v>
       </c>
@@ -9323,7 +9318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149">
         <v>10393</v>
       </c>
@@ -9373,7 +9368,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150">
         <v>10396</v>
       </c>
@@ -9420,7 +9415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151">
         <v>10404</v>
       </c>
@@ -9467,7 +9462,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152">
         <v>10399</v>
       </c>
@@ -9514,7 +9509,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153">
         <v>10403</v>
       </c>
@@ -9561,7 +9556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154">
         <v>10398</v>
       </c>
@@ -9611,7 +9606,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155">
         <v>10402</v>
       </c>
@@ -9658,7 +9653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156">
         <v>10401</v>
       </c>
@@ -9708,7 +9703,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157">
         <v>10406</v>
       </c>
@@ -9758,7 +9753,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158">
         <v>10408</v>
       </c>
@@ -9805,7 +9800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159">
         <v>10409</v>
       </c>
@@ -9852,7 +9847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160">
         <v>10410</v>
       </c>
@@ -9902,7 +9897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161">
         <v>10412</v>
       </c>
@@ -9949,7 +9944,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162">
         <v>10400</v>
       </c>
@@ -9996,7 +9991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163">
         <v>10380</v>
       </c>
@@ -10043,7 +10038,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164">
         <v>10413</v>
       </c>
@@ -10090,7 +10085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165">
         <v>10414</v>
       </c>
@@ -10140,7 +10135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166">
         <v>10411</v>
       </c>
@@ -10190,7 +10185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167">
         <v>10405</v>
       </c>
@@ -10240,7 +10235,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168">
         <v>10415</v>
       </c>
@@ -10290,7 +10285,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169">
         <v>10418</v>
       </c>
@@ -10337,7 +10332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170">
         <v>10424</v>
       </c>
@@ -10387,7 +10382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171">
         <v>10421</v>
       </c>
@@ -10437,7 +10432,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172">
         <v>10416</v>
       </c>
@@ -10484,7 +10479,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173">
         <v>10420</v>
       </c>
@@ -10534,7 +10529,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174">
         <v>10417</v>
       </c>
@@ -10581,7 +10576,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175">
         <v>10407</v>
       </c>
@@ -10628,7 +10623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176">
         <v>10419</v>
       </c>
@@ -10675,7 +10670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16">
       <c r="A177">
         <v>10422</v>
       </c>
@@ -10722,7 +10717,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16">
       <c r="A178">
         <v>10430</v>
       </c>
@@ -10769,7 +10764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16">
       <c r="A179">
         <v>10428</v>
       </c>
@@ -10816,7 +10811,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16">
       <c r="A180">
         <v>10426</v>
       </c>
@@ -10863,7 +10858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16">
       <c r="A181">
         <v>10431</v>
       </c>
@@ -10913,7 +10908,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16">
       <c r="A182">
         <v>10435</v>
       </c>
@@ -10960,7 +10955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16">
       <c r="A183">
         <v>10429</v>
       </c>
@@ -11007,7 +11002,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16">
       <c r="A184">
         <v>10432</v>
       </c>
@@ -11057,7 +11052,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16">
       <c r="A185">
         <v>10439</v>
       </c>
@@ -11107,7 +11102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16">
       <c r="A186">
         <v>10436</v>
       </c>
@@ -11154,7 +11149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16">
       <c r="A187">
         <v>10437</v>
       </c>
@@ -11201,7 +11196,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16">
       <c r="A188">
         <v>10434</v>
       </c>
@@ -11248,7 +11243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16">
       <c r="A189">
         <v>10425</v>
       </c>
@@ -11295,7 +11290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190">
         <v>10443</v>
       </c>
@@ -11342,7 +11337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16">
       <c r="A191">
         <v>10438</v>
       </c>
@@ -11389,7 +11384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192">
         <v>10442</v>
       </c>
@@ -11436,7 +11431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193">
         <v>10446</v>
       </c>
@@ -11483,7 +11478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194">
         <v>10445</v>
       </c>
@@ -11530,7 +11525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195">
         <v>10444</v>
       </c>
@@ -11577,7 +11572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196">
         <v>10423</v>
       </c>
@@ -11627,7 +11622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197">
         <v>10448</v>
       </c>
@@ -11674,7 +11669,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198">
         <v>10454</v>
       </c>
@@ -11721,7 +11716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199">
         <v>10453</v>
       </c>
@@ -11771,7 +11766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200">
         <v>10452</v>
       </c>
@@ -11821,7 +11816,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201">
         <v>10449</v>
       </c>
@@ -11868,7 +11863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202">
         <v>10456</v>
       </c>
@@ -11915,7 +11910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203">
         <v>10440</v>
       </c>
@@ -11965,7 +11960,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204">
         <v>10459</v>
       </c>
@@ -12012,7 +12007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205">
         <v>10460</v>
       </c>
@@ -12059,7 +12054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206">
         <v>10457</v>
       </c>
@@ -12106,7 +12101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207">
         <v>10427</v>
       </c>
@@ -12153,7 +12148,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208">
         <v>10455</v>
       </c>
@@ -12200,7 +12195,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16">
       <c r="A209">
         <v>10433</v>
       </c>
@@ -12247,7 +12242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16">
       <c r="A210">
         <v>10458</v>
       </c>
@@ -12294,7 +12289,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16">
       <c r="A211">
         <v>10461</v>
       </c>
@@ -12344,7 +12339,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16">
       <c r="A212">
         <v>10463</v>
       </c>
@@ -12391,7 +12386,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16">
       <c r="A213">
         <v>10447</v>
       </c>
@@ -12441,7 +12436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16">
       <c r="A214">
         <v>10467</v>
       </c>
@@ -12488,7 +12483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16">
       <c r="A215">
         <v>10450</v>
       </c>
@@ -12535,7 +12530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16">
       <c r="A216">
         <v>10468</v>
       </c>
@@ -12582,7 +12577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16">
       <c r="A217">
         <v>10451</v>
       </c>
@@ -12629,7 +12624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16">
       <c r="A218">
         <v>10466</v>
       </c>
@@ -12679,7 +12674,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16">
       <c r="A219">
         <v>10470</v>
       </c>
@@ -12726,7 +12721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16">
       <c r="A220">
         <v>10464</v>
       </c>
@@ -12773,7 +12768,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16">
       <c r="A221">
         <v>10441</v>
       </c>
@@ -12823,7 +12818,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16">
       <c r="A222">
         <v>10465</v>
       </c>
@@ -12870,7 +12865,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16">
       <c r="A223">
         <v>10469</v>
       </c>
@@ -12920,7 +12915,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
       <c r="A224">
         <v>10471</v>
       </c>
@@ -12967,7 +12962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16">
       <c r="A225">
         <v>10462</v>
       </c>
@@ -13014,7 +13009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16">
       <c r="A226">
         <v>10472</v>
       </c>
@@ -13061,7 +13056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16">
       <c r="A227">
         <v>10473</v>
       </c>
@@ -13111,7 +13106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16">
       <c r="A228">
         <v>10474</v>
       </c>
@@ -13158,7 +13153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16">
       <c r="A229">
         <v>10479</v>
       </c>
@@ -13208,7 +13203,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16">
       <c r="A230">
         <v>10480</v>
       </c>
@@ -13255,7 +13250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16">
       <c r="A231">
         <v>10476</v>
       </c>
@@ -13305,7 +13300,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16">
       <c r="A232">
         <v>10477</v>
       </c>
@@ -13352,7 +13347,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16">
       <c r="A233">
         <v>10481</v>
       </c>
@@ -13402,7 +13397,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16">
       <c r="A234">
         <v>10478</v>
       </c>
@@ -13449,7 +13444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16">
       <c r="A235">
         <v>10487</v>
       </c>
@@ -13499,7 +13494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16">
       <c r="A236">
         <v>10485</v>
       </c>
@@ -13549,7 +13544,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16">
       <c r="A237">
         <v>10484</v>
       </c>
@@ -13596,7 +13591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16">
       <c r="A238">
         <v>10488</v>
       </c>
@@ -13643,7 +13638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16">
       <c r="A239">
         <v>10486</v>
       </c>
@@ -13693,7 +13688,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16">
       <c r="A240">
         <v>10490</v>
       </c>
@@ -13743,7 +13738,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16">
       <c r="A241">
         <v>10475</v>
       </c>
@@ -13790,7 +13785,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16">
       <c r="A242">
         <v>10497</v>
       </c>
@@ -13837,7 +13832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16">
       <c r="A243">
         <v>10496</v>
       </c>
@@ -13887,7 +13882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16">
       <c r="A244">
         <v>10491</v>
       </c>
@@ -13934,7 +13929,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16">
       <c r="A245">
         <v>10494</v>
       </c>
@@ -13984,7 +13979,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16">
       <c r="A246">
         <v>10489</v>
       </c>
@@ -14031,7 +14026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16">
       <c r="A247">
         <v>10493</v>
       </c>
@@ -14078,7 +14073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16">
       <c r="A248">
         <v>10482</v>
       </c>
@@ -14128,7 +14123,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16">
       <c r="A249">
         <v>10492</v>
       </c>
@@ -14178,7 +14173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16">
       <c r="A250">
         <v>10498</v>
       </c>
@@ -14228,7 +14223,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16">
       <c r="A251">
         <v>10495</v>
       </c>
@@ -14278,7 +14273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16">
       <c r="A252">
         <v>10501</v>
       </c>
@@ -14325,7 +14320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16">
       <c r="A253">
         <v>10503</v>
       </c>
@@ -14372,7 +14367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16">
       <c r="A254">
         <v>10499</v>
       </c>
@@ -14422,7 +14417,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16">
       <c r="A255">
         <v>10500</v>
       </c>
@@ -14469,7 +14464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16">
       <c r="A256">
         <v>10504</v>
       </c>
@@ -14519,7 +14514,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16">
       <c r="A257">
         <v>10511</v>
       </c>
@@ -14566,7 +14561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16">
       <c r="A258">
         <v>10505</v>
       </c>
@@ -14616,7 +14611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16">
       <c r="A259">
         <v>10507</v>
       </c>
@@ -14663,7 +14658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16">
       <c r="A260">
         <v>10512</v>
       </c>
@@ -14713,7 +14708,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16">
       <c r="A261">
         <v>10483</v>
       </c>
@@ -14763,7 +14758,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16">
       <c r="A262">
         <v>10510</v>
       </c>
@@ -14813,7 +14808,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16">
       <c r="A263">
         <v>10513</v>
       </c>
@@ -14860,7 +14855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16">
       <c r="A264">
         <v>10509</v>
       </c>
@@ -14907,7 +14902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16">
       <c r="A265">
         <v>10517</v>
       </c>
@@ -14954,7 +14949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16">
       <c r="A266">
         <v>10502</v>
       </c>
@@ -15001,7 +14996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16">
       <c r="A267">
         <v>10519</v>
       </c>
@@ -15048,7 +15043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16">
       <c r="A268">
         <v>10516</v>
       </c>
@@ -15095,7 +15090,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16">
       <c r="A269">
         <v>10520</v>
       </c>
@@ -15142,7 +15137,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16">
       <c r="A270">
         <v>10521</v>
       </c>
@@ -15189,7 +15184,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16">
       <c r="A271">
         <v>10506</v>
       </c>
@@ -15236,7 +15231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16">
       <c r="A272">
         <v>10518</v>
       </c>
@@ -15283,7 +15278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16">
       <c r="A273">
         <v>10522</v>
       </c>
@@ -15330,7 +15325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16">
       <c r="A274">
         <v>10524</v>
       </c>
@@ -15377,7 +15372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16">
       <c r="A275">
         <v>10527</v>
       </c>
@@ -15424,7 +15419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16">
       <c r="A276">
         <v>10528</v>
       </c>
@@ -15474,7 +15469,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16">
       <c r="A277">
         <v>10529</v>
       </c>
@@ -15521,7 +15516,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16">
       <c r="A278">
         <v>10532</v>
       </c>
@@ -15568,7 +15563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16">
       <c r="A279">
         <v>10530</v>
       </c>
@@ -15615,7 +15610,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16">
       <c r="A280">
         <v>10508</v>
       </c>
@@ -15662,7 +15657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16">
       <c r="A281">
         <v>10534</v>
       </c>
@@ -15709,7 +15704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16">
       <c r="A282">
         <v>10526</v>
       </c>
@@ -15756,7 +15751,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16">
       <c r="A283">
         <v>10538</v>
       </c>
@@ -15803,7 +15798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16">
       <c r="A284">
         <v>10514</v>
       </c>
@@ -15850,7 +15845,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16">
       <c r="A285">
         <v>10531</v>
       </c>
@@ -15897,7 +15892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16">
       <c r="A286">
         <v>10537</v>
       </c>
@@ -15944,7 +15939,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16">
       <c r="A287">
         <v>10535</v>
       </c>
@@ -15991,7 +15986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16">
       <c r="A288">
         <v>10533</v>
       </c>
@@ -16038,7 +16033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16">
       <c r="A289">
         <v>10525</v>
       </c>
@@ -16085,7 +16080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16">
       <c r="A290">
         <v>10539</v>
       </c>
@@ -16132,7 +16127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16">
       <c r="A291">
         <v>10543</v>
       </c>
@@ -16182,7 +16177,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16">
       <c r="A292">
         <v>10515</v>
       </c>
@@ -16229,7 +16224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16">
       <c r="A293">
         <v>10542</v>
       </c>
@@ -16276,7 +16271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16">
       <c r="A294">
         <v>10546</v>
       </c>
@@ -16323,7 +16318,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16">
       <c r="A295">
         <v>10541</v>
       </c>
@@ -16373,7 +16368,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16">
       <c r="A296">
         <v>10544</v>
       </c>
@@ -16423,7 +16418,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16">
       <c r="A297">
         <v>10549</v>
       </c>
@@ -16470,7 +16465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16">
       <c r="A298">
         <v>10523</v>
       </c>
@@ -16517,7 +16512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16">
       <c r="A299">
         <v>10547</v>
       </c>
@@ -16564,7 +16559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16">
       <c r="A300">
         <v>10548</v>
       </c>
@@ -16611,7 +16606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16">
       <c r="A301">
         <v>10553</v>
       </c>
@@ -16658,7 +16653,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16">
       <c r="A302">
         <v>10555</v>
       </c>
@@ -16708,7 +16703,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16">
       <c r="A303">
         <v>10552</v>
       </c>
@@ -16758,7 +16753,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16">
       <c r="A304">
         <v>10554</v>
       </c>
@@ -16805,7 +16800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16">
       <c r="A305">
         <v>10551</v>
       </c>
@@ -16852,7 +16847,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16">
       <c r="A306">
         <v>10550</v>
       </c>
@@ -16899,7 +16894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16">
       <c r="A307">
         <v>10536</v>
       </c>
@@ -16946,7 +16941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16">
       <c r="A308">
         <v>10557</v>
       </c>
@@ -16993,7 +16988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16">
       <c r="A309">
         <v>10561</v>
       </c>
@@ -17040,7 +17035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16">
       <c r="A310">
         <v>10560</v>
       </c>
@@ -17087,7 +17082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16">
       <c r="A311">
         <v>10558</v>
       </c>
@@ -17137,7 +17132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16">
       <c r="A312">
         <v>10562</v>
       </c>
@@ -17184,7 +17179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16">
       <c r="A313">
         <v>10559</v>
       </c>
@@ -17231,7 +17226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16">
       <c r="A314">
         <v>10540</v>
       </c>
@@ -17278,7 +17273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16">
       <c r="A315">
         <v>10556</v>
       </c>
@@ -17325,7 +17320,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16">
       <c r="A316">
         <v>10564</v>
       </c>
@@ -17375,7 +17370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16">
       <c r="A317">
         <v>10567</v>
       </c>
@@ -17422,7 +17417,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16">
       <c r="A318">
         <v>10566</v>
       </c>
@@ -17469,7 +17464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16">
       <c r="A319">
         <v>10565</v>
       </c>
@@ -17519,7 +17514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16">
       <c r="A320">
         <v>10570</v>
       </c>
@@ -17569,7 +17564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16">
       <c r="A321">
         <v>10573</v>
       </c>
@@ -17616,7 +17611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16">
       <c r="A322">
         <v>10563</v>
       </c>
@@ -17666,7 +17661,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16">
       <c r="A323">
         <v>10572</v>
       </c>
@@ -17713,7 +17708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16">
       <c r="A324">
         <v>10545</v>
       </c>
@@ -17763,7 +17758,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16">
       <c r="A325">
         <v>10575</v>
       </c>
@@ -17810,7 +17805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16">
       <c r="A326">
         <v>10576</v>
       </c>
@@ -17857,7 +17852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16">
       <c r="A327">
         <v>10574</v>
       </c>
@@ -17907,7 +17902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16">
       <c r="A328">
         <v>10577</v>
       </c>
@@ -17957,7 +17952,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16">
       <c r="A329">
         <v>10580</v>
       </c>
@@ -18004,7 +17999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16">
       <c r="A330">
         <v>10581</v>
       </c>
@@ -18054,7 +18049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16">
       <c r="A331">
         <v>10584</v>
       </c>
@@ -18101,7 +18096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16">
       <c r="A332">
         <v>10571</v>
       </c>
@@ -18148,7 +18143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16">
       <c r="A333">
         <v>10579</v>
       </c>
@@ -18198,7 +18193,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16">
       <c r="A334">
         <v>10583</v>
       </c>
@@ -18245,7 +18240,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16">
       <c r="A335">
         <v>10568</v>
       </c>
@@ -18292,7 +18287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16">
       <c r="A336">
         <v>10587</v>
       </c>
@@ -18342,7 +18337,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="A337">
         <v>10586</v>
       </c>
@@ -18389,7 +18384,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="A338">
         <v>10588</v>
       </c>
@@ -18436,7 +18431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="A339">
         <v>10585</v>
       </c>
@@ -18486,7 +18481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="A340">
         <v>10569</v>
       </c>
@@ -18536,7 +18531,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="A341">
         <v>10582</v>
       </c>
@@ -18583,7 +18578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342">
         <v>10595</v>
       </c>
@@ -18630,7 +18625,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343">
         <v>10589</v>
       </c>
@@ -18680,7 +18675,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16">
       <c r="A344">
         <v>10590</v>
       </c>
@@ -18730,7 +18725,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345">
         <v>10592</v>
       </c>
@@ -18777,7 +18772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="A346">
         <v>10594</v>
       </c>
@@ -18827,7 +18822,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347">
         <v>10591</v>
       </c>
@@ -18874,7 +18869,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="A348">
         <v>10597</v>
       </c>
@@ -18921,7 +18916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="A349">
         <v>10598</v>
       </c>
@@ -18971,7 +18966,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="A350">
         <v>10599</v>
       </c>
@@ -19018,7 +19013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="A351">
         <v>10600</v>
       </c>
@@ -19068,7 +19063,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="A352">
         <v>10601</v>
       </c>
@@ -19118,7 +19113,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16">
       <c r="A353">
         <v>10602</v>
       </c>
@@ -19165,7 +19160,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16">
       <c r="A354">
         <v>10578</v>
       </c>
@@ -19212,7 +19207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16">
       <c r="A355">
         <v>10607</v>
       </c>
@@ -19262,7 +19257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16">
       <c r="A356">
         <v>10604</v>
       </c>
@@ -19309,7 +19304,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16">
       <c r="A357">
         <v>10605</v>
       </c>
@@ -19359,7 +19354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16">
       <c r="A358">
         <v>10609</v>
       </c>
@@ -19406,7 +19401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16">
       <c r="A359">
         <v>10606</v>
       </c>
@@ -19456,7 +19451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16">
       <c r="A360">
         <v>10614</v>
       </c>
@@ -19503,7 +19498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361">
         <v>10613</v>
       </c>
@@ -19553,7 +19548,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362">
         <v>10612</v>
       </c>
@@ -19603,7 +19598,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363">
         <v>10608</v>
       </c>
@@ -19650,7 +19645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16">
       <c r="A364">
         <v>10611</v>
       </c>
@@ -19697,7 +19692,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16">
       <c r="A365">
         <v>10617</v>
       </c>
@@ -19747,7 +19742,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16">
       <c r="A366">
         <v>10616</v>
       </c>
@@ -19797,7 +19792,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16">
       <c r="A367">
         <v>10610</v>
       </c>
@@ -19844,7 +19839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16">
       <c r="A368">
         <v>10615</v>
       </c>
@@ -19891,7 +19886,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16">
       <c r="A369">
         <v>10619</v>
       </c>
@@ -19941,7 +19936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16">
       <c r="A370">
         <v>10618</v>
       </c>
@@ -19991,7 +19986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16">
       <c r="A371">
         <v>10603</v>
       </c>
@@ -20041,7 +20036,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16">
       <c r="A372">
         <v>10621</v>
       </c>
@@ -20091,7 +20086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16">
       <c r="A373">
         <v>10622</v>
       </c>
@@ -20141,7 +20136,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16">
       <c r="A374">
         <v>10623</v>
       </c>
@@ -20188,7 +20183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16">
       <c r="A375">
         <v>10596</v>
       </c>
@@ -20238,7 +20233,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16">
       <c r="A376">
         <v>10593</v>
       </c>
@@ -20285,7 +20280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16">
       <c r="A377">
         <v>10625</v>
       </c>
@@ -20332,7 +20327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16">
       <c r="A378">
         <v>10620</v>
       </c>
@@ -20382,7 +20377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16">
       <c r="A379">
         <v>10631</v>
       </c>
@@ -20429,7 +20424,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16">
       <c r="A380">
         <v>10633</v>
       </c>
@@ -20476,7 +20471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16">
       <c r="A381">
         <v>10630</v>
       </c>
@@ -20523,7 +20518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16">
       <c r="A382">
         <v>10624</v>
       </c>
@@ -20573,7 +20568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16">
       <c r="A383">
         <v>10632</v>
       </c>
@@ -20620,7 +20615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16">
       <c r="A384">
         <v>10626</v>
       </c>
@@ -20667,7 +20662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16">
       <c r="A385">
         <v>10628</v>
       </c>
@@ -20714,7 +20709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16">
       <c r="A386">
         <v>10629</v>
       </c>
@@ -20761,7 +20756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16">
       <c r="A387">
         <v>10634</v>
       </c>
@@ -20808,7 +20803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16">
       <c r="A388">
         <v>10635</v>
       </c>
@@ -20855,7 +20850,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16">
       <c r="A389">
         <v>10627</v>
       </c>
@@ -20905,7 +20900,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16">
       <c r="A390">
         <v>10641</v>
       </c>
@@ -20955,7 +20950,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16">
       <c r="A391">
         <v>10637</v>
       </c>
@@ -21005,7 +21000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16">
       <c r="A392">
         <v>10636</v>
       </c>
@@ -21052,7 +21047,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16">
       <c r="A393">
         <v>10639</v>
       </c>
@@ -21099,7 +21094,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16">
       <c r="A394">
         <v>10640</v>
       </c>
@@ -21146,7 +21141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16">
       <c r="A395">
         <v>10649</v>
       </c>
@@ -21193,7 +21188,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16">
       <c r="A396">
         <v>10638</v>
       </c>
@@ -21243,7 +21238,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16">
       <c r="A397">
         <v>10644</v>
       </c>
@@ -21293,7 +21288,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16">
       <c r="A398">
         <v>10643</v>
       </c>
@@ -21340,7 +21335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16">
       <c r="A399">
         <v>10645</v>
       </c>
@@ -21390,7 +21385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16">
       <c r="A400">
         <v>10650</v>
       </c>
@@ -21440,7 +21435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16">
       <c r="A401">
         <v>10646</v>
       </c>
@@ -21487,7 +21482,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16">
       <c r="A402">
         <v>10647</v>
       </c>
@@ -21537,7 +21532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16">
       <c r="A403">
         <v>10642</v>
       </c>
@@ -21584,7 +21579,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16">
       <c r="A404">
         <v>10652</v>
       </c>
@@ -21634,7 +21629,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16">
       <c r="A405">
         <v>10658</v>
       </c>
@@ -21681,7 +21676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16">
       <c r="A406">
         <v>10648</v>
       </c>
@@ -21731,7 +21726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16">
       <c r="A407">
         <v>10656</v>
       </c>
@@ -21781,7 +21776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16">
       <c r="A408">
         <v>10659</v>
       </c>
@@ -21831,7 +21826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16">
       <c r="A409">
         <v>10654</v>
       </c>
@@ -21878,7 +21873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16">
       <c r="A410">
         <v>10655</v>
       </c>
@@ -21925,7 +21920,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16">
       <c r="A411">
         <v>10651</v>
       </c>
@@ -21972,7 +21967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16">
       <c r="A412">
         <v>10661</v>
       </c>
@@ -22019,7 +22014,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16">
       <c r="A413">
         <v>10657</v>
       </c>
@@ -22069,7 +22064,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16">
       <c r="A414">
         <v>10665</v>
       </c>
@@ -22119,7 +22114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16">
       <c r="A415">
         <v>10670</v>
       </c>
@@ -22166,7 +22161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16">
       <c r="A416">
         <v>10662</v>
       </c>
@@ -22216,7 +22211,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16">
       <c r="A417">
         <v>10667</v>
       </c>
@@ -22263,7 +22258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16">
       <c r="A418">
         <v>10653</v>
       </c>
@@ -22310,7 +22305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16">
       <c r="A419">
         <v>10664</v>
       </c>
@@ -22357,7 +22352,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16">
       <c r="A420">
         <v>10673</v>
       </c>
@@ -22404,7 +22399,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16">
       <c r="A421">
         <v>10666</v>
       </c>
@@ -22451,7 +22446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16">
       <c r="A422">
         <v>10669</v>
       </c>
@@ -22498,7 +22493,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16">
       <c r="A423">
         <v>10675</v>
       </c>
@@ -22545,7 +22540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16">
       <c r="A424">
         <v>10668</v>
       </c>
@@ -22592,7 +22587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16">
       <c r="A425">
         <v>10671</v>
       </c>
@@ -22639,7 +22634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16">
       <c r="A426">
         <v>10677</v>
       </c>
@@ -22686,7 +22681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16">
       <c r="A427">
         <v>10672</v>
       </c>
@@ -22733,7 +22728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16">
       <c r="A428">
         <v>10680</v>
       </c>
@@ -22783,7 +22778,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16">
       <c r="A429">
         <v>10676</v>
       </c>
@@ -22830,7 +22825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16">
       <c r="A430">
         <v>10679</v>
       </c>
@@ -22877,7 +22872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16">
       <c r="A431">
         <v>10681</v>
       </c>
@@ -22927,7 +22922,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16">
       <c r="A432">
         <v>10674</v>
       </c>
@@ -22977,7 +22972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16">
       <c r="A433">
         <v>10684</v>
       </c>
@@ -23024,7 +23019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16">
       <c r="A434">
         <v>10682</v>
       </c>
@@ -23071,7 +23066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16">
       <c r="A435">
         <v>10683</v>
       </c>
@@ -23118,7 +23113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16">
       <c r="A436">
         <v>10663</v>
       </c>
@@ -23165,7 +23160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16">
       <c r="A437">
         <v>10685</v>
       </c>
@@ -23215,7 +23210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16">
       <c r="A438">
         <v>10690</v>
       </c>
@@ -23265,7 +23260,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16">
       <c r="A439">
         <v>10689</v>
       </c>
@@ -23312,7 +23307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16">
       <c r="A440">
         <v>10688</v>
       </c>
@@ -23359,7 +23354,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16">
       <c r="A441">
         <v>10686</v>
       </c>
@@ -23406,7 +23401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16">
       <c r="A442">
         <v>10694</v>
       </c>
@@ -23453,7 +23448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16">
       <c r="A443">
         <v>10693</v>
       </c>
@@ -23503,7 +23498,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16">
       <c r="A444">
         <v>10692</v>
       </c>
@@ -23550,7 +23545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16">
       <c r="A445">
         <v>10699</v>
       </c>
@@ -23597,7 +23592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16">
       <c r="A446">
         <v>10697</v>
       </c>
@@ -23647,7 +23642,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16">
       <c r="A447">
         <v>10696</v>
       </c>
@@ -23697,7 +23692,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16">
       <c r="A448">
         <v>10695</v>
       </c>
@@ -23744,7 +23739,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16">
       <c r="A449">
         <v>10660</v>
       </c>
@@ -23794,7 +23789,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16">
       <c r="A450">
         <v>10701</v>
       </c>
@@ -23841,7 +23836,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16">
       <c r="A451">
         <v>10678</v>
       </c>
@@ -23891,7 +23886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16">
       <c r="A452">
         <v>10700</v>
       </c>
@@ -23941,7 +23936,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16">
       <c r="A453">
         <v>10698</v>
       </c>
@@ -23988,7 +23983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16">
       <c r="A454">
         <v>10703</v>
       </c>
@@ -24035,7 +24030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16">
       <c r="A455">
         <v>10702</v>
       </c>
@@ -24082,7 +24077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16">
       <c r="A456">
         <v>10706</v>
       </c>
@@ -24132,7 +24127,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16">
       <c r="A457">
         <v>10691</v>
       </c>
@@ -24179,7 +24174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16">
       <c r="A458">
         <v>10707</v>
       </c>
@@ -24229,7 +24224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16">
       <c r="A459">
         <v>10710</v>
       </c>
@@ -24276,7 +24271,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16">
       <c r="A460">
         <v>10713</v>
       </c>
@@ -24326,7 +24321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16">
       <c r="A461">
         <v>10716</v>
       </c>
@@ -24373,7 +24368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16">
       <c r="A462">
         <v>10714</v>
       </c>
@@ -24423,7 +24418,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16">
       <c r="A463">
         <v>10715</v>
       </c>
@@ -24470,7 +24465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16">
       <c r="A464">
         <v>10717</v>
       </c>
@@ -24517,7 +24512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16">
       <c r="A465">
         <v>10718</v>
       </c>
@@ -24564,7 +24559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16">
       <c r="A466">
         <v>10711</v>
       </c>
@@ -24614,7 +24609,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16">
       <c r="A467">
         <v>10687</v>
       </c>
@@ -24661,7 +24656,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16">
       <c r="A468">
         <v>10712</v>
       </c>
@@ -24708,7 +24703,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16">
       <c r="A469">
         <v>10721</v>
       </c>
@@ -24755,7 +24750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16">
       <c r="A470">
         <v>10722</v>
       </c>
@@ -24805,7 +24800,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16">
       <c r="A471">
         <v>10725</v>
       </c>
@@ -24855,7 +24850,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16">
       <c r="A472">
         <v>10719</v>
       </c>
@@ -24905,7 +24900,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16">
       <c r="A473">
         <v>10724</v>
       </c>
@@ -24955,7 +24950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16">
       <c r="A474">
         <v>10720</v>
       </c>
@@ -25005,7 +25000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16">
       <c r="A475">
         <v>10708</v>
       </c>
@@ -25055,7 +25050,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16">
       <c r="A476">
         <v>10732</v>
       </c>
@@ -25102,7 +25097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16">
       <c r="A477">
         <v>10704</v>
       </c>
@@ -25152,7 +25147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16">
       <c r="A478">
         <v>10733</v>
       </c>
@@ -25199,7 +25194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16">
       <c r="A479">
         <v>10728</v>
       </c>
@@ -25249,7 +25244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16">
       <c r="A480">
         <v>10734</v>
       </c>
@@ -25299,7 +25294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16">
       <c r="A481">
         <v>10730</v>
       </c>
@@ -25346,7 +25341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16">
       <c r="A482">
         <v>10731</v>
       </c>
@@ -25393,7 +25388,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16">
       <c r="A483">
         <v>10729</v>
       </c>
@@ -25443,7 +25438,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16">
       <c r="A484">
         <v>10739</v>
       </c>
@@ -25490,7 +25485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16">
       <c r="A485">
         <v>10741</v>
       </c>
@@ -25540,7 +25535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16">
       <c r="A486">
         <v>10742</v>
       </c>
@@ -25590,7 +25585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16">
       <c r="A487">
         <v>10705</v>
       </c>
@@ -25640,7 +25635,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16">
       <c r="A488">
         <v>10738</v>
       </c>
@@ -25687,7 +25682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16">
       <c r="A489">
         <v>10737</v>
       </c>
@@ -25734,7 +25729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16">
       <c r="A490">
         <v>10709</v>
       </c>
@@ -25784,7 +25779,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16">
       <c r="A491">
         <v>10743</v>
       </c>
@@ -25834,7 +25829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16">
       <c r="A492">
         <v>10746</v>
       </c>
@@ -25881,7 +25876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16">
       <c r="A493">
         <v>10736</v>
       </c>
@@ -25928,7 +25923,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16">
       <c r="A494">
         <v>10735</v>
       </c>
@@ -25978,7 +25973,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16">
       <c r="A495">
         <v>10744</v>
       </c>
@@ -26025,7 +26020,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16">
       <c r="A496">
         <v>10750</v>
       </c>
@@ -26072,7 +26067,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16">
       <c r="A497">
         <v>10723</v>
       </c>
@@ -26122,7 +26117,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16">
       <c r="A498">
         <v>10740</v>
       </c>
@@ -26172,7 +26167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16">
       <c r="A499">
         <v>10747</v>
       </c>
@@ -26219,7 +26214,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16">
       <c r="A500">
         <v>10753</v>
       </c>
@@ -26266,7 +26261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16">
       <c r="A501">
         <v>10754</v>
       </c>
@@ -26313,7 +26308,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16">
       <c r="A502">
         <v>10745</v>
       </c>
@@ -26360,7 +26355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16">
       <c r="A503">
         <v>10755</v>
       </c>
@@ -26407,7 +26402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16">
       <c r="A504">
         <v>10752</v>
       </c>
@@ -26454,7 +26449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16">
       <c r="A505">
         <v>10748</v>
       </c>
@@ -26504,7 +26499,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16">
       <c r="A506">
         <v>10756</v>
       </c>
@@ -26554,7 +26549,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16">
       <c r="A507">
         <v>10751</v>
       </c>
@@ -26601,7 +26596,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16">
       <c r="A508">
         <v>10758</v>
       </c>
@@ -26648,7 +26643,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16">
       <c r="A509">
         <v>10726</v>
       </c>
@@ -26695,7 +26690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16">
       <c r="A510">
         <v>10727</v>
       </c>
@@ -26742,7 +26737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16">
       <c r="A511">
         <v>10764</v>
       </c>
@@ -26789,7 +26784,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16">
       <c r="A512">
         <v>10763</v>
       </c>
@@ -26836,7 +26831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16">
       <c r="A513">
         <v>10761</v>
       </c>
@@ -26886,7 +26881,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16">
       <c r="A514">
         <v>10762</v>
       </c>
@@ -26933,7 +26928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16">
       <c r="A515">
         <v>10766</v>
       </c>
@@ -26980,7 +26975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16">
       <c r="A516">
         <v>10765</v>
       </c>
@@ -27027,7 +27022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16">
       <c r="A517">
         <v>10760</v>
       </c>
@@ -27074,7 +27069,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16">
       <c r="A518">
         <v>10759</v>
       </c>
@@ -27121,7 +27116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16">
       <c r="A519">
         <v>10774</v>
       </c>
@@ -27168,7 +27163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16">
       <c r="A520">
         <v>10769</v>
       </c>
@@ -27215,7 +27210,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16">
       <c r="A521">
         <v>10768</v>
       </c>
@@ -27265,7 +27260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16">
       <c r="A522">
         <v>10757</v>
       </c>
@@ -27315,7 +27310,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16">
       <c r="A523">
         <v>10767</v>
       </c>
@@ -27362,7 +27357,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16">
       <c r="A524">
         <v>10773</v>
       </c>
@@ -27409,7 +27404,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16">
       <c r="A525">
         <v>10770</v>
       </c>
@@ -27459,7 +27454,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16">
       <c r="A526">
         <v>10776</v>
       </c>
@@ -27506,7 +27501,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16">
       <c r="A527">
         <v>10783</v>
       </c>
@@ -27556,7 +27551,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16">
       <c r="A528">
         <v>10749</v>
       </c>
@@ -27606,7 +27601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16">
       <c r="A529">
         <v>10772</v>
       </c>
@@ -27653,7 +27648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16">
       <c r="A530">
         <v>10781</v>
       </c>
@@ -27700,7 +27695,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16">
       <c r="A531">
         <v>10782</v>
       </c>
@@ -27747,7 +27742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16">
       <c r="A532">
         <v>10784</v>
       </c>
@@ -27794,7 +27789,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16">
       <c r="A533">
         <v>10786</v>
       </c>
@@ -27844,7 +27839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16">
       <c r="A534">
         <v>10778</v>
       </c>
@@ -27891,7 +27886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16">
       <c r="A535">
         <v>10785</v>
       </c>
@@ -27941,7 +27936,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16">
       <c r="A536">
         <v>10780</v>
       </c>
@@ -27991,7 +27986,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16">
       <c r="A537">
         <v>10790</v>
       </c>
@@ -28041,7 +28036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16">
       <c r="A538">
         <v>10787</v>
       </c>
@@ -28088,7 +28083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16">
       <c r="A539">
         <v>10775</v>
       </c>
@@ -28138,7 +28133,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16">
       <c r="A540">
         <v>10801</v>
       </c>
@@ -28185,7 +28180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16">
       <c r="A541">
         <v>10789</v>
       </c>
@@ -28232,7 +28227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16">
       <c r="A542">
         <v>10792</v>
       </c>
@@ -28279,7 +28274,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16">
       <c r="A543">
         <v>10791</v>
       </c>
@@ -28326,7 +28321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16">
       <c r="A544">
         <v>10771</v>
       </c>
@@ -28373,7 +28368,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16">
       <c r="A545">
         <v>10794</v>
       </c>
@@ -28423,7 +28418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16">
       <c r="A546">
         <v>10802</v>
       </c>
@@ -28470,7 +28465,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16">
       <c r="A547">
         <v>10797</v>
       </c>
@@ -28517,7 +28512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16">
       <c r="A548">
         <v>10798</v>
       </c>
@@ -28567,7 +28562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16">
       <c r="A549">
         <v>10799</v>
       </c>
@@ -28614,7 +28609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16">
       <c r="A550">
         <v>10800</v>
       </c>
@@ -28661,7 +28656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16">
       <c r="A551">
         <v>10806</v>
       </c>
@@ -28708,7 +28703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16">
       <c r="A552">
         <v>10803</v>
       </c>
@@ -28758,7 +28753,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16">
       <c r="A553">
         <v>10810</v>
       </c>
@@ -28808,7 +28803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16">
       <c r="A554">
         <v>10804</v>
       </c>
@@ -28855,7 +28850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16">
       <c r="A555">
         <v>10809</v>
       </c>
@@ -28905,7 +28900,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16">
       <c r="A556">
         <v>10793</v>
       </c>
@@ -28955,7 +28950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16">
       <c r="A557">
         <v>10811</v>
       </c>
@@ -29005,7 +29000,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16">
       <c r="A558">
         <v>10808</v>
       </c>
@@ -29055,7 +29050,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16">
       <c r="A559">
         <v>10813</v>
       </c>
@@ -29105,7 +29100,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16">
       <c r="A560">
         <v>10805</v>
       </c>
@@ -29155,7 +29150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16">
       <c r="A561">
         <v>10818</v>
       </c>
@@ -29202,7 +29197,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16">
       <c r="A562">
         <v>10812</v>
       </c>
@@ -29249,7 +29244,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16">
       <c r="A563">
         <v>10817</v>
       </c>
@@ -29296,7 +29291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16">
       <c r="A564">
         <v>10823</v>
       </c>
@@ -29346,7 +29341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16">
       <c r="A565">
         <v>10820</v>
       </c>
@@ -29396,7 +29391,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16">
       <c r="A566">
         <v>10825</v>
       </c>
@@ -29443,7 +29438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16">
       <c r="A567">
         <v>10796</v>
       </c>
@@ -29493,7 +29488,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16">
       <c r="A568">
         <v>10779</v>
       </c>
@@ -29540,7 +29535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16">
       <c r="A569">
         <v>10815</v>
       </c>
@@ -29590,7 +29585,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16">
       <c r="A570">
         <v>10814</v>
       </c>
@@ -29637,7 +29632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16">
       <c r="A571">
         <v>10821</v>
       </c>
@@ -29687,7 +29682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16">
       <c r="A572">
         <v>10819</v>
       </c>
@@ -29734,7 +29729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16">
       <c r="A573">
         <v>10822</v>
       </c>
@@ -29784,7 +29779,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16">
       <c r="A574">
         <v>10832</v>
       </c>
@@ -29831,7 +29826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16">
       <c r="A575">
         <v>10788</v>
       </c>
@@ -29878,7 +29873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16">
       <c r="A576">
         <v>10834</v>
       </c>
@@ -29928,7 +29923,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16">
       <c r="A577">
         <v>10795</v>
       </c>
@@ -29975,7 +29970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16">
       <c r="A578">
         <v>10835</v>
       </c>
@@ -30022,7 +30017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16">
       <c r="A579">
         <v>10836</v>
       </c>
@@ -30069,7 +30064,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16">
       <c r="A580">
         <v>10777</v>
       </c>
@@ -30119,7 +30114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16">
       <c r="A581">
         <v>10830</v>
       </c>
@@ -30169,7 +30164,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16">
       <c r="A582">
         <v>10839</v>
       </c>
@@ -30219,7 +30214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16">
       <c r="A583">
         <v>10837</v>
       </c>
@@ -30266,7 +30261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16">
       <c r="A584">
         <v>10829</v>
       </c>
@@ -30316,7 +30311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16">
       <c r="A585">
         <v>10838</v>
       </c>
@@ -30366,7 +30361,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16">
       <c r="A586">
         <v>10833</v>
       </c>
@@ -30413,7 +30408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16">
       <c r="A587">
         <v>10831</v>
       </c>
@@ -30460,7 +30455,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16">
       <c r="A588">
         <v>10846</v>
       </c>
@@ -30507,7 +30502,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16">
       <c r="A589">
         <v>10844</v>
       </c>
@@ -30554,7 +30549,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16">
       <c r="A590">
         <v>10843</v>
       </c>
@@ -30601,7 +30596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16">
       <c r="A591">
         <v>10848</v>
       </c>
@@ -30648,7 +30643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16">
       <c r="A592">
         <v>10841</v>
       </c>
@@ -30695,7 +30690,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16">
       <c r="A593">
         <v>10842</v>
       </c>
@@ -30742,7 +30737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16">
       <c r="A594">
         <v>10824</v>
       </c>
@@ -30789,7 +30784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16">
       <c r="A595">
         <v>10807</v>
       </c>
@@ -30836,7 +30831,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16">
       <c r="A596">
         <v>10849</v>
       </c>
@@ -30883,7 +30878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16">
       <c r="A597">
         <v>10845</v>
       </c>
@@ -30930,7 +30925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16">
       <c r="A598">
         <v>10852</v>
       </c>
@@ -30980,7 +30975,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16">
       <c r="A599">
         <v>10850</v>
       </c>
@@ -31027,7 +31022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16">
       <c r="A600">
         <v>10859</v>
       </c>
@@ -31074,7 +31069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16">
       <c r="A601">
         <v>10862</v>
       </c>
@@ -31121,7 +31116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16">
       <c r="A602">
         <v>10851</v>
       </c>
@@ -31171,7 +31166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16">
       <c r="A603">
         <v>10853</v>
       </c>
@@ -31218,7 +31213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16">
       <c r="A604">
         <v>10858</v>
       </c>
@@ -31265,7 +31260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16">
       <c r="A605">
         <v>10860</v>
       </c>
@@ -31312,7 +31307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16">
       <c r="A606">
         <v>10816</v>
       </c>
@@ -31362,7 +31357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16">
       <c r="A607">
         <v>10855</v>
       </c>
@@ -31412,7 +31407,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16">
       <c r="A608">
         <v>10828</v>
       </c>
@@ -31459,7 +31454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16">
       <c r="A609">
         <v>10854</v>
       </c>
@@ -31506,7 +31501,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16">
       <c r="A610">
         <v>10857</v>
       </c>
@@ -31553,7 +31548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16">
       <c r="A611">
         <v>10826</v>
       </c>
@@ -31600,7 +31595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16">
       <c r="A612">
         <v>10827</v>
       </c>
@@ -31647,7 +31642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16">
       <c r="A613">
         <v>10864</v>
       </c>
@@ -31697,7 +31692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16">
       <c r="A614">
         <v>10872</v>
       </c>
@@ -31744,7 +31739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16">
       <c r="A615">
         <v>10869</v>
       </c>
@@ -31791,7 +31786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16">
       <c r="A616">
         <v>10873</v>
       </c>
@@ -31838,7 +31833,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16">
       <c r="A617">
         <v>10856</v>
       </c>
@@ -31885,7 +31880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16">
       <c r="A618">
         <v>10871</v>
       </c>
@@ -31932,7 +31927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16">
       <c r="A619">
         <v>10847</v>
       </c>
@@ -31982,7 +31977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16">
       <c r="A620">
         <v>10874</v>
       </c>
@@ -32029,7 +32024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16">
       <c r="A621">
         <v>10867</v>
       </c>
@@ -32079,7 +32074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:16">
       <c r="A622">
         <v>10866</v>
       </c>
@@ -32126,7 +32121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16">
       <c r="A623">
         <v>10876</v>
       </c>
@@ -32173,7 +32168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16">
       <c r="A624">
         <v>10865</v>
       </c>
@@ -32220,7 +32215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16">
       <c r="A625">
         <v>10878</v>
       </c>
@@ -32267,7 +32262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16">
       <c r="A626">
         <v>10879</v>
       </c>
@@ -32314,7 +32309,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16">
       <c r="A627">
         <v>10884</v>
       </c>
@@ -32364,7 +32359,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16">
       <c r="A628">
         <v>10870</v>
       </c>
@@ -32411,7 +32406,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16">
       <c r="A629">
         <v>10887</v>
       </c>
@@ -32458,7 +32453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16">
       <c r="A630">
         <v>10840</v>
       </c>
@@ -32508,7 +32503,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16">
       <c r="A631">
         <v>10863</v>
       </c>
@@ -32558,7 +32553,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16">
       <c r="A632">
         <v>10861</v>
       </c>
@@ -32608,7 +32603,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16">
       <c r="A633">
         <v>10881</v>
       </c>
@@ -32655,7 +32650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16">
       <c r="A634">
         <v>10890</v>
       </c>
@@ -32702,7 +32697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16">
       <c r="A635">
         <v>10880</v>
       </c>
@@ -32749,7 +32744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16">
       <c r="A636">
         <v>10885</v>
       </c>
@@ -32796,7 +32791,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16">
       <c r="A637">
         <v>10891</v>
       </c>
@@ -32843,7 +32838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16">
       <c r="A638">
         <v>10892</v>
       </c>
@@ -32890,7 +32885,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16">
       <c r="A639">
         <v>10877</v>
       </c>
@@ -32940,7 +32935,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16">
       <c r="A640">
         <v>10893</v>
       </c>
@@ -32987,7 +32982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16">
       <c r="A641">
         <v>10883</v>
       </c>
@@ -33037,7 +33032,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16">
       <c r="A642">
         <v>10882</v>
       </c>
@@ -33087,7 +33082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16">
       <c r="A643">
         <v>10894</v>
       </c>
@@ -33137,7 +33132,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16">
       <c r="A644">
         <v>10895</v>
       </c>
@@ -33184,7 +33179,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16">
       <c r="A645">
         <v>10888</v>
       </c>
@@ -33231,7 +33226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16">
       <c r="A646">
         <v>10868</v>
       </c>
@@ -33281,7 +33276,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16">
       <c r="A647">
         <v>10889</v>
       </c>
@@ -33331,7 +33326,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:16">
       <c r="A648">
         <v>10897</v>
       </c>
@@ -33378,7 +33373,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16">
       <c r="A649">
         <v>10901</v>
       </c>
@@ -33428,7 +33423,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16">
       <c r="A650">
         <v>10899</v>
       </c>
@@ -33478,7 +33473,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16">
       <c r="A651">
         <v>10896</v>
       </c>
@@ -33525,7 +33520,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16">
       <c r="A652">
         <v>10907</v>
       </c>
@@ -33572,7 +33567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16">
       <c r="A653">
         <v>10904</v>
       </c>
@@ -33622,7 +33617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16">
       <c r="A654">
         <v>10886</v>
       </c>
@@ -33672,7 +33667,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16">
       <c r="A655">
         <v>10914</v>
       </c>
@@ -33722,7 +33717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16">
       <c r="A656">
         <v>10915</v>
       </c>
@@ -33769,7 +33764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:16">
       <c r="A657">
         <v>10875</v>
       </c>
@@ -33816,7 +33811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:16">
       <c r="A658">
         <v>10902</v>
       </c>
@@ -33863,7 +33858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:16">
       <c r="A659">
         <v>10906</v>
       </c>
@@ -33910,7 +33905,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:16">
       <c r="A660">
         <v>10903</v>
       </c>
@@ -33960,7 +33955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:16">
       <c r="A661">
         <v>10919</v>
       </c>
@@ -34010,7 +34005,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:16">
       <c r="A662">
         <v>10913</v>
       </c>
@@ -34060,7 +34055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:16">
       <c r="A663">
         <v>10900</v>
       </c>
@@ -34110,7 +34105,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:16">
       <c r="A664">
         <v>10910</v>
       </c>
@@ -34157,7 +34152,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:16">
       <c r="A665">
         <v>10911</v>
       </c>
@@ -34204,7 +34199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:16">
       <c r="A666">
         <v>10922</v>
       </c>
@@ -34254,7 +34249,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16">
       <c r="A667">
         <v>10898</v>
       </c>
@@ -34301,7 +34296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16">
       <c r="A668">
         <v>10908</v>
       </c>
@@ -34348,7 +34343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16">
       <c r="A669">
         <v>10905</v>
       </c>
@@ -34398,7 +34393,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16">
       <c r="A670">
         <v>10920</v>
       </c>
@@ -34448,7 +34443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16">
       <c r="A671">
         <v>10916</v>
       </c>
@@ -34495,7 +34490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16">
       <c r="A672">
         <v>10921</v>
       </c>
@@ -34542,7 +34537,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16">
       <c r="A673">
         <v>10909</v>
       </c>
@@ -34589,7 +34584,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:16">
       <c r="A674">
         <v>10926</v>
       </c>
@@ -34636,7 +34631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:16">
       <c r="A675">
         <v>10918</v>
       </c>
@@ -34686,7 +34681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:16">
       <c r="A676">
         <v>10917</v>
       </c>
@@ -34733,7 +34728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:16">
       <c r="A677">
         <v>10929</v>
       </c>
@@ -34780,7 +34775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:16">
       <c r="A678">
         <v>10934</v>
       </c>
@@ -34827,7 +34822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:16">
       <c r="A679">
         <v>10944</v>
       </c>
@@ -34877,7 +34872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:16">
       <c r="A680">
         <v>10937</v>
       </c>
@@ -34924,7 +34919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:16">
       <c r="A681">
         <v>10925</v>
       </c>
@@ -34974,7 +34969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:16">
       <c r="A682">
         <v>10923</v>
       </c>
@@ -35021,7 +35016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:16">
       <c r="A683">
         <v>10939</v>
       </c>
@@ -35068,7 +35063,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:16">
       <c r="A684">
         <v>10947</v>
       </c>
@@ -35115,7 +35110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:16">
       <c r="A685">
         <v>10933</v>
       </c>
@@ -35165,7 +35160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:16">
       <c r="A686">
         <v>10938</v>
       </c>
@@ -35212,7 +35207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:16">
       <c r="A687">
         <v>10949</v>
       </c>
@@ -35262,7 +35257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:16">
       <c r="A688">
         <v>10928</v>
       </c>
@@ -35309,7 +35304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:16">
       <c r="A689">
         <v>10936</v>
       </c>
@@ -35359,7 +35354,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:16">
       <c r="A690">
         <v>10912</v>
       </c>
@@ -35406,7 +35401,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:16">
       <c r="A691">
         <v>10945</v>
       </c>
@@ -35453,7 +35448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:16">
       <c r="A692">
         <v>10942</v>
       </c>
@@ -35500,7 +35495,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16">
       <c r="A693">
         <v>10930</v>
       </c>
@@ -35547,7 +35542,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:16">
       <c r="A694">
         <v>10935</v>
       </c>
@@ -35597,7 +35592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:16">
       <c r="A695">
         <v>10943</v>
       </c>
@@ -35644,7 +35639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:16">
       <c r="A696">
         <v>10948</v>
       </c>
@@ -35691,7 +35686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:16">
       <c r="A697">
         <v>10931</v>
       </c>
@@ -35738,7 +35733,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:16">
       <c r="A698">
         <v>10946</v>
       </c>
@@ -35785,7 +35780,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:16">
       <c r="A699">
         <v>10956</v>
       </c>
@@ -35832,7 +35827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:16">
       <c r="A700">
         <v>10955</v>
       </c>
@@ -35879,7 +35874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:16">
       <c r="A701">
         <v>10954</v>
       </c>
@@ -35929,7 +35924,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:16">
       <c r="A702">
         <v>10941</v>
       </c>
@@ -35979,7 +35974,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:16">
       <c r="A703">
         <v>10940</v>
       </c>
@@ -36026,7 +36021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:16">
       <c r="A704">
         <v>10959</v>
       </c>
@@ -36076,7 +36071,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:16">
       <c r="A705">
         <v>10950</v>
       </c>
@@ -36123,7 +36118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:16">
       <c r="A706">
         <v>10962</v>
       </c>
@@ -36170,7 +36165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:16">
       <c r="A707">
         <v>10952</v>
       </c>
@@ -36217,7 +36212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:16">
       <c r="A708">
         <v>10932</v>
       </c>
@@ -36264,7 +36259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:16">
       <c r="A709">
         <v>10964</v>
       </c>
@@ -36311,7 +36306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:16">
       <c r="A710">
         <v>10953</v>
       </c>
@@ -36361,7 +36356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:16">
       <c r="A711">
         <v>10963</v>
       </c>
@@ -36408,7 +36403,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:16">
       <c r="A712">
         <v>10972</v>
       </c>
@@ -36455,7 +36450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:16">
       <c r="A713">
         <v>10975</v>
       </c>
@@ -36505,7 +36500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:16">
       <c r="A714">
         <v>10957</v>
       </c>
@@ -36555,7 +36550,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:16">
       <c r="A715">
         <v>10973</v>
       </c>
@@ -36602,7 +36597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:16">
       <c r="A716">
         <v>10958</v>
       </c>
@@ -36649,7 +36644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:16">
       <c r="A717">
         <v>10969</v>
       </c>
@@ -36699,7 +36694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:16">
       <c r="A718">
         <v>10965</v>
       </c>
@@ -36749,7 +36744,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:16">
       <c r="A719">
         <v>10961</v>
       </c>
@@ -36799,7 +36794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:16">
       <c r="A720">
         <v>10979</v>
       </c>
@@ -36846,7 +36841,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:16">
       <c r="A721">
         <v>10968</v>
       </c>
@@ -36893,7 +36888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:16">
       <c r="A722">
         <v>10971</v>
       </c>
@@ -36940,7 +36935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:16">
       <c r="A723">
         <v>10981</v>
       </c>
@@ -36990,7 +36985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:16">
       <c r="A724">
         <v>10985</v>
       </c>
@@ -37037,7 +37032,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:16">
       <c r="A725">
         <v>10989</v>
       </c>
@@ -37087,7 +37082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="726" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:16">
       <c r="A726">
         <v>10967</v>
       </c>
@@ -37134,7 +37129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:16">
       <c r="A727">
         <v>10976</v>
       </c>
@@ -37184,7 +37179,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:16">
       <c r="A728">
         <v>10984</v>
       </c>
@@ -37234,7 +37229,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:16">
       <c r="A729">
         <v>10974</v>
       </c>
@@ -37284,7 +37279,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:16">
       <c r="A730">
         <v>10992</v>
       </c>
@@ -37334,7 +37329,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:16">
       <c r="A731">
         <v>10987</v>
       </c>
@@ -37381,7 +37376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:16">
       <c r="A732">
         <v>10995</v>
       </c>
@@ -37428,7 +37423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:16">
       <c r="A733">
         <v>10983</v>
       </c>
@@ -37478,7 +37473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="734" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:16">
       <c r="A734">
         <v>10990</v>
       </c>
@@ -37525,7 +37520,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="735" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:16">
       <c r="A735">
         <v>10991</v>
       </c>
@@ -37572,7 +37567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:16">
       <c r="A736">
         <v>10951</v>
       </c>
@@ -37619,7 +37614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="737" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:16">
       <c r="A737">
         <v>10924</v>
       </c>
@@ -37666,7 +37661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="738" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:16">
       <c r="A738">
         <v>10982</v>
       </c>
@@ -37716,7 +37711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="739" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:16">
       <c r="A739">
         <v>10966</v>
       </c>
@@ -37763,7 +37758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="740" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:16">
       <c r="A740">
         <v>10960</v>
       </c>
@@ -37813,7 +37808,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="741" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:16">
       <c r="A741">
         <v>10927</v>
       </c>
@@ -37860,7 +37855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="742" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:16">
       <c r="A742">
         <v>11003</v>
       </c>
@@ -37910,7 +37905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="743" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:16">
       <c r="A743">
         <v>10994</v>
       </c>
@@ -37957,7 +37952,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="744" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:16">
       <c r="A744">
         <v>10977</v>
       </c>
@@ -38004,7 +37999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="745" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:16">
       <c r="A745">
         <v>10993</v>
       </c>
@@ -38051,7 +38046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="746" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:16">
       <c r="A746">
         <v>11009</v>
       </c>
@@ -38098,7 +38093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="747" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:16">
       <c r="A747">
         <v>10999</v>
       </c>
@@ -38145,7 +38140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:16">
       <c r="A748">
         <v>10996</v>
       </c>
@@ -38192,7 +38187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:16">
       <c r="A749">
         <v>10988</v>
       </c>
@@ -38242,7 +38237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="750" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:16">
       <c r="A750">
         <v>11013</v>
       </c>
@@ -38289,7 +38284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="751" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:16">
       <c r="A751">
         <v>11005</v>
       </c>
@@ -38336,7 +38331,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:16">
       <c r="A752">
         <v>11011</v>
       </c>
@@ -38383,7 +38378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:16">
       <c r="A753">
         <v>11016</v>
       </c>
@@ -38433,7 +38428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:16">
       <c r="A754">
         <v>10997</v>
       </c>
@@ -38483,7 +38478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:16">
       <c r="A755">
         <v>11007</v>
       </c>
@@ -38530,7 +38525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:16">
       <c r="A756">
         <v>11001</v>
       </c>
@@ -38577,7 +38572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:16">
       <c r="A757">
         <v>11000</v>
       </c>
@@ -38627,7 +38622,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:16">
       <c r="A758">
         <v>11006</v>
       </c>
@@ -38677,7 +38672,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:16">
       <c r="A759">
         <v>11014</v>
       </c>
@@ -38727,7 +38722,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:16">
       <c r="A760">
         <v>11018</v>
       </c>
@@ -38777,7 +38772,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:16">
       <c r="A761">
         <v>11020</v>
       </c>
@@ -38824,7 +38819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:16">
       <c r="A762">
         <v>11002</v>
       </c>
@@ -38874,7 +38869,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:16">
       <c r="A763">
         <v>10980</v>
       </c>
@@ -38921,7 +38916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="764" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:16">
       <c r="A764">
         <v>11012</v>
       </c>
@@ -38968,7 +38963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:16">
       <c r="A765">
         <v>10998</v>
       </c>
@@ -39015,7 +39010,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:16">
       <c r="A766">
         <v>11027</v>
       </c>
@@ -39065,7 +39060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="767" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:16">
       <c r="A767">
         <v>11024</v>
       </c>
@@ -39112,7 +39107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="768" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:16">
       <c r="A768">
         <v>11017</v>
       </c>
@@ -39159,7 +39154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="769" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:16">
       <c r="A769">
         <v>11004</v>
       </c>
@@ -39206,7 +39201,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="770" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:16">
       <c r="A770">
         <v>11015</v>
       </c>
@@ -39253,7 +39248,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="771" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:16">
       <c r="A771">
         <v>10986</v>
       </c>
@@ -39300,7 +39295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="772" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:16">
       <c r="A772">
         <v>11021</v>
       </c>
@@ -39347,7 +39342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:16">
       <c r="A773">
         <v>11010</v>
       </c>
@@ -39394,7 +39389,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="774" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:16">
       <c r="A774">
         <v>11036</v>
       </c>
@@ -39441,7 +39436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:16">
       <c r="A775">
         <v>11028</v>
       </c>
@@ -39488,7 +39483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:16">
       <c r="A776">
         <v>10978</v>
       </c>
@@ -39535,7 +39530,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="777" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:16">
       <c r="A777">
         <v>11033</v>
       </c>
@@ -39582,7 +39577,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="778" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:16">
       <c r="A778">
         <v>11032</v>
       </c>
@@ -39632,7 +39627,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="779" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:16">
       <c r="A779">
         <v>10970</v>
       </c>
@@ -39679,7 +39674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="780" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:16">
       <c r="A780">
         <v>11023</v>
       </c>
@@ -39726,7 +39721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="781" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:16">
       <c r="A781">
         <v>11031</v>
       </c>
@@ -39776,7 +39771,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="782" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:16">
       <c r="A782">
         <v>11035</v>
       </c>
@@ -39823,7 +39818,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="783" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:16">
       <c r="A783">
         <v>11046</v>
       </c>
@@ -39870,7 +39865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:16">
       <c r="A784">
         <v>11025</v>
       </c>
@@ -39917,7 +39912,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="785" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:16">
       <c r="A785">
         <v>11029</v>
       </c>
@@ -39964,7 +39959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="786" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:16">
       <c r="A786">
         <v>11037</v>
       </c>
@@ -40011,7 +40006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="787" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:16">
       <c r="A787">
         <v>11034</v>
       </c>
@@ -40061,7 +40056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="788" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:16">
       <c r="A788">
         <v>11030</v>
       </c>
@@ -40111,7 +40106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="789" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:16">
       <c r="A789">
         <v>11041</v>
       </c>
@@ -40158,7 +40153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="790" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:16">
       <c r="A790">
         <v>11026</v>
       </c>
@@ -40205,7 +40200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="791" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:16">
       <c r="A791">
         <v>11053</v>
       </c>
@@ -40252,7 +40247,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="792" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:16">
       <c r="A792">
         <v>11043</v>
       </c>
@@ -40299,7 +40294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="793" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:16">
       <c r="A793">
         <v>11048</v>
       </c>
@@ -40349,7 +40344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="794" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:16">
       <c r="A794">
         <v>11038</v>
       </c>
@@ -40396,7 +40391,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="795" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:16">
       <c r="A795">
         <v>11042</v>
       </c>
@@ -40446,7 +40441,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="796" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:16">
       <c r="A796">
         <v>11047</v>
       </c>
@@ -40493,7 +40488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="797" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:16">
       <c r="A797">
         <v>11056</v>
       </c>
@@ -40540,7 +40535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="798" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:16">
       <c r="A798">
         <v>11052</v>
       </c>
@@ -40590,7 +40585,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="799" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:16">
       <c r="A799">
         <v>11057</v>
       </c>
@@ -40637,7 +40632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="800" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:16">
       <c r="A800">
         <v>11044</v>
       </c>
@@ -40684,7 +40679,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="801" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:16">
       <c r="A801">
         <v>11060</v>
       </c>

--- a/DataSets/NorthwindOrders.xlsx
+++ b/DataSets/NorthwindOrders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo/adaptableblotter-demo/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9A34B-8D60-004A-8B4A-2EBF33DE7DC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0302DB-0D2E-B649-83EA-CFF4AEB1933D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="31880" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:W801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2351,7 @@
         <v>95.05</v>
       </c>
       <c r="J2" s="7">
-        <f>SUM(G2*I2)</f>
+        <f t="shared" ref="J2:J65" si="0">SUM(G2*I2)</f>
         <v>950.5</v>
       </c>
       <c r="K2" s="7">
@@ -2425,7 +2425,7 @@
         <v>55.17</v>
       </c>
       <c r="J3" s="7">
-        <f>SUM(G3*I3)</f>
+        <f t="shared" si="0"/>
         <v>717.21</v>
       </c>
       <c r="K3" s="7">
@@ -2496,7 +2496,7 @@
         <v>77.67</v>
       </c>
       <c r="J4" s="7">
-        <f>SUM(G4*I4)</f>
+        <f t="shared" si="0"/>
         <v>1009.71</v>
       </c>
       <c r="K4" s="7">
@@ -2567,7 +2567,7 @@
         <v>54.34</v>
       </c>
       <c r="J5" s="7">
-        <f>SUM(G5*I5)</f>
+        <f t="shared" si="0"/>
         <v>760.76</v>
       </c>
       <c r="K5" s="7">
@@ -2638,7 +2638,7 @@
         <v>90.6</v>
       </c>
       <c r="J6" s="7">
-        <f>SUM(G6*I6)</f>
+        <f t="shared" si="0"/>
         <v>906</v>
       </c>
       <c r="K6" s="7">
@@ -2709,7 +2709,7 @@
         <v>41.45</v>
       </c>
       <c r="J7" s="7">
-        <f>SUM(G7*I7)</f>
+        <f t="shared" si="0"/>
         <v>373.05</v>
       </c>
       <c r="K7" s="7">
@@ -2780,7 +2780,7 @@
         <v>24.5</v>
       </c>
       <c r="J8" s="7">
-        <f>SUM(G8*I8)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="K8" s="7">
@@ -2851,7 +2851,7 @@
         <v>87.82</v>
       </c>
       <c r="J9" s="7">
-        <f>SUM(G9*I9)</f>
+        <f t="shared" si="0"/>
         <v>878.19999999999993</v>
       </c>
       <c r="K9" s="7">
@@ -2913,24 +2913,24 @@
       </c>
       <c r="F10">
         <f>SUM(J10* 0.9)</f>
-        <v>563.54399999999998</v>
+        <v>2122.6590000000001</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>78.27</v>
+        <v>112.31</v>
       </c>
       <c r="J10" s="7">
-        <f>SUM(G10*I10)</f>
-        <v>626.16</v>
+        <f t="shared" si="0"/>
+        <v>2358.5100000000002</v>
       </c>
       <c r="K10" s="7">
         <f>SUM(G10*0.54)</f>
-        <v>4.32</v>
+        <v>11.34</v>
       </c>
       <c r="L10" s="3">
         <v>43495</v>
@@ -2999,7 +2999,7 @@
         <v>6.66</v>
       </c>
       <c r="J11" s="7">
-        <f>SUM(G11*I11)</f>
+        <f t="shared" si="0"/>
         <v>66.599999999999994</v>
       </c>
       <c r="K11" s="7">
@@ -3070,7 +3070,7 @@
         <v>40.68</v>
       </c>
       <c r="J12" s="7">
-        <f>SUM(G12*I12)</f>
+        <f t="shared" si="0"/>
         <v>447.48</v>
       </c>
       <c r="K12" s="7">
@@ -3141,7 +3141,7 @@
         <v>45.47</v>
       </c>
       <c r="J13" s="7">
-        <f>SUM(G13*I13)</f>
+        <f t="shared" si="0"/>
         <v>500.16999999999996</v>
       </c>
       <c r="K13" s="7">
@@ -3212,7 +3212,7 @@
         <v>12.16</v>
       </c>
       <c r="J14" s="7">
-        <f>SUM(G14*I14)</f>
+        <f t="shared" si="0"/>
         <v>109.44</v>
       </c>
       <c r="K14" s="7">
@@ -3283,7 +3283,7 @@
         <v>17.71</v>
       </c>
       <c r="J15" s="7">
-        <f>SUM(G15*I15)</f>
+        <f t="shared" si="0"/>
         <v>212.52</v>
       </c>
       <c r="K15" s="7">
@@ -3354,7 +3354,7 @@
         <v>70.8</v>
       </c>
       <c r="J16" s="7">
-        <f>SUM(G16*I16)</f>
+        <f t="shared" si="0"/>
         <v>708</v>
       </c>
       <c r="K16" s="7">
@@ -3425,7 +3425,7 @@
         <v>31.18</v>
       </c>
       <c r="J17" s="7">
-        <f>SUM(G17*I17)</f>
+        <f t="shared" si="0"/>
         <v>155.9</v>
       </c>
       <c r="K17" s="7">
@@ -3499,7 +3499,7 @@
         <v>39.369999999999997</v>
       </c>
       <c r="J18" s="7">
-        <f>SUM(G18*I18)</f>
+        <f t="shared" si="0"/>
         <v>236.21999999999997</v>
       </c>
       <c r="K18" s="7">
@@ -3573,7 +3573,7 @@
         <v>40.72</v>
       </c>
       <c r="J19" s="7">
-        <f>SUM(G19*I19)</f>
+        <f t="shared" si="0"/>
         <v>488.64</v>
       </c>
       <c r="K19" s="7">
@@ -3644,7 +3644,7 @@
         <v>94.34</v>
       </c>
       <c r="J20" s="7">
-        <f>SUM(G20*I20)</f>
+        <f t="shared" si="0"/>
         <v>849.06000000000006</v>
       </c>
       <c r="K20" s="7">
@@ -3718,7 +3718,7 @@
         <v>43.17</v>
       </c>
       <c r="J21" s="7">
-        <f>SUM(G21*I21)</f>
+        <f t="shared" si="0"/>
         <v>345.36</v>
       </c>
       <c r="K21" s="7">
@@ -3792,7 +3792,7 @@
         <v>27.84</v>
       </c>
       <c r="J22" s="7">
-        <f>SUM(G22*I22)</f>
+        <f t="shared" si="0"/>
         <v>278.39999999999998</v>
       </c>
       <c r="K22" s="7">
@@ -3863,7 +3863,7 @@
         <v>37.68</v>
       </c>
       <c r="J23" s="7">
-        <f>SUM(G23*I23)</f>
+        <f t="shared" si="0"/>
         <v>339.12</v>
       </c>
       <c r="K23" s="7">
@@ -3934,7 +3934,7 @@
         <v>6.04</v>
       </c>
       <c r="J24" s="7">
-        <f>SUM(G24*I24)</f>
+        <f t="shared" si="0"/>
         <v>66.44</v>
       </c>
       <c r="K24" s="7">
@@ -4005,7 +4005,7 @@
         <v>32.479999999999997</v>
       </c>
       <c r="J25" s="7">
-        <f>SUM(G25*I25)</f>
+        <f t="shared" si="0"/>
         <v>389.76</v>
       </c>
       <c r="K25" s="7">
@@ -4076,7 +4076,7 @@
         <v>47.94</v>
       </c>
       <c r="J26" s="7">
-        <f>SUM(G26*I26)</f>
+        <f t="shared" si="0"/>
         <v>527.33999999999992</v>
       </c>
       <c r="K26" s="7">
@@ -4150,7 +4150,7 @@
         <v>17.14</v>
       </c>
       <c r="J27" s="7">
-        <f>SUM(G27*I27)</f>
+        <f t="shared" si="0"/>
         <v>222.82</v>
       </c>
       <c r="K27" s="7">
@@ -4224,7 +4224,7 @@
         <v>72.349999999999994</v>
       </c>
       <c r="J28" s="7">
-        <f>SUM(G28*I28)</f>
+        <f t="shared" si="0"/>
         <v>723.5</v>
       </c>
       <c r="K28" s="7">
@@ -4295,7 +4295,7 @@
         <v>22.86</v>
       </c>
       <c r="J29" s="7">
-        <f>SUM(G29*I29)</f>
+        <f t="shared" si="0"/>
         <v>251.45999999999998</v>
       </c>
       <c r="K29" s="7">
@@ -4366,7 +4366,7 @@
         <v>60.64</v>
       </c>
       <c r="J30" s="7">
-        <f>SUM(G30*I30)</f>
+        <f t="shared" si="0"/>
         <v>788.32</v>
       </c>
       <c r="K30" s="7">
@@ -4440,7 +4440,7 @@
         <v>68.69</v>
       </c>
       <c r="J31" s="7">
-        <f>SUM(G31*I31)</f>
+        <f t="shared" si="0"/>
         <v>824.28</v>
       </c>
       <c r="K31" s="7">
@@ -4514,7 +4514,7 @@
         <v>30.11</v>
       </c>
       <c r="J32" s="7">
-        <f>SUM(G32*I32)</f>
+        <f t="shared" si="0"/>
         <v>301.10000000000002</v>
       </c>
       <c r="K32" s="7">
@@ -4585,7 +4585,7 @@
         <v>28.32</v>
       </c>
       <c r="J33" s="7">
-        <f>SUM(G33*I33)</f>
+        <f t="shared" si="0"/>
         <v>226.56</v>
       </c>
       <c r="K33" s="7">
@@ -4656,7 +4656,7 @@
         <v>87.63</v>
       </c>
       <c r="J34" s="7">
-        <f>SUM(G34*I34)</f>
+        <f t="shared" si="0"/>
         <v>876.3</v>
       </c>
       <c r="K34" s="7">
@@ -4727,7 +4727,7 @@
         <v>10.83</v>
       </c>
       <c r="J35" s="7">
-        <f>SUM(G35*I35)</f>
+        <f t="shared" si="0"/>
         <v>64.98</v>
       </c>
       <c r="K35" s="7">
@@ -4801,7 +4801,7 @@
         <v>30.95</v>
       </c>
       <c r="J36" s="7">
-        <f>SUM(G36*I36)</f>
+        <f t="shared" si="0"/>
         <v>371.4</v>
       </c>
       <c r="K36" s="7">
@@ -4875,7 +4875,7 @@
         <v>3.45</v>
       </c>
       <c r="J37" s="7">
-        <f>SUM(G37*I37)</f>
+        <f t="shared" si="0"/>
         <v>37.950000000000003</v>
       </c>
       <c r="K37" s="7">
@@ -4946,7 +4946,7 @@
         <v>54.63</v>
       </c>
       <c r="J38" s="7">
-        <f>SUM(G38*I38)</f>
+        <f t="shared" si="0"/>
         <v>546.30000000000007</v>
       </c>
       <c r="K38" s="7">
@@ -5017,7 +5017,7 @@
         <v>81.489999999999995</v>
       </c>
       <c r="J39" s="7">
-        <f>SUM(G39*I39)</f>
+        <f t="shared" si="0"/>
         <v>977.87999999999988</v>
       </c>
       <c r="K39" s="7">
@@ -5088,7 +5088,7 @@
         <v>97.55</v>
       </c>
       <c r="J40" s="7">
-        <f>SUM(G40*I40)</f>
+        <f t="shared" si="0"/>
         <v>585.29999999999995</v>
       </c>
       <c r="K40" s="7">
@@ -5159,7 +5159,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J41" s="7">
-        <f>SUM(G41*I41)</f>
+        <f t="shared" si="0"/>
         <v>0.91000000000000014</v>
       </c>
       <c r="K41" s="7">
@@ -5230,7 +5230,7 @@
         <v>151.26</v>
       </c>
       <c r="J42" s="7">
-        <f>SUM(G42*I42)</f>
+        <f t="shared" si="0"/>
         <v>1361.34</v>
       </c>
       <c r="K42" s="7">
@@ -5301,7 +5301,7 @@
         <v>184.93</v>
       </c>
       <c r="J43" s="7">
-        <f>SUM(G43*I43)</f>
+        <f t="shared" si="0"/>
         <v>924.65000000000009</v>
       </c>
       <c r="K43" s="7">
@@ -5375,7 +5375,7 @@
         <v>156.83000000000001</v>
       </c>
       <c r="J44" s="7">
-        <f>SUM(G44*I44)</f>
+        <f t="shared" si="0"/>
         <v>2038.7900000000002</v>
       </c>
       <c r="K44" s="7">
@@ -5449,7 +5449,7 @@
         <v>158.52000000000001</v>
       </c>
       <c r="J45" s="7">
-        <f>SUM(G45*I45)</f>
+        <f t="shared" si="0"/>
         <v>1902.2400000000002</v>
       </c>
       <c r="K45" s="7">
@@ -5520,7 +5520,7 @@
         <v>19.690000000000001</v>
       </c>
       <c r="J46" s="7">
-        <f>SUM(G46*I46)</f>
+        <f t="shared" si="0"/>
         <v>216.59</v>
       </c>
       <c r="K46" s="7">
@@ -5591,7 +5591,7 @@
         <v>93.17</v>
       </c>
       <c r="J47" s="7">
-        <f>SUM(G47*I47)</f>
+        <f t="shared" si="0"/>
         <v>1118.04</v>
       </c>
       <c r="K47" s="7">
@@ -5662,7 +5662,7 @@
         <v>32.72</v>
       </c>
       <c r="J48" s="7">
-        <f>SUM(G48*I48)</f>
+        <f t="shared" si="0"/>
         <v>261.76</v>
       </c>
       <c r="K48" s="7">
@@ -5733,7 +5733,7 @@
         <v>145.83000000000001</v>
       </c>
       <c r="J49" s="7">
-        <f>SUM(G49*I49)</f>
+        <f t="shared" si="0"/>
         <v>1020.8100000000001</v>
       </c>
       <c r="K49" s="7">
@@ -5807,7 +5807,7 @@
         <v>184.1</v>
       </c>
       <c r="J50" s="7">
-        <f>SUM(G50*I50)</f>
+        <f t="shared" si="0"/>
         <v>1472.8</v>
       </c>
       <c r="K50" s="7">
@@ -5878,7 +5878,7 @@
         <v>56.04</v>
       </c>
       <c r="J51" s="7">
-        <f>SUM(G51*I51)</f>
+        <f t="shared" si="0"/>
         <v>448.32</v>
       </c>
       <c r="K51" s="7">
@@ -5949,7 +5949,7 @@
         <v>125.86</v>
       </c>
       <c r="J52" s="7">
-        <f>SUM(G52*I52)</f>
+        <f t="shared" si="0"/>
         <v>881.02</v>
       </c>
       <c r="K52" s="7">
@@ -6020,7 +6020,7 @@
         <v>176.11</v>
       </c>
       <c r="J53" s="7">
-        <f>SUM(G53*I53)</f>
+        <f t="shared" si="0"/>
         <v>1056.6600000000001</v>
       </c>
       <c r="K53" s="7">
@@ -6091,7 +6091,7 @@
         <v>16.72</v>
       </c>
       <c r="J54" s="7">
-        <f>SUM(G54*I54)</f>
+        <f t="shared" si="0"/>
         <v>133.76</v>
       </c>
       <c r="K54" s="7">
@@ -6162,7 +6162,7 @@
         <v>16.36</v>
       </c>
       <c r="J55" s="7">
-        <f>SUM(G55*I55)</f>
+        <f t="shared" si="0"/>
         <v>114.52</v>
       </c>
       <c r="K55" s="7">
@@ -6236,7 +6236,7 @@
         <v>4.87</v>
       </c>
       <c r="J56" s="7">
-        <f>SUM(G56*I56)</f>
+        <f t="shared" si="0"/>
         <v>48.7</v>
       </c>
       <c r="K56" s="7">
@@ -6307,7 +6307,7 @@
         <v>191.77</v>
       </c>
       <c r="J57" s="7">
-        <f>SUM(G57*I57)</f>
+        <f t="shared" si="0"/>
         <v>1342.39</v>
       </c>
       <c r="K57" s="7">
@@ -6381,7 +6381,7 @@
         <v>29.2</v>
       </c>
       <c r="J58" s="7">
-        <f>SUM(G58*I58)</f>
+        <f t="shared" si="0"/>
         <v>379.59999999999997</v>
       </c>
       <c r="K58" s="7">
@@ -6455,7 +6455,7 @@
         <v>135.46</v>
       </c>
       <c r="J59" s="7">
-        <f>SUM(G59*I59)</f>
+        <f t="shared" si="0"/>
         <v>1760.98</v>
       </c>
       <c r="K59" s="7">
@@ -6529,7 +6529,7 @@
         <v>132.47999999999999</v>
       </c>
       <c r="J60" s="7">
-        <f>SUM(G60*I60)</f>
+        <f t="shared" si="0"/>
         <v>1722.2399999999998</v>
       </c>
       <c r="K60" s="7">
@@ -6600,7 +6600,7 @@
         <v>94.11</v>
       </c>
       <c r="J61" s="7">
-        <f>SUM(G61*I61)</f>
+        <f t="shared" si="0"/>
         <v>846.99</v>
       </c>
       <c r="K61" s="7">
@@ -6671,7 +6671,7 @@
         <v>48.3</v>
       </c>
       <c r="J62" s="7">
-        <f>SUM(G62*I62)</f>
+        <f t="shared" si="0"/>
         <v>434.7</v>
       </c>
       <c r="K62" s="7">
@@ -6745,7 +6745,7 @@
         <v>150.88999999999999</v>
       </c>
       <c r="J63" s="7">
-        <f>SUM(G63*I63)</f>
+        <f t="shared" si="0"/>
         <v>1659.79</v>
       </c>
       <c r="K63" s="7">
@@ -6816,7 +6816,7 @@
         <v>104.88</v>
       </c>
       <c r="J64" s="7">
-        <f>SUM(G64*I64)</f>
+        <f t="shared" si="0"/>
         <v>943.92</v>
       </c>
       <c r="K64" s="7">
@@ -6887,7 +6887,7 @@
         <v>103.9</v>
       </c>
       <c r="J65" s="7">
-        <f>SUM(G65*I65)</f>
+        <f t="shared" si="0"/>
         <v>831.2</v>
       </c>
       <c r="K65" s="7">
@@ -6958,7 +6958,7 @@
         <v>132.61000000000001</v>
       </c>
       <c r="J66" s="7">
-        <f>SUM(G66*I66)</f>
+        <f t="shared" ref="J66:J129" si="1">SUM(G66*I66)</f>
         <v>1458.71</v>
       </c>
       <c r="K66" s="7">
@@ -7029,7 +7029,7 @@
         <v>61.07</v>
       </c>
       <c r="J67" s="7">
-        <f>SUM(G67*I67)</f>
+        <f t="shared" si="1"/>
         <v>549.63</v>
       </c>
       <c r="K67" s="7">
@@ -7100,7 +7100,7 @@
         <v>103.12</v>
       </c>
       <c r="J68" s="7">
-        <f>SUM(G68*I68)</f>
+        <f t="shared" si="1"/>
         <v>1134.3200000000002</v>
       </c>
       <c r="K68" s="7">
@@ -7171,7 +7171,7 @@
         <v>127.39</v>
       </c>
       <c r="J69" s="7">
-        <f>SUM(G69*I69)</f>
+        <f t="shared" si="1"/>
         <v>1401.29</v>
       </c>
       <c r="K69" s="7">
@@ -7245,7 +7245,7 @@
         <v>133.85</v>
       </c>
       <c r="J70" s="7">
-        <f>SUM(G70*I70)</f>
+        <f t="shared" si="1"/>
         <v>1472.35</v>
       </c>
       <c r="K70" s="7">
@@ -7316,7 +7316,7 @@
         <v>46.58</v>
       </c>
       <c r="J71" s="7">
-        <f>SUM(G71*I71)</f>
+        <f t="shared" si="1"/>
         <v>326.06</v>
       </c>
       <c r="K71" s="7">
@@ -7390,7 +7390,7 @@
         <v>89.15</v>
       </c>
       <c r="J72" s="7">
-        <f>SUM(G72*I72)</f>
+        <f t="shared" si="1"/>
         <v>891.5</v>
       </c>
       <c r="K72" s="7">
@@ -7461,7 +7461,7 @@
         <v>76.27</v>
       </c>
       <c r="J73" s="7">
-        <f>SUM(G73*I73)</f>
+        <f t="shared" si="1"/>
         <v>686.43</v>
       </c>
       <c r="K73" s="7">
@@ -7535,7 +7535,7 @@
         <v>191.57</v>
       </c>
       <c r="J74" s="7">
-        <f>SUM(G74*I74)</f>
+        <f t="shared" si="1"/>
         <v>2490.41</v>
       </c>
       <c r="K74" s="7">
@@ -7606,7 +7606,7 @@
         <v>126.26</v>
       </c>
       <c r="J75" s="7">
-        <f>SUM(G75*I75)</f>
+        <f t="shared" si="1"/>
         <v>631.30000000000007</v>
       </c>
       <c r="K75" s="7">
@@ -7677,7 +7677,7 @@
         <v>12.92</v>
       </c>
       <c r="J76" s="7">
-        <f>SUM(G76*I76)</f>
+        <f t="shared" si="1"/>
         <v>155.04</v>
       </c>
       <c r="K76" s="7">
@@ -7748,7 +7748,7 @@
         <v>101.92</v>
       </c>
       <c r="J77" s="7">
-        <f>SUM(G77*I77)</f>
+        <f t="shared" si="1"/>
         <v>713.44</v>
       </c>
       <c r="K77" s="7">
@@ -7819,7 +7819,7 @@
         <v>133.11000000000001</v>
       </c>
       <c r="J78" s="7">
-        <f>SUM(G78*I78)</f>
+        <f t="shared" si="1"/>
         <v>1331.1000000000001</v>
       </c>
       <c r="K78" s="7">
@@ -7890,7 +7890,7 @@
         <v>27.91</v>
       </c>
       <c r="J79" s="7">
-        <f>SUM(G79*I79)</f>
+        <f t="shared" si="1"/>
         <v>167.46</v>
       </c>
       <c r="K79" s="7">
@@ -7961,7 +7961,7 @@
         <v>111.79</v>
       </c>
       <c r="J80" s="7">
-        <f>SUM(G80*I80)</f>
+        <f t="shared" si="1"/>
         <v>782.53000000000009</v>
       </c>
       <c r="K80" s="7">
@@ -8035,7 +8035,7 @@
         <v>123.64</v>
       </c>
       <c r="J81" s="7">
-        <f>SUM(G81*I81)</f>
+        <f t="shared" si="1"/>
         <v>1607.32</v>
       </c>
       <c r="K81" s="7">
@@ -8106,7 +8106,7 @@
         <v>126.57</v>
       </c>
       <c r="J82" s="7">
-        <f>SUM(G82*I82)</f>
+        <f t="shared" si="1"/>
         <v>1392.27</v>
       </c>
       <c r="K82" s="7">
@@ -8177,7 +8177,7 @@
         <v>111.52</v>
       </c>
       <c r="J83" s="7">
-        <f>SUM(G83*I83)</f>
+        <f t="shared" si="1"/>
         <v>1561.28</v>
       </c>
       <c r="K83" s="7">
@@ -8251,7 +8251,7 @@
         <v>90.18</v>
       </c>
       <c r="J84" s="7">
-        <f>SUM(G84*I84)</f>
+        <f t="shared" si="1"/>
         <v>450.90000000000003</v>
       </c>
       <c r="K84" s="7">
@@ -8325,7 +8325,7 @@
         <v>17.95</v>
       </c>
       <c r="J85" s="7">
-        <f>SUM(G85*I85)</f>
+        <f t="shared" si="1"/>
         <v>233.35</v>
       </c>
       <c r="K85" s="7">
@@ -8396,7 +8396,7 @@
         <v>11.43</v>
       </c>
       <c r="J86" s="7">
-        <f>SUM(G86*I86)</f>
+        <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
       <c r="K86" s="7">
@@ -8470,7 +8470,7 @@
         <v>3.96</v>
       </c>
       <c r="J87" s="7">
-        <f>SUM(G87*I87)</f>
+        <f t="shared" si="1"/>
         <v>31.68</v>
       </c>
       <c r="K87" s="7">
@@ -8541,7 +8541,7 @@
         <v>26.28</v>
       </c>
       <c r="J88" s="7">
-        <f>SUM(G88*I88)</f>
+        <f t="shared" si="1"/>
         <v>236.52</v>
       </c>
       <c r="K88" s="7">
@@ -8612,7 +8612,7 @@
         <v>99.95</v>
       </c>
       <c r="J89" s="7">
-        <f>SUM(G89*I89)</f>
+        <f t="shared" si="1"/>
         <v>699.65</v>
       </c>
       <c r="K89" s="7">
@@ -8686,7 +8686,7 @@
         <v>74.13</v>
       </c>
       <c r="J90" s="7">
-        <f>SUM(G90*I90)</f>
+        <f t="shared" si="1"/>
         <v>963.68999999999994</v>
       </c>
       <c r="K90" s="7">
@@ -8757,7 +8757,7 @@
         <v>148.08000000000001</v>
       </c>
       <c r="J91" s="7">
-        <f>SUM(G91*I91)</f>
+        <f t="shared" si="1"/>
         <v>1480.8000000000002</v>
       </c>
       <c r="K91" s="7">
@@ -8828,7 +8828,7 @@
         <v>153.21</v>
       </c>
       <c r="J92" s="7">
-        <f>SUM(G92*I92)</f>
+        <f t="shared" si="1"/>
         <v>1225.68</v>
       </c>
       <c r="K92" s="7">
@@ -8899,7 +8899,7 @@
         <v>10.91</v>
       </c>
       <c r="J93" s="7">
-        <f>SUM(G93*I93)</f>
+        <f t="shared" si="1"/>
         <v>65.460000000000008</v>
       </c>
       <c r="K93" s="7">
@@ -8970,7 +8970,7 @@
         <v>52.76</v>
       </c>
       <c r="J94" s="7">
-        <f>SUM(G94*I94)</f>
+        <f t="shared" si="1"/>
         <v>422.08</v>
       </c>
       <c r="K94" s="7">
@@ -9044,7 +9044,7 @@
         <v>60.53</v>
       </c>
       <c r="J95" s="7">
-        <f>SUM(G95*I95)</f>
+        <f t="shared" si="1"/>
         <v>363.18</v>
       </c>
       <c r="K95" s="7">
@@ -9115,7 +9115,7 @@
         <v>35.229999999999997</v>
       </c>
       <c r="J96" s="7">
-        <f>SUM(G96*I96)</f>
+        <f t="shared" si="1"/>
         <v>281.83999999999997</v>
       </c>
       <c r="K96" s="7">
@@ -9186,7 +9186,7 @@
         <v>50.32</v>
       </c>
       <c r="J97" s="7">
-        <f>SUM(G97*I97)</f>
+        <f t="shared" si="1"/>
         <v>654.16</v>
       </c>
       <c r="K97" s="7">
@@ -9260,7 +9260,7 @@
         <v>124.13</v>
       </c>
       <c r="J98" s="7">
-        <f>SUM(G98*I98)</f>
+        <f t="shared" si="1"/>
         <v>1241.3</v>
       </c>
       <c r="K98" s="7">
@@ -9334,7 +9334,7 @@
         <v>131.72999999999999</v>
       </c>
       <c r="J99" s="7">
-        <f>SUM(G99*I99)</f>
+        <f t="shared" si="1"/>
         <v>790.37999999999988</v>
       </c>
       <c r="K99" s="7">
@@ -9405,7 +9405,7 @@
         <v>90.36</v>
       </c>
       <c r="J100" s="7">
-        <f>SUM(G100*I100)</f>
+        <f t="shared" si="1"/>
         <v>632.52</v>
       </c>
       <c r="K100" s="7">
@@ -9476,7 +9476,7 @@
         <v>141.51</v>
       </c>
       <c r="J101" s="7">
-        <f>SUM(G101*I101)</f>
+        <f t="shared" si="1"/>
         <v>990.56999999999994</v>
       </c>
       <c r="K101" s="7">
@@ -9547,7 +9547,7 @@
         <v>116.52</v>
       </c>
       <c r="J102" s="7">
-        <f>SUM(G102*I102)</f>
+        <f t="shared" si="1"/>
         <v>1398.24</v>
       </c>
       <c r="K102" s="7">
@@ -9621,7 +9621,7 @@
         <v>94.15</v>
       </c>
       <c r="J103" s="7">
-        <f>SUM(G103*I103)</f>
+        <f t="shared" si="1"/>
         <v>1035.6500000000001</v>
       </c>
       <c r="K103" s="7">
@@ -9695,7 +9695,7 @@
         <v>70.569999999999993</v>
       </c>
       <c r="J104" s="7">
-        <f>SUM(G104*I104)</f>
+        <f t="shared" si="1"/>
         <v>846.83999999999992</v>
       </c>
       <c r="K104" s="7">
@@ -9769,7 +9769,7 @@
         <v>48.48</v>
       </c>
       <c r="J105" s="7">
-        <f>SUM(G105*I105)</f>
+        <f t="shared" si="1"/>
         <v>581.76</v>
       </c>
       <c r="K105" s="7">
@@ -9843,7 +9843,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="J106" s="7">
-        <f>SUM(G106*I106)</f>
+        <f t="shared" si="1"/>
         <v>129.36000000000001</v>
       </c>
       <c r="K106" s="7">
@@ -9914,7 +9914,7 @@
         <v>182.59</v>
       </c>
       <c r="J107" s="7">
-        <f>SUM(G107*I107)</f>
+        <f t="shared" si="1"/>
         <v>1278.1300000000001</v>
       </c>
       <c r="K107" s="7">
@@ -9985,7 +9985,7 @@
         <v>107.49</v>
       </c>
       <c r="J108" s="7">
-        <f>SUM(G108*I108)</f>
+        <f t="shared" si="1"/>
         <v>1182.3899999999999</v>
       </c>
       <c r="K108" s="7">
@@ -10056,7 +10056,7 @@
         <v>180.07</v>
       </c>
       <c r="J109" s="7">
-        <f>SUM(G109*I109)</f>
+        <f t="shared" si="1"/>
         <v>1080.42</v>
       </c>
       <c r="K109" s="7">
@@ -10127,7 +10127,7 @@
         <v>178.58</v>
       </c>
       <c r="J110" s="7">
-        <f>SUM(G110*I110)</f>
+        <f t="shared" si="1"/>
         <v>1250.0600000000002</v>
       </c>
       <c r="K110" s="7">
@@ -10201,7 +10201,7 @@
         <v>166.62</v>
       </c>
       <c r="J111" s="7">
-        <f>SUM(G111*I111)</f>
+        <f t="shared" si="1"/>
         <v>1999.44</v>
       </c>
       <c r="K111" s="7">
@@ -10275,7 +10275,7 @@
         <v>110.27</v>
       </c>
       <c r="J112" s="7">
-        <f>SUM(G112*I112)</f>
+        <f t="shared" si="1"/>
         <v>771.89</v>
       </c>
       <c r="K112" s="7">
@@ -10349,7 +10349,7 @@
         <v>185.86</v>
       </c>
       <c r="J113" s="7">
-        <f>SUM(G113*I113)</f>
+        <f t="shared" si="1"/>
         <v>2416.1800000000003</v>
       </c>
       <c r="K113" s="7">
@@ -10420,7 +10420,7 @@
         <v>191.52</v>
       </c>
       <c r="J114" s="7">
-        <f>SUM(G114*I114)</f>
+        <f t="shared" si="1"/>
         <v>1915.2</v>
       </c>
       <c r="K114" s="7">
@@ -10491,7 +10491,7 @@
         <v>122.49</v>
       </c>
       <c r="J115" s="7">
-        <f>SUM(G115*I115)</f>
+        <f t="shared" si="1"/>
         <v>1469.8799999999999</v>
       </c>
       <c r="K115" s="7">
@@ -10562,7 +10562,7 @@
         <v>127.12</v>
       </c>
       <c r="J116" s="7">
-        <f>SUM(G116*I116)</f>
+        <f t="shared" si="1"/>
         <v>1144.08</v>
       </c>
       <c r="K116" s="7">
@@ -10633,7 +10633,7 @@
         <v>130.82</v>
       </c>
       <c r="J117" s="7">
-        <f>SUM(G117*I117)</f>
+        <f t="shared" si="1"/>
         <v>1308.1999999999998</v>
       </c>
       <c r="K117" s="7">
@@ -10707,7 +10707,7 @@
         <v>10.74</v>
       </c>
       <c r="J118" s="7">
-        <f>SUM(G118*I118)</f>
+        <f t="shared" si="1"/>
         <v>96.66</v>
       </c>
       <c r="K118" s="7">
@@ -10778,7 +10778,7 @@
         <v>180.05</v>
       </c>
       <c r="J119" s="7">
-        <f>SUM(G119*I119)</f>
+        <f t="shared" si="1"/>
         <v>1800.5</v>
       </c>
       <c r="K119" s="7">
@@ -10849,7 +10849,7 @@
         <v>43.1</v>
       </c>
       <c r="J120" s="7">
-        <f>SUM(G120*I120)</f>
+        <f t="shared" si="1"/>
         <v>387.90000000000003</v>
       </c>
       <c r="K120" s="7">
@@ -10920,7 +10920,7 @@
         <v>26.21</v>
       </c>
       <c r="J121" s="7">
-        <f>SUM(G121*I121)</f>
+        <f t="shared" si="1"/>
         <v>340.73</v>
       </c>
       <c r="K121" s="7">
@@ -10994,7 +10994,7 @@
         <v>126.66</v>
       </c>
       <c r="J122" s="7">
-        <f>SUM(G122*I122)</f>
+        <f t="shared" si="1"/>
         <v>1139.94</v>
       </c>
       <c r="K122" s="7">
@@ -11065,7 +11065,7 @@
         <v>127.76</v>
       </c>
       <c r="J123" s="7">
-        <f>SUM(G123*I123)</f>
+        <f t="shared" si="1"/>
         <v>1788.64</v>
       </c>
       <c r="K123" s="7">
@@ -11136,7 +11136,7 @@
         <v>29.96</v>
       </c>
       <c r="J124" s="7">
-        <f>SUM(G124*I124)</f>
+        <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
       <c r="K124" s="7">
@@ -11207,7 +11207,7 @@
         <v>1.41</v>
       </c>
       <c r="J125" s="7">
-        <f>SUM(G125*I125)</f>
+        <f t="shared" si="1"/>
         <v>14.1</v>
       </c>
       <c r="K125" s="7">
@@ -11281,7 +11281,7 @@
         <v>13.45</v>
       </c>
       <c r="J126" s="7">
-        <f>SUM(G126*I126)</f>
+        <f t="shared" si="1"/>
         <v>121.05</v>
       </c>
       <c r="K126" s="7">
@@ -11355,7 +11355,7 @@
         <v>85.92</v>
       </c>
       <c r="J127" s="7">
-        <f>SUM(G127*I127)</f>
+        <f t="shared" si="1"/>
         <v>1031.04</v>
       </c>
       <c r="K127" s="7">
@@ -11429,7 +11429,7 @@
         <v>0.69</v>
       </c>
       <c r="J128" s="7">
-        <f>SUM(G128*I128)</f>
+        <f t="shared" si="1"/>
         <v>4.83</v>
       </c>
       <c r="K128" s="7">
@@ -11500,7 +11500,7 @@
         <v>117.06</v>
       </c>
       <c r="J129" s="7">
-        <f>SUM(G129*I129)</f>
+        <f t="shared" si="1"/>
         <v>1404.72</v>
       </c>
       <c r="K129" s="7">
@@ -11574,7 +11574,7 @@
         <v>175.66</v>
       </c>
       <c r="J130" s="7">
-        <f>SUM(G130*I130)</f>
+        <f t="shared" ref="J130:J193" si="2">SUM(G130*I130)</f>
         <v>1580.94</v>
       </c>
       <c r="K130" s="7">
@@ -11645,7 +11645,7 @@
         <v>13.81</v>
       </c>
       <c r="J131" s="7">
-        <f>SUM(G131*I131)</f>
+        <f t="shared" si="2"/>
         <v>82.86</v>
       </c>
       <c r="K131" s="7">
@@ -11716,7 +11716,7 @@
         <v>56.57</v>
       </c>
       <c r="J132" s="7">
-        <f>SUM(G132*I132)</f>
+        <f t="shared" si="2"/>
         <v>565.70000000000005</v>
       </c>
       <c r="K132" s="7">
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7">
-        <f>SUM(G133*I133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K133" s="7">
@@ -11864,7 +11864,7 @@
         <v>95.99</v>
       </c>
       <c r="J134" s="7">
-        <f>SUM(G134*I134)</f>
+        <f t="shared" si="2"/>
         <v>1055.8899999999999</v>
       </c>
       <c r="K134" s="7">
@@ -11935,7 +11935,7 @@
         <v>185.4</v>
       </c>
       <c r="J135" s="7">
-        <f>SUM(G135*I135)</f>
+        <f t="shared" si="2"/>
         <v>1483.2</v>
       </c>
       <c r="K135" s="7">
@@ -12006,7 +12006,7 @@
         <v>47.99</v>
       </c>
       <c r="J136" s="7">
-        <f>SUM(G136*I136)</f>
+        <f t="shared" si="2"/>
         <v>287.94</v>
       </c>
       <c r="K136" s="7">
@@ -12077,7 +12077,7 @@
         <v>129.16</v>
       </c>
       <c r="J137" s="7">
-        <f>SUM(G137*I137)</f>
+        <f t="shared" si="2"/>
         <v>1291.5999999999999</v>
       </c>
       <c r="K137" s="7">
@@ -12151,7 +12151,7 @@
         <v>196.13</v>
       </c>
       <c r="J138" s="7">
-        <f>SUM(G138*I138)</f>
+        <f t="shared" si="2"/>
         <v>1765.17</v>
       </c>
       <c r="K138" s="7">
@@ -12222,7 +12222,7 @@
         <v>149.82</v>
       </c>
       <c r="J139" s="7">
-        <f>SUM(G139*I139)</f>
+        <f t="shared" si="2"/>
         <v>1048.74</v>
       </c>
       <c r="K139" s="7">
@@ -12293,7 +12293,7 @@
         <v>1.94</v>
       </c>
       <c r="J140" s="7">
-        <f>SUM(G140*I140)</f>
+        <f t="shared" si="2"/>
         <v>19.399999999999999</v>
       </c>
       <c r="K140" s="7">
@@ -12364,7 +12364,7 @@
         <v>197.13</v>
       </c>
       <c r="J141" s="7">
-        <f>SUM(G141*I141)</f>
+        <f t="shared" si="2"/>
         <v>1774.17</v>
       </c>
       <c r="K141" s="7">
@@ -12435,7 +12435,7 @@
         <v>175.08</v>
       </c>
       <c r="J142" s="7">
-        <f>SUM(G142*I142)</f>
+        <f t="shared" si="2"/>
         <v>2276.04</v>
       </c>
       <c r="K142" s="7">
@@ -12509,7 +12509,7 @@
         <v>42.14</v>
       </c>
       <c r="J143" s="7">
-        <f>SUM(G143*I143)</f>
+        <f t="shared" si="2"/>
         <v>379.26</v>
       </c>
       <c r="K143" s="7">
@@ -12580,7 +12580,7 @@
         <v>11.88</v>
       </c>
       <c r="J144" s="7">
-        <f>SUM(G144*I144)</f>
+        <f t="shared" si="2"/>
         <v>83.160000000000011</v>
       </c>
       <c r="K144" s="7">
@@ -12651,7 +12651,7 @@
         <v>97.58</v>
       </c>
       <c r="J145" s="7">
-        <f>SUM(G145*I145)</f>
+        <f t="shared" si="2"/>
         <v>487.9</v>
       </c>
       <c r="K145" s="7">
@@ -12725,7 +12725,7 @@
         <v>82.22</v>
       </c>
       <c r="J146" s="7">
-        <f>SUM(G146*I146)</f>
+        <f t="shared" si="2"/>
         <v>986.64</v>
       </c>
       <c r="K146" s="7">
@@ -12796,7 +12796,7 @@
         <v>180.61</v>
       </c>
       <c r="J147" s="7">
-        <f>SUM(G147*I147)</f>
+        <f t="shared" si="2"/>
         <v>1444.88</v>
       </c>
       <c r="K147" s="7">
@@ -12867,7 +12867,7 @@
         <v>37.19</v>
       </c>
       <c r="J148" s="7">
-        <f>SUM(G148*I148)</f>
+        <f t="shared" si="2"/>
         <v>409.09</v>
       </c>
       <c r="K148" s="7">
@@ -12938,7 +12938,7 @@
         <v>71.64</v>
       </c>
       <c r="J149" s="7">
-        <f>SUM(G149*I149)</f>
+        <f t="shared" si="2"/>
         <v>716.4</v>
       </c>
       <c r="K149" s="7">
@@ -13009,7 +13009,7 @@
         <v>39.03</v>
       </c>
       <c r="J150" s="7">
-        <f>SUM(G150*I150)</f>
+        <f t="shared" si="2"/>
         <v>273.21000000000004</v>
       </c>
       <c r="K150" s="7">
@@ -13083,7 +13083,7 @@
         <v>113.6</v>
       </c>
       <c r="J151" s="7">
-        <f>SUM(G151*I151)</f>
+        <f t="shared" si="2"/>
         <v>795.19999999999993</v>
       </c>
       <c r="K151" s="7">
@@ -13157,7 +13157,7 @@
         <v>33.51</v>
       </c>
       <c r="J152" s="7">
-        <f>SUM(G152*I152)</f>
+        <f t="shared" si="2"/>
         <v>368.60999999999996</v>
       </c>
       <c r="K152" s="7">
@@ -13228,7 +13228,7 @@
         <v>110.38</v>
       </c>
       <c r="J153" s="7">
-        <f>SUM(G153*I153)</f>
+        <f t="shared" si="2"/>
         <v>1324.56</v>
       </c>
       <c r="K153" s="7">
@@ -13302,7 +13302,7 @@
         <v>51.89</v>
       </c>
       <c r="J154" s="7">
-        <f>SUM(G154*I154)</f>
+        <f t="shared" si="2"/>
         <v>518.9</v>
       </c>
       <c r="K154" s="7">
@@ -13373,7 +13373,7 @@
         <v>97.08</v>
       </c>
       <c r="J155" s="7">
-        <f>SUM(G155*I155)</f>
+        <f t="shared" si="2"/>
         <v>1164.96</v>
       </c>
       <c r="K155" s="7">
@@ -13444,7 +13444,7 @@
         <v>100.49</v>
       </c>
       <c r="J156" s="7">
-        <f>SUM(G156*I156)</f>
+        <f t="shared" si="2"/>
         <v>602.93999999999994</v>
       </c>
       <c r="K156" s="7">
@@ -13515,7 +13515,7 @@
         <v>70.02</v>
       </c>
       <c r="J157" s="7">
-        <f>SUM(G157*I157)</f>
+        <f t="shared" si="2"/>
         <v>630.17999999999995</v>
       </c>
       <c r="K157" s="7">
@@ -13586,7 +13586,7 @@
         <v>117.65</v>
       </c>
       <c r="J158" s="7">
-        <f>SUM(G158*I158)</f>
+        <f t="shared" si="2"/>
         <v>1294.1500000000001</v>
       </c>
       <c r="K158" s="7">
@@ -13657,7 +13657,7 @@
         <v>126.53</v>
       </c>
       <c r="J159" s="7">
-        <f>SUM(G159*I159)</f>
+        <f t="shared" si="2"/>
         <v>759.18000000000006</v>
       </c>
       <c r="K159" s="7">
@@ -13728,7 +13728,7 @@
         <v>107.28</v>
       </c>
       <c r="J160" s="7">
-        <f>SUM(G160*I160)</f>
+        <f t="shared" si="2"/>
         <v>750.96</v>
       </c>
       <c r="K160" s="7">
@@ -13799,7 +13799,7 @@
         <v>185.89</v>
       </c>
       <c r="J161" s="7">
-        <f>SUM(G161*I161)</f>
+        <f t="shared" si="2"/>
         <v>1858.8999999999999</v>
       </c>
       <c r="K161" s="7">
@@ -13873,7 +13873,7 @@
         <v>88.89</v>
       </c>
       <c r="J162" s="7">
-        <f>SUM(G162*I162)</f>
+        <f t="shared" si="2"/>
         <v>1155.57</v>
       </c>
       <c r="K162" s="7">
@@ -13944,7 +13944,7 @@
         <v>173.89</v>
       </c>
       <c r="J163" s="7">
-        <f>SUM(G163*I163)</f>
+        <f t="shared" si="2"/>
         <v>1912.79</v>
       </c>
       <c r="K163" s="7">
@@ -14015,7 +14015,7 @@
         <v>22.46</v>
       </c>
       <c r="J164" s="7">
-        <f>SUM(G164*I164)</f>
+        <f t="shared" si="2"/>
         <v>247.06</v>
       </c>
       <c r="K164" s="7">
@@ -14089,7 +14089,7 @@
         <v>34.29</v>
       </c>
       <c r="J165" s="7">
-        <f>SUM(G165*I165)</f>
+        <f t="shared" si="2"/>
         <v>411.48</v>
       </c>
       <c r="K165" s="7">
@@ -14160,7 +14160,7 @@
         <v>148.77000000000001</v>
       </c>
       <c r="J166" s="7">
-        <f>SUM(G166*I166)</f>
+        <f t="shared" si="2"/>
         <v>1487.7</v>
       </c>
       <c r="K166" s="7">
@@ -14234,7 +14234,7 @@
         <v>172.29</v>
       </c>
       <c r="J167" s="7">
-        <f>SUM(G167*I167)</f>
+        <f t="shared" si="2"/>
         <v>2239.77</v>
       </c>
       <c r="K167" s="7">
@@ -14308,7 +14308,7 @@
         <v>186.49</v>
       </c>
       <c r="J168" s="7">
-        <f>SUM(G168*I168)</f>
+        <f t="shared" si="2"/>
         <v>1491.92</v>
       </c>
       <c r="K168" s="7">
@@ -14382,7 +14382,7 @@
         <v>56.58</v>
       </c>
       <c r="J169" s="7">
-        <f>SUM(G169*I169)</f>
+        <f t="shared" si="2"/>
         <v>565.79999999999995</v>
       </c>
       <c r="K169" s="7">
@@ -14453,7 +14453,7 @@
         <v>89.71</v>
       </c>
       <c r="J170" s="7">
-        <f>SUM(G170*I170)</f>
+        <f t="shared" si="2"/>
         <v>1076.52</v>
       </c>
       <c r="K170" s="7">
@@ -14524,7 +14524,7 @@
         <v>64.72</v>
       </c>
       <c r="J171" s="7">
-        <f>SUM(G171*I171)</f>
+        <f t="shared" si="2"/>
         <v>517.76</v>
       </c>
       <c r="K171" s="7">
@@ -14595,7 +14595,7 @@
         <v>20.91</v>
       </c>
       <c r="J172" s="7">
-        <f>SUM(G172*I172)</f>
+        <f t="shared" si="2"/>
         <v>125.46000000000001</v>
       </c>
       <c r="K172" s="7">
@@ -14669,7 +14669,7 @@
         <v>14.78</v>
       </c>
       <c r="J173" s="7">
-        <f>SUM(G173*I173)</f>
+        <f t="shared" si="2"/>
         <v>147.79999999999998</v>
       </c>
       <c r="K173" s="7">
@@ -14743,7 +14743,7 @@
         <v>141.25</v>
       </c>
       <c r="J174" s="7">
-        <f>SUM(G174*I174)</f>
+        <f t="shared" si="2"/>
         <v>1271.25</v>
       </c>
       <c r="K174" s="7">
@@ -14814,7 +14814,7 @@
         <v>14.61</v>
       </c>
       <c r="J175" s="7">
-        <f>SUM(G175*I175)</f>
+        <f t="shared" si="2"/>
         <v>87.66</v>
       </c>
       <c r="K175" s="7">
@@ -14885,7 +14885,7 @@
         <v>178.05</v>
       </c>
       <c r="J176" s="7">
-        <f>SUM(G176*I176)</f>
+        <f t="shared" si="2"/>
         <v>2314.65</v>
       </c>
       <c r="K176" s="7">
@@ -14956,7 +14956,7 @@
         <v>96.86</v>
       </c>
       <c r="J177" s="7">
-        <f>SUM(G177*I177)</f>
+        <f t="shared" si="2"/>
         <v>1065.46</v>
       </c>
       <c r="K177" s="7">
@@ -15027,7 +15027,7 @@
         <v>119.84</v>
       </c>
       <c r="J178" s="7">
-        <f>SUM(G178*I178)</f>
+        <f t="shared" si="2"/>
         <v>958.72</v>
       </c>
       <c r="K178" s="7">
@@ -15098,7 +15098,7 @@
         <v>138.02000000000001</v>
       </c>
       <c r="J179" s="7">
-        <f>SUM(G179*I179)</f>
+        <f t="shared" si="2"/>
         <v>1380.2</v>
       </c>
       <c r="K179" s="7">
@@ -15169,7 +15169,7 @@
         <v>109.94</v>
       </c>
       <c r="J180" s="7">
-        <f>SUM(G180*I180)</f>
+        <f t="shared" si="2"/>
         <v>879.52</v>
       </c>
       <c r="K180" s="7">
@@ -15240,7 +15240,7 @@
         <v>11.76</v>
       </c>
       <c r="J181" s="7">
-        <f>SUM(G181*I181)</f>
+        <f t="shared" si="2"/>
         <v>105.84</v>
       </c>
       <c r="K181" s="7">
@@ -15314,7 +15314,7 @@
         <v>94.33</v>
       </c>
       <c r="J182" s="7">
-        <f>SUM(G182*I182)</f>
+        <f t="shared" si="2"/>
         <v>754.64</v>
       </c>
       <c r="K182" s="7">
@@ -15388,7 +15388,7 @@
         <v>159.66</v>
       </c>
       <c r="J183" s="7">
-        <f>SUM(G183*I183)</f>
+        <f t="shared" si="2"/>
         <v>957.96</v>
       </c>
       <c r="K183" s="7">
@@ -15462,7 +15462,7 @@
         <v>51.99</v>
       </c>
       <c r="J184" s="7">
-        <f>SUM(G184*I184)</f>
+        <f t="shared" si="2"/>
         <v>519.9</v>
       </c>
       <c r="K184" s="7">
@@ -15533,7 +15533,7 @@
         <v>80.58</v>
       </c>
       <c r="J185" s="7">
-        <f>SUM(G185*I185)</f>
+        <f t="shared" si="2"/>
         <v>564.05999999999995</v>
       </c>
       <c r="K185" s="7">
@@ -15607,7 +15607,7 @@
         <v>103.85</v>
       </c>
       <c r="J186" s="7">
-        <f>SUM(G186*I186)</f>
+        <f t="shared" si="2"/>
         <v>1142.3499999999999</v>
       </c>
       <c r="K186" s="7">
@@ -15681,7 +15681,7 @@
         <v>177.05</v>
       </c>
       <c r="J187" s="7">
-        <f>SUM(G187*I187)</f>
+        <f t="shared" si="2"/>
         <v>1239.3500000000001</v>
       </c>
       <c r="K187" s="7">
@@ -15755,7 +15755,7 @@
         <v>97.18</v>
       </c>
       <c r="J188" s="7">
-        <f>SUM(G188*I188)</f>
+        <f t="shared" si="2"/>
         <v>1263.3400000000001</v>
       </c>
       <c r="K188" s="7">
@@ -15826,7 +15826,7 @@
         <v>97.75</v>
       </c>
       <c r="J189" s="7">
-        <f>SUM(G189*I189)</f>
+        <f t="shared" si="2"/>
         <v>684.25</v>
       </c>
       <c r="K189" s="7">
@@ -15897,7 +15897,7 @@
         <v>38.14</v>
       </c>
       <c r="J190" s="7">
-        <f>SUM(G190*I190)</f>
+        <f t="shared" si="2"/>
         <v>533.96</v>
       </c>
       <c r="K190" s="7">
@@ -15968,7 +15968,7 @@
         <v>24.74</v>
       </c>
       <c r="J191" s="7">
-        <f>SUM(G191*I191)</f>
+        <f t="shared" si="2"/>
         <v>148.44</v>
       </c>
       <c r="K191" s="7">
@@ -16039,7 +16039,7 @@
         <v>130.86000000000001</v>
       </c>
       <c r="J192" s="7">
-        <f>SUM(G192*I192)</f>
+        <f t="shared" si="2"/>
         <v>916.0200000000001</v>
       </c>
       <c r="K192" s="7">
@@ -16113,7 +16113,7 @@
         <v>153.31</v>
       </c>
       <c r="J193" s="7">
-        <f>SUM(G193*I193)</f>
+        <f t="shared" si="2"/>
         <v>1533.1</v>
       </c>
       <c r="K193" s="7">
@@ -16184,7 +16184,7 @@
         <v>16.12</v>
       </c>
       <c r="J194" s="7">
-        <f>SUM(G194*I194)</f>
+        <f t="shared" ref="J194:J257" si="3">SUM(G194*I194)</f>
         <v>177.32000000000002</v>
       </c>
       <c r="K194" s="7">
@@ -16255,7 +16255,7 @@
         <v>198.82</v>
       </c>
       <c r="J195" s="7">
-        <f>SUM(G195*I195)</f>
+        <f t="shared" si="3"/>
         <v>1590.56</v>
       </c>
       <c r="K195" s="7">
@@ -16326,7 +16326,7 @@
         <v>171.67</v>
       </c>
       <c r="J196" s="7">
-        <f>SUM(G196*I196)</f>
+        <f t="shared" si="3"/>
         <v>2231.71</v>
       </c>
       <c r="K196" s="7">
@@ -16397,7 +16397,7 @@
         <v>159.4</v>
       </c>
       <c r="J197" s="7">
-        <f>SUM(G197*I197)</f>
+        <f t="shared" si="3"/>
         <v>1115.8</v>
       </c>
       <c r="K197" s="7">
@@ -16471,7 +16471,7 @@
         <v>193.47</v>
       </c>
       <c r="J198" s="7">
-        <f>SUM(G198*I198)</f>
+        <f t="shared" si="3"/>
         <v>2515.11</v>
       </c>
       <c r="K198" s="7">
@@ -16542,7 +16542,7 @@
         <v>34.31</v>
       </c>
       <c r="J199" s="7">
-        <f>SUM(G199*I199)</f>
+        <f t="shared" si="3"/>
         <v>240.17000000000002</v>
       </c>
       <c r="K199" s="7">
@@ -16613,7 +16613,7 @@
         <v>124.42</v>
       </c>
       <c r="J200" s="7">
-        <f>SUM(G200*I200)</f>
+        <f t="shared" si="3"/>
         <v>1119.78</v>
       </c>
       <c r="K200" s="7">
@@ -16687,7 +16687,7 @@
         <v>126.96</v>
       </c>
       <c r="J201" s="7">
-        <f>SUM(G201*I201)</f>
+        <f t="shared" si="3"/>
         <v>1650.48</v>
       </c>
       <c r="K201" s="7">
@@ -16758,7 +16758,7 @@
         <v>97.41</v>
       </c>
       <c r="J202" s="7">
-        <f>SUM(G202*I202)</f>
+        <f t="shared" si="3"/>
         <v>779.28</v>
       </c>
       <c r="K202" s="7">
@@ -16832,7 +16832,7 @@
         <v>43.73</v>
       </c>
       <c r="J203" s="7">
-        <f>SUM(G203*I203)</f>
+        <f t="shared" si="3"/>
         <v>218.64999999999998</v>
       </c>
       <c r="K203" s="7">
@@ -16906,7 +16906,7 @@
         <v>194.57</v>
       </c>
       <c r="J204" s="7">
-        <f>SUM(G204*I204)</f>
+        <f t="shared" si="3"/>
         <v>2529.41</v>
       </c>
       <c r="K204" s="7">
@@ -16980,7 +16980,7 @@
         <v>90.9</v>
       </c>
       <c r="J205" s="7">
-        <f>SUM(G205*I205)</f>
+        <f t="shared" si="3"/>
         <v>818.1</v>
       </c>
       <c r="K205" s="7">
@@ -17051,7 +17051,7 @@
         <v>64.150000000000006</v>
       </c>
       <c r="J206" s="7">
-        <f>SUM(G206*I206)</f>
+        <f t="shared" si="3"/>
         <v>320.75</v>
       </c>
       <c r="K206" s="7">
@@ -17122,7 +17122,7 @@
         <v>66.540000000000006</v>
       </c>
       <c r="J207" s="7">
-        <f>SUM(G207*I207)</f>
+        <f t="shared" si="3"/>
         <v>332.70000000000005</v>
       </c>
       <c r="K207" s="7">
@@ -17193,7 +17193,7 @@
         <v>114.33</v>
       </c>
       <c r="J208" s="7">
-        <f>SUM(G208*I208)</f>
+        <f t="shared" si="3"/>
         <v>1486.29</v>
       </c>
       <c r="K208" s="7">
@@ -17264,7 +17264,7 @@
         <v>191.7</v>
       </c>
       <c r="J209" s="7">
-        <f>SUM(G209*I209)</f>
+        <f t="shared" si="3"/>
         <v>1341.8999999999999</v>
       </c>
       <c r="K209" s="7">
@@ -17338,7 +17338,7 @@
         <v>104.2</v>
       </c>
       <c r="J210" s="7">
-        <f>SUM(G210*I210)</f>
+        <f t="shared" si="3"/>
         <v>1042</v>
       </c>
       <c r="K210" s="7">
@@ -17409,7 +17409,7 @@
         <v>128.15</v>
       </c>
       <c r="J211" s="7">
-        <f>SUM(G211*I211)</f>
+        <f t="shared" si="3"/>
         <v>1409.65</v>
       </c>
       <c r="K211" s="7">
@@ -17480,7 +17480,7 @@
         <v>39.229999999999997</v>
       </c>
       <c r="J212" s="7">
-        <f>SUM(G212*I212)</f>
+        <f t="shared" si="3"/>
         <v>353.07</v>
       </c>
       <c r="K212" s="7">
@@ -17551,7 +17551,7 @@
         <v>120.85</v>
       </c>
       <c r="J213" s="7">
-        <f>SUM(G213*I213)</f>
+        <f t="shared" si="3"/>
         <v>1450.1999999999998</v>
       </c>
       <c r="K213" s="7">
@@ -17622,7 +17622,7 @@
         <v>86.23</v>
       </c>
       <c r="J214" s="7">
-        <f>SUM(G214*I214)</f>
+        <f t="shared" si="3"/>
         <v>689.84</v>
       </c>
       <c r="K214" s="7">
@@ -17693,7 +17693,7 @@
         <v>83.78</v>
       </c>
       <c r="J215" s="7">
-        <f>SUM(G215*I215)</f>
+        <f t="shared" si="3"/>
         <v>586.46</v>
       </c>
       <c r="K215" s="7">
@@ -17764,7 +17764,7 @@
         <v>39.03</v>
       </c>
       <c r="J216" s="7">
-        <f>SUM(G216*I216)</f>
+        <f t="shared" si="3"/>
         <v>312.24</v>
       </c>
       <c r="K216" s="7">
@@ -17835,7 +17835,7 @@
         <v>81.400000000000006</v>
       </c>
       <c r="J217" s="7">
-        <f>SUM(G217*I217)</f>
+        <f t="shared" si="3"/>
         <v>732.6</v>
       </c>
       <c r="K217" s="7">
@@ -17906,7 +17906,7 @@
         <v>95.5</v>
       </c>
       <c r="J218" s="7">
-        <f>SUM(G218*I218)</f>
+        <f t="shared" si="3"/>
         <v>1146</v>
       </c>
       <c r="K218" s="7">
@@ -17980,7 +17980,7 @@
         <v>30.04</v>
       </c>
       <c r="J219" s="7">
-        <f>SUM(G219*I219)</f>
+        <f t="shared" si="3"/>
         <v>210.28</v>
       </c>
       <c r="K219" s="7">
@@ -18054,7 +18054,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="J220" s="7">
-        <f>SUM(G220*I220)</f>
+        <f t="shared" si="3"/>
         <v>170.79999999999998</v>
       </c>
       <c r="K220" s="7">
@@ -18125,7 +18125,7 @@
         <v>96.8</v>
       </c>
       <c r="J221" s="7">
-        <f>SUM(G221*I221)</f>
+        <f t="shared" si="3"/>
         <v>871.19999999999993</v>
       </c>
       <c r="K221" s="7">
@@ -18196,7 +18196,7 @@
         <v>78.319999999999993</v>
       </c>
       <c r="J222" s="7">
-        <f>SUM(G222*I222)</f>
+        <f t="shared" si="3"/>
         <v>783.19999999999993</v>
       </c>
       <c r="K222" s="7">
@@ -18270,7 +18270,7 @@
         <v>114.98</v>
       </c>
       <c r="J223" s="7">
-        <f>SUM(G223*I223)</f>
+        <f t="shared" si="3"/>
         <v>919.84</v>
       </c>
       <c r="K223" s="7">
@@ -18344,7 +18344,7 @@
         <v>134.99</v>
       </c>
       <c r="J224" s="7">
-        <f>SUM(G224*I224)</f>
+        <f t="shared" si="3"/>
         <v>809.94</v>
       </c>
       <c r="K224" s="7">
@@ -18415,7 +18415,7 @@
         <v>25.87</v>
       </c>
       <c r="J225" s="7">
-        <f>SUM(G225*I225)</f>
+        <f t="shared" si="3"/>
         <v>362.18</v>
       </c>
       <c r="K225" s="7">
@@ -18489,7 +18489,7 @@
         <v>136.18</v>
       </c>
       <c r="J226" s="7">
-        <f>SUM(G226*I226)</f>
+        <f t="shared" si="3"/>
         <v>1361.8000000000002</v>
       </c>
       <c r="K226" s="7">
@@ -18560,7 +18560,7 @@
         <v>25.24</v>
       </c>
       <c r="J227" s="7">
-        <f>SUM(G227*I227)</f>
+        <f t="shared" si="3"/>
         <v>227.16</v>
       </c>
       <c r="K227" s="7">
@@ -18631,7 +18631,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="J228" s="7">
-        <f>SUM(G228*I228)</f>
+        <f t="shared" si="3"/>
         <v>114.60000000000001</v>
       </c>
       <c r="K228" s="7">
@@ -18702,7 +18702,7 @@
         <v>85.91</v>
       </c>
       <c r="J229" s="7">
-        <f>SUM(G229*I229)</f>
+        <f t="shared" si="3"/>
         <v>601.37</v>
       </c>
       <c r="K229" s="7">
@@ -18773,7 +18773,7 @@
         <v>118.33</v>
       </c>
       <c r="J230" s="7">
-        <f>SUM(G230*I230)</f>
+        <f t="shared" si="3"/>
         <v>591.65</v>
       </c>
       <c r="K230" s="7">
@@ -18844,7 +18844,7 @@
         <v>55.64</v>
       </c>
       <c r="J231" s="7">
-        <f>SUM(G231*I231)</f>
+        <f t="shared" si="3"/>
         <v>500.76</v>
       </c>
       <c r="K231" s="7">
@@ -18918,7 +18918,7 @@
         <v>2.56</v>
       </c>
       <c r="J232" s="7">
-        <f>SUM(G232*I232)</f>
+        <f t="shared" si="3"/>
         <v>15.36</v>
       </c>
       <c r="K232" s="7">
@@ -18989,7 +18989,7 @@
         <v>136.08000000000001</v>
       </c>
       <c r="J233" s="7">
-        <f>SUM(G233*I233)</f>
+        <f t="shared" si="3"/>
         <v>1224.72</v>
       </c>
       <c r="K233" s="7">
@@ -19060,7 +19060,7 @@
         <v>175.44</v>
       </c>
       <c r="J234" s="7">
-        <f>SUM(G234*I234)</f>
+        <f t="shared" si="3"/>
         <v>1228.08</v>
       </c>
       <c r="K234" s="7">
@@ -19134,7 +19134,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="J235" s="7">
-        <f>SUM(G235*I235)</f>
+        <f t="shared" si="3"/>
         <v>604.79999999999995</v>
       </c>
       <c r="K235" s="7">
@@ -19208,7 +19208,7 @@
         <v>0.61</v>
       </c>
       <c r="J236" s="7">
-        <f>SUM(G236*I236)</f>
+        <f t="shared" si="3"/>
         <v>7.93</v>
       </c>
       <c r="K236" s="7">
@@ -19279,7 +19279,7 @@
         <v>122.4</v>
       </c>
       <c r="J237" s="7">
-        <f>SUM(G237*I237)</f>
+        <f t="shared" si="3"/>
         <v>734.40000000000009</v>
       </c>
       <c r="K237" s="7">
@@ -19350,7 +19350,7 @@
         <v>3.71</v>
       </c>
       <c r="J238" s="7">
-        <f>SUM(G238*I238)</f>
+        <f t="shared" si="3"/>
         <v>25.97</v>
       </c>
       <c r="K238" s="7">
@@ -19421,7 +19421,7 @@
         <v>55.32</v>
       </c>
       <c r="J239" s="7">
-        <f>SUM(G239*I239)</f>
+        <f t="shared" si="3"/>
         <v>663.84</v>
       </c>
       <c r="K239" s="7">
@@ -19495,7 +19495,7 @@
         <v>184.13</v>
       </c>
       <c r="J240" s="7">
-        <f>SUM(G240*I240)</f>
+        <f t="shared" si="3"/>
         <v>1473.04</v>
       </c>
       <c r="K240" s="7">
@@ -19566,7 +19566,7 @@
         <v>174.73</v>
       </c>
       <c r="J241" s="7">
-        <f>SUM(G241*I241)</f>
+        <f t="shared" si="3"/>
         <v>1747.3</v>
       </c>
       <c r="K241" s="7">
@@ -19637,7 +19637,7 @@
         <v>75.63</v>
       </c>
       <c r="J242" s="7">
-        <f>SUM(G242*I242)</f>
+        <f t="shared" si="3"/>
         <v>831.93</v>
       </c>
       <c r="K242" s="7">
@@ -19708,7 +19708,7 @@
         <v>88.09</v>
       </c>
       <c r="J243" s="7">
-        <f>SUM(G243*I243)</f>
+        <f t="shared" si="3"/>
         <v>528.54</v>
       </c>
       <c r="K243" s="7">
@@ -19779,7 +19779,7 @@
         <v>22.72</v>
       </c>
       <c r="J244" s="7">
-        <f>SUM(G244*I244)</f>
+        <f t="shared" si="3"/>
         <v>113.6</v>
       </c>
       <c r="K244" s="7">
@@ -19850,7 +19850,7 @@
         <v>100.94</v>
       </c>
       <c r="J245" s="7">
-        <f>SUM(G245*I245)</f>
+        <f t="shared" si="3"/>
         <v>706.57999999999993</v>
       </c>
       <c r="K245" s="7">
@@ -19921,7 +19921,7 @@
         <v>72.14</v>
       </c>
       <c r="J246" s="7">
-        <f>SUM(G246*I246)</f>
+        <f t="shared" si="3"/>
         <v>793.54</v>
       </c>
       <c r="K246" s="7">
@@ -19995,7 +19995,7 @@
         <v>11.83</v>
       </c>
       <c r="J247" s="7">
-        <f>SUM(G247*I247)</f>
+        <f t="shared" si="3"/>
         <v>141.96</v>
       </c>
       <c r="K247" s="7">
@@ -20069,7 +20069,7 @@
         <v>156.06</v>
       </c>
       <c r="J248" s="7">
-        <f>SUM(G248*I248)</f>
+        <f t="shared" si="3"/>
         <v>1716.66</v>
       </c>
       <c r="K248" s="7">
@@ -20143,7 +20143,7 @@
         <v>121.78</v>
       </c>
       <c r="J249" s="7">
-        <f>SUM(G249*I249)</f>
+        <f t="shared" si="3"/>
         <v>1583.14</v>
       </c>
       <c r="K249" s="7">
@@ -20214,7 +20214,7 @@
         <v>184.56</v>
       </c>
       <c r="J250" s="7">
-        <f>SUM(G250*I250)</f>
+        <f t="shared" si="3"/>
         <v>1845.6</v>
       </c>
       <c r="K250" s="7">
@@ -20285,7 +20285,7 @@
         <v>116.06</v>
       </c>
       <c r="J251" s="7">
-        <f>SUM(G251*I251)</f>
+        <f t="shared" si="3"/>
         <v>928.48</v>
       </c>
       <c r="K251" s="7">
@@ -20356,7 +20356,7 @@
         <v>4.72</v>
       </c>
       <c r="J252" s="7">
-        <f>SUM(G252*I252)</f>
+        <f t="shared" si="3"/>
         <v>51.919999999999995</v>
       </c>
       <c r="K252" s="7">
@@ -20430,7 +20430,7 @@
         <v>56.7</v>
       </c>
       <c r="J253" s="7">
-        <f>SUM(G253*I253)</f>
+        <f t="shared" si="3"/>
         <v>680.40000000000009</v>
       </c>
       <c r="K253" s="7">
@@ -20501,7 +20501,7 @@
         <v>130.72</v>
       </c>
       <c r="J254" s="7">
-        <f>SUM(G254*I254)</f>
+        <f t="shared" si="3"/>
         <v>1699.36</v>
       </c>
       <c r="K254" s="7">
@@ -20572,7 +20572,7 @@
         <v>35.82</v>
       </c>
       <c r="J255" s="7">
-        <f>SUM(G255*I255)</f>
+        <f t="shared" si="3"/>
         <v>465.66</v>
       </c>
       <c r="K255" s="7">
@@ -20643,7 +20643,7 @@
         <v>138.69999999999999</v>
       </c>
       <c r="J256" s="7">
-        <f>SUM(G256*I256)</f>
+        <f t="shared" si="3"/>
         <v>1109.5999999999999</v>
       </c>
       <c r="K256" s="7">
@@ -20717,7 +20717,7 @@
         <v>194.77</v>
       </c>
       <c r="J257" s="7">
-        <f>SUM(G257*I257)</f>
+        <f t="shared" si="3"/>
         <v>1558.16</v>
       </c>
       <c r="K257" s="7">
@@ -20791,7 +20791,7 @@
         <v>181.65</v>
       </c>
       <c r="J258" s="7">
-        <f>SUM(G258*I258)</f>
+        <f t="shared" ref="J258:J321" si="4">SUM(G258*I258)</f>
         <v>1453.2</v>
       </c>
       <c r="K258" s="7">
@@ -20862,7 +20862,7 @@
         <v>87.31</v>
       </c>
       <c r="J259" s="7">
-        <f>SUM(G259*I259)</f>
+        <f t="shared" si="4"/>
         <v>1047.72</v>
       </c>
       <c r="K259" s="7">
@@ -20933,7 +20933,7 @@
         <v>106.15</v>
       </c>
       <c r="J260" s="7">
-        <f>SUM(G260*I260)</f>
+        <f t="shared" si="4"/>
         <v>1379.95</v>
       </c>
       <c r="K260" s="7">
@@ -21004,7 +21004,7 @@
         <v>83.9</v>
       </c>
       <c r="J261" s="7">
-        <f>SUM(G261*I261)</f>
+        <f t="shared" si="4"/>
         <v>503.40000000000003</v>
       </c>
       <c r="K261" s="7">
@@ -21075,7 +21075,7 @@
         <v>57.83</v>
       </c>
       <c r="J262" s="7">
-        <f>SUM(G262*I262)</f>
+        <f t="shared" si="4"/>
         <v>751.79</v>
       </c>
       <c r="K262" s="7">
@@ -21146,7 +21146,7 @@
         <v>63.6</v>
       </c>
       <c r="J263" s="7">
-        <f>SUM(G263*I263)</f>
+        <f t="shared" si="4"/>
         <v>445.2</v>
       </c>
       <c r="K263" s="7">
@@ -21220,7 +21220,7 @@
         <v>109.07</v>
       </c>
       <c r="J264" s="7">
-        <f>SUM(G264*I264)</f>
+        <f t="shared" si="4"/>
         <v>763.49</v>
       </c>
       <c r="K264" s="7">
@@ -21294,7 +21294,7 @@
         <v>133.66</v>
       </c>
       <c r="J265" s="7">
-        <f>SUM(G265*I265)</f>
+        <f t="shared" si="4"/>
         <v>1871.24</v>
       </c>
       <c r="K265" s="7">
@@ -21368,7 +21368,7 @@
         <v>64.06</v>
       </c>
       <c r="J266" s="7">
-        <f>SUM(G266*I266)</f>
+        <f t="shared" si="4"/>
         <v>384.36</v>
       </c>
       <c r="K266" s="7">
@@ -21442,7 +21442,7 @@
         <v>175.93</v>
       </c>
       <c r="J267" s="7">
-        <f>SUM(G267*I267)</f>
+        <f t="shared" si="4"/>
         <v>2287.09</v>
       </c>
       <c r="K267" s="7">
@@ -21513,7 +21513,7 @@
         <v>95.66</v>
       </c>
       <c r="J268" s="7">
-        <f>SUM(G268*I268)</f>
+        <f t="shared" si="4"/>
         <v>765.28</v>
       </c>
       <c r="K268" s="7">
@@ -21584,7 +21584,7 @@
         <v>157.41999999999999</v>
       </c>
       <c r="J269" s="7">
-        <f>SUM(G269*I269)</f>
+        <f t="shared" si="4"/>
         <v>1889.04</v>
       </c>
       <c r="K269" s="7">
@@ -21655,7 +21655,7 @@
         <v>122.71</v>
       </c>
       <c r="J270" s="7">
-        <f>SUM(G270*I270)</f>
+        <f t="shared" si="4"/>
         <v>981.68</v>
       </c>
       <c r="K270" s="7">
@@ -21729,7 +21729,7 @@
         <v>178.92</v>
       </c>
       <c r="J271" s="7">
-        <f>SUM(G271*I271)</f>
+        <f t="shared" si="4"/>
         <v>1431.36</v>
       </c>
       <c r="K271" s="7">
@@ -21803,7 +21803,7 @@
         <v>72.16</v>
       </c>
       <c r="J272" s="7">
-        <f>SUM(G272*I272)</f>
+        <f t="shared" si="4"/>
         <v>432.96</v>
       </c>
       <c r="K272" s="7">
@@ -21874,7 +21874,7 @@
         <v>117.64</v>
       </c>
       <c r="J273" s="7">
-        <f>SUM(G273*I273)</f>
+        <f t="shared" si="4"/>
         <v>1294.04</v>
       </c>
       <c r="K273" s="7">
@@ -21948,7 +21948,7 @@
         <v>76.989999999999995</v>
       </c>
       <c r="J274" s="7">
-        <f>SUM(G274*I274)</f>
+        <f t="shared" si="4"/>
         <v>692.91</v>
       </c>
       <c r="K274" s="7">
@@ -22019,7 +22019,7 @@
         <v>151.32</v>
       </c>
       <c r="J275" s="7">
-        <f>SUM(G275*I275)</f>
+        <f t="shared" si="4"/>
         <v>1664.52</v>
       </c>
       <c r="K275" s="7">
@@ -22093,7 +22093,7 @@
         <v>113.61</v>
       </c>
       <c r="J276" s="7">
-        <f>SUM(G276*I276)</f>
+        <f t="shared" si="4"/>
         <v>1249.71</v>
       </c>
       <c r="K276" s="7">
@@ -22167,7 +22167,7 @@
         <v>174</v>
       </c>
       <c r="J277" s="7">
-        <f>SUM(G277*I277)</f>
+        <f t="shared" si="4"/>
         <v>1914</v>
       </c>
       <c r="K277" s="7">
@@ -22241,7 +22241,7 @@
         <v>109.99</v>
       </c>
       <c r="J278" s="7">
-        <f>SUM(G278*I278)</f>
+        <f t="shared" si="4"/>
         <v>1429.87</v>
       </c>
       <c r="K278" s="7">
@@ -22315,7 +22315,7 @@
         <v>126.11</v>
       </c>
       <c r="J279" s="7">
-        <f>SUM(G279*I279)</f>
+        <f t="shared" si="4"/>
         <v>1387.21</v>
       </c>
       <c r="K279" s="7">
@@ -22386,7 +22386,7 @@
         <v>91.83</v>
       </c>
       <c r="J280" s="7">
-        <f>SUM(G280*I280)</f>
+        <f t="shared" si="4"/>
         <v>459.15</v>
       </c>
       <c r="K280" s="7">
@@ -22457,7 +22457,7 @@
         <v>59.39</v>
       </c>
       <c r="J281" s="7">
-        <f>SUM(G281*I281)</f>
+        <f t="shared" si="4"/>
         <v>356.34000000000003</v>
       </c>
       <c r="K281" s="7">
@@ -22531,7 +22531,7 @@
         <v>97.03</v>
       </c>
       <c r="J282" s="7">
-        <f>SUM(G282*I282)</f>
+        <f t="shared" si="4"/>
         <v>1261.3900000000001</v>
       </c>
       <c r="K282" s="7">
@@ -22602,7 +22602,7 @@
         <v>22.21</v>
       </c>
       <c r="J283" s="7">
-        <f>SUM(G283*I283)</f>
+        <f t="shared" si="4"/>
         <v>266.52</v>
       </c>
       <c r="K283" s="7">
@@ -22676,7 +22676,7 @@
         <v>16.63</v>
       </c>
       <c r="J284" s="7">
-        <f>SUM(G284*I284)</f>
+        <f t="shared" si="4"/>
         <v>116.41</v>
       </c>
       <c r="K284" s="7">
@@ -22747,7 +22747,7 @@
         <v>158.24</v>
       </c>
       <c r="J285" s="7">
-        <f>SUM(G285*I285)</f>
+        <f t="shared" si="4"/>
         <v>1265.92</v>
       </c>
       <c r="K285" s="7">
@@ -22818,7 +22818,7 @@
         <v>24.82</v>
       </c>
       <c r="J286" s="7">
-        <f>SUM(G286*I286)</f>
+        <f t="shared" si="4"/>
         <v>198.56</v>
       </c>
       <c r="K286" s="7">
@@ -22889,7 +22889,7 @@
         <v>68.75</v>
       </c>
       <c r="J287" s="7">
-        <f>SUM(G287*I287)</f>
+        <f t="shared" si="4"/>
         <v>756.25</v>
       </c>
       <c r="K287" s="7">
@@ -22960,7 +22960,7 @@
         <v>186.82</v>
       </c>
       <c r="J288" s="7">
-        <f>SUM(G288*I288)</f>
+        <f t="shared" si="4"/>
         <v>2241.84</v>
       </c>
       <c r="K288" s="7">
@@ -23034,7 +23034,7 @@
         <v>114.34</v>
       </c>
       <c r="J289" s="7">
-        <f>SUM(G289*I289)</f>
+        <f t="shared" si="4"/>
         <v>1486.42</v>
       </c>
       <c r="K289" s="7">
@@ -23105,7 +23105,7 @@
         <v>133.58000000000001</v>
       </c>
       <c r="J290" s="7">
-        <f>SUM(G290*I290)</f>
+        <f t="shared" si="4"/>
         <v>801.48</v>
       </c>
       <c r="K290" s="7">
@@ -23179,7 +23179,7 @@
         <v>92.39</v>
       </c>
       <c r="J291" s="7">
-        <f>SUM(G291*I291)</f>
+        <f t="shared" si="4"/>
         <v>739.12</v>
       </c>
       <c r="K291" s="7">
@@ -23250,7 +23250,7 @@
         <v>165.4</v>
       </c>
       <c r="J292" s="7">
-        <f>SUM(G292*I292)</f>
+        <f t="shared" si="4"/>
         <v>1984.8000000000002</v>
       </c>
       <c r="K292" s="7">
@@ -23324,7 +23324,7 @@
         <v>36.520000000000003</v>
       </c>
       <c r="J293" s="7">
-        <f>SUM(G293*I293)</f>
+        <f t="shared" si="4"/>
         <v>219.12</v>
       </c>
       <c r="K293" s="7">
@@ -23398,7 +23398,7 @@
         <v>119.47</v>
       </c>
       <c r="J294" s="7">
-        <f>SUM(G294*I294)</f>
+        <f t="shared" si="4"/>
         <v>1553.11</v>
       </c>
       <c r="K294" s="7">
@@ -23469,7 +23469,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="J295" s="7">
-        <f>SUM(G295*I295)</f>
+        <f t="shared" si="4"/>
         <v>455.40000000000003</v>
       </c>
       <c r="K295" s="7">
@@ -23540,7 +23540,7 @@
         <v>8.56</v>
       </c>
       <c r="J296" s="7">
-        <f>SUM(G296*I296)</f>
+        <f t="shared" si="4"/>
         <v>102.72</v>
       </c>
       <c r="K296" s="7">
@@ -23614,7 +23614,7 @@
         <v>14.75</v>
       </c>
       <c r="J297" s="7">
-        <f>SUM(G297*I297)</f>
+        <f t="shared" si="4"/>
         <v>177</v>
       </c>
       <c r="K297" s="7">
@@ -23685,7 +23685,7 @@
         <v>17.16</v>
       </c>
       <c r="J298" s="7">
-        <f>SUM(G298*I298)</f>
+        <f t="shared" si="4"/>
         <v>102.96000000000001</v>
       </c>
       <c r="K298" s="7">
@@ -23743,7 +23743,7 @@
         <v>45</v>
       </c>
       <c r="F299">
-        <f>SUM(J299* 0.85)</f>
+        <f t="shared" ref="F299:F304" si="5">SUM(J299* 0.85)</f>
         <v>284.88599999999997</v>
       </c>
       <c r="G299">
@@ -23756,7 +23756,7 @@
         <v>55.86</v>
       </c>
       <c r="J299" s="7">
-        <f>SUM(G299*I299)</f>
+        <f t="shared" si="4"/>
         <v>335.15999999999997</v>
       </c>
       <c r="K299" s="7">
@@ -23814,7 +23814,7 @@
         <v>36</v>
       </c>
       <c r="F300">
-        <f>SUM(J300* 0.85)</f>
+        <f t="shared" si="5"/>
         <v>609.68799999999999</v>
       </c>
       <c r="G300">
@@ -23827,7 +23827,7 @@
         <v>89.66</v>
       </c>
       <c r="J300" s="7">
-        <f>SUM(G300*I300)</f>
+        <f t="shared" si="4"/>
         <v>717.28</v>
       </c>
       <c r="K300" s="7">
@@ -23888,7 +23888,7 @@
         <v>13</v>
       </c>
       <c r="F301">
-        <f>SUM(J301* 0.85)</f>
+        <f t="shared" si="5"/>
         <v>905.05449999999996</v>
       </c>
       <c r="G301">
@@ -23901,7 +23901,7 @@
         <v>152.11000000000001</v>
       </c>
       <c r="J301" s="7">
-        <f>SUM(G301*I301)</f>
+        <f t="shared" si="4"/>
         <v>1064.77</v>
       </c>
       <c r="K301" s="7">
@@ -23962,7 +23962,7 @@
         <v>11</v>
       </c>
       <c r="F302">
-        <f>SUM(J302* 0.85)</f>
+        <f t="shared" si="5"/>
         <v>610.9799999999999</v>
       </c>
       <c r="G302">
@@ -23975,7 +23975,7 @@
         <v>89.85</v>
       </c>
       <c r="J302" s="7">
-        <f>SUM(G302*I302)</f>
+        <f t="shared" si="4"/>
         <v>718.8</v>
       </c>
       <c r="K302" s="7">
@@ -24033,7 +24033,7 @@
         <v>11</v>
       </c>
       <c r="F303">
-        <f>SUM(J303* 0.85)</f>
+        <f t="shared" si="5"/>
         <v>129.06399999999999</v>
       </c>
       <c r="G303">
@@ -24046,7 +24046,7 @@
         <v>11.68</v>
       </c>
       <c r="J303" s="7">
-        <f>SUM(G303*I303)</f>
+        <f t="shared" si="4"/>
         <v>151.84</v>
       </c>
       <c r="K303" s="7">
@@ -24107,7 +24107,7 @@
         <v>37</v>
       </c>
       <c r="F304">
-        <f>SUM(J304* 0.85)</f>
+        <f t="shared" si="5"/>
         <v>510.27200000000005</v>
       </c>
       <c r="G304">
@@ -24120,7 +24120,7 @@
         <v>85.76</v>
       </c>
       <c r="J304" s="7">
-        <f>SUM(G304*I304)</f>
+        <f t="shared" si="4"/>
         <v>600.32000000000005</v>
       </c>
       <c r="K304" s="7">
@@ -24191,7 +24191,7 @@
         <v>63.11</v>
       </c>
       <c r="J305" s="7">
-        <f>SUM(G305*I305)</f>
+        <f t="shared" si="4"/>
         <v>504.88</v>
       </c>
       <c r="K305" s="7">
@@ -24262,7 +24262,7 @@
         <v>194.03</v>
       </c>
       <c r="J306" s="7">
-        <f>SUM(G306*I306)</f>
+        <f t="shared" si="4"/>
         <v>1164.18</v>
       </c>
       <c r="K306" s="7">
@@ -24336,7 +24336,7 @@
         <v>135.77000000000001</v>
       </c>
       <c r="J307" s="7">
-        <f>SUM(G307*I307)</f>
+        <f t="shared" si="4"/>
         <v>1357.7</v>
       </c>
       <c r="K307" s="7">
@@ -24407,7 +24407,7 @@
         <v>55.13</v>
       </c>
       <c r="J308" s="7">
-        <f>SUM(G308*I308)</f>
+        <f t="shared" si="4"/>
         <v>551.30000000000007</v>
       </c>
       <c r="K308" s="7">
@@ -24478,7 +24478,7 @@
         <v>20.63</v>
       </c>
       <c r="J309" s="7">
-        <f>SUM(G309*I309)</f>
+        <f t="shared" si="4"/>
         <v>123.78</v>
       </c>
       <c r="K309" s="7">
@@ -24552,7 +24552,7 @@
         <v>56.63</v>
       </c>
       <c r="J310" s="7">
-        <f>SUM(G310*I310)</f>
+        <f t="shared" si="4"/>
         <v>679.56000000000006</v>
       </c>
       <c r="K310" s="7">
@@ -24623,7 +24623,7 @@
         <v>33.950000000000003</v>
       </c>
       <c r="J311" s="7">
-        <f>SUM(G311*I311)</f>
+        <f t="shared" si="4"/>
         <v>441.35</v>
       </c>
       <c r="K311" s="7">
@@ -24697,7 +24697,7 @@
         <v>20.86</v>
       </c>
       <c r="J312" s="7">
-        <f>SUM(G312*I312)</f>
+        <f t="shared" si="4"/>
         <v>250.32</v>
       </c>
       <c r="K312" s="7">
@@ -24768,7 +24768,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="J313" s="7">
-        <f>SUM(G313*I313)</f>
+        <f t="shared" si="4"/>
         <v>522.19999999999993</v>
       </c>
       <c r="K313" s="7">
@@ -24839,7 +24839,7 @@
         <v>55.96</v>
       </c>
       <c r="J314" s="7">
-        <f>SUM(G314*I314)</f>
+        <f t="shared" si="4"/>
         <v>615.56000000000006</v>
       </c>
       <c r="K314" s="7">
@@ -24910,7 +24910,7 @@
         <v>6.46</v>
       </c>
       <c r="J315" s="7">
-        <f>SUM(G315*I315)</f>
+        <f t="shared" si="4"/>
         <v>77.52</v>
       </c>
       <c r="K315" s="7">
@@ -24981,7 +24981,7 @@
         <v>29.94</v>
       </c>
       <c r="J316" s="7">
-        <f>SUM(G316*I316)</f>
+        <f t="shared" si="4"/>
         <v>269.46000000000004</v>
       </c>
       <c r="K316" s="7">
@@ -25055,7 +25055,7 @@
         <v>30.02</v>
       </c>
       <c r="J317" s="7">
-        <f>SUM(G317*I317)</f>
+        <f t="shared" si="4"/>
         <v>390.26</v>
       </c>
       <c r="K317" s="7">
@@ -25126,7 +25126,7 @@
         <v>124.07</v>
       </c>
       <c r="J318" s="7">
-        <f>SUM(G318*I318)</f>
+        <f t="shared" si="4"/>
         <v>744.42</v>
       </c>
       <c r="K318" s="7">
@@ -25200,7 +25200,7 @@
         <v>165.78</v>
       </c>
       <c r="J319" s="7">
-        <f>SUM(G319*I319)</f>
+        <f t="shared" si="4"/>
         <v>1492.02</v>
       </c>
       <c r="K319" s="7">
@@ -25271,7 +25271,7 @@
         <v>118.98</v>
       </c>
       <c r="J320" s="7">
-        <f>SUM(G320*I320)</f>
+        <f t="shared" si="4"/>
         <v>1308.78</v>
       </c>
       <c r="K320" s="7">
@@ -25342,7 +25342,7 @@
         <v>66.319999999999993</v>
       </c>
       <c r="J321" s="7">
-        <f>SUM(G321*I321)</f>
+        <f t="shared" si="4"/>
         <v>729.52</v>
       </c>
       <c r="K321" s="7">
@@ -25413,7 +25413,7 @@
         <v>3.72</v>
       </c>
       <c r="J322" s="7">
-        <f>SUM(G322*I322)</f>
+        <f t="shared" ref="J322:J385" si="6">SUM(G322*I322)</f>
         <v>29.76</v>
       </c>
       <c r="K322" s="7">
@@ -25484,7 +25484,7 @@
         <v>88.8</v>
       </c>
       <c r="J323" s="7">
-        <f>SUM(G323*I323)</f>
+        <f t="shared" si="6"/>
         <v>976.8</v>
       </c>
       <c r="K323" s="7">
@@ -25555,7 +25555,7 @@
         <v>76.66</v>
       </c>
       <c r="J324" s="7">
-        <f>SUM(G324*I324)</f>
+        <f t="shared" si="6"/>
         <v>996.57999999999993</v>
       </c>
       <c r="K324" s="7">
@@ -25626,7 +25626,7 @@
         <v>87.46</v>
       </c>
       <c r="J325" s="7">
-        <f>SUM(G325*I325)</f>
+        <f t="shared" si="6"/>
         <v>1136.98</v>
       </c>
       <c r="K325" s="7">
@@ -25700,7 +25700,7 @@
         <v>109.89</v>
       </c>
       <c r="J326" s="7">
-        <f>SUM(G326*I326)</f>
+        <f t="shared" si="6"/>
         <v>1098.9000000000001</v>
       </c>
       <c r="K326" s="7">
@@ -25771,7 +25771,7 @@
         <v>164.2</v>
       </c>
       <c r="J327" s="7">
-        <f>SUM(G327*I327)</f>
+        <f t="shared" si="6"/>
         <v>985.19999999999993</v>
       </c>
       <c r="K327" s="7">
@@ -25842,7 +25842,7 @@
         <v>69.88</v>
       </c>
       <c r="J328" s="7">
-        <f>SUM(G328*I328)</f>
+        <f t="shared" si="6"/>
         <v>838.56</v>
       </c>
       <c r="K328" s="7">
@@ -25913,7 +25913,7 @@
         <v>187.48</v>
       </c>
       <c r="J329" s="7">
-        <f>SUM(G329*I329)</f>
+        <f t="shared" si="6"/>
         <v>1499.84</v>
       </c>
       <c r="K329" s="7">
@@ -25987,7 +25987,7 @@
         <v>91.1</v>
       </c>
       <c r="J330" s="7">
-        <f>SUM(G330*I330)</f>
+        <f t="shared" si="6"/>
         <v>637.69999999999993</v>
       </c>
       <c r="K330" s="7">
@@ -26061,7 +26061,7 @@
         <v>182.13</v>
       </c>
       <c r="J331" s="7">
-        <f>SUM(G331*I331)</f>
+        <f t="shared" si="6"/>
         <v>1821.3</v>
       </c>
       <c r="K331" s="7">
@@ -26132,7 +26132,7 @@
         <v>178.49</v>
       </c>
       <c r="J332" s="7">
-        <f>SUM(G332*I332)</f>
+        <f t="shared" si="6"/>
         <v>1606.41</v>
       </c>
       <c r="K332" s="7">
@@ -26203,7 +26203,7 @@
         <v>102.87</v>
       </c>
       <c r="J333" s="7">
-        <f>SUM(G333*I333)</f>
+        <f t="shared" si="6"/>
         <v>617.22</v>
       </c>
       <c r="K333" s="7">
@@ -26274,7 +26274,7 @@
         <v>152.85</v>
       </c>
       <c r="J334" s="7">
-        <f>SUM(G334*I334)</f>
+        <f t="shared" si="6"/>
         <v>1681.35</v>
       </c>
       <c r="K334" s="7">
@@ -26345,7 +26345,7 @@
         <v>153.88999999999999</v>
       </c>
       <c r="J335" s="7">
-        <f>SUM(G335*I335)</f>
+        <f t="shared" si="6"/>
         <v>1538.8999999999999</v>
       </c>
       <c r="K335" s="7">
@@ -26416,7 +26416,7 @@
         <v>157.24</v>
       </c>
       <c r="J336" s="7">
-        <f>SUM(G336*I336)</f>
+        <f t="shared" si="6"/>
         <v>1100.68</v>
       </c>
       <c r="K336" s="7">
@@ -26487,7 +26487,7 @@
         <v>87.41</v>
       </c>
       <c r="J337" s="7">
-        <f>SUM(G337*I337)</f>
+        <f t="shared" si="6"/>
         <v>1136.33</v>
       </c>
       <c r="K337" s="7">
@@ -26561,7 +26561,7 @@
         <v>1.5</v>
       </c>
       <c r="J338" s="7">
-        <f>SUM(G338*I338)</f>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="K338" s="7">
@@ -26635,7 +26635,7 @@
         <v>89.26</v>
       </c>
       <c r="J339" s="7">
-        <f>SUM(G339*I339)</f>
+        <f t="shared" si="6"/>
         <v>1071.1200000000001</v>
       </c>
       <c r="K339" s="7">
@@ -26706,7 +26706,7 @@
         <v>197.28</v>
       </c>
       <c r="J340" s="7">
-        <f>SUM(G340*I340)</f>
+        <f t="shared" si="6"/>
         <v>2170.08</v>
       </c>
       <c r="K340" s="7">
@@ -26777,7 +26777,7 @@
         <v>89.22</v>
       </c>
       <c r="J341" s="7">
-        <f>SUM(G341*I341)</f>
+        <f t="shared" si="6"/>
         <v>981.42</v>
       </c>
       <c r="K341" s="7">
@@ -26848,7 +26848,7 @@
         <v>11.07</v>
       </c>
       <c r="J342" s="7">
-        <f>SUM(G342*I342)</f>
+        <f t="shared" si="6"/>
         <v>143.91</v>
       </c>
       <c r="K342" s="7">
@@ -26919,7 +26919,7 @@
         <v>185.88</v>
       </c>
       <c r="J343" s="7">
-        <f>SUM(G343*I343)</f>
+        <f t="shared" si="6"/>
         <v>2602.3199999999997</v>
       </c>
       <c r="K343" s="7">
@@ -26993,7 +26993,7 @@
         <v>84.39</v>
       </c>
       <c r="J344" s="7">
-        <f>SUM(G344*I344)</f>
+        <f t="shared" si="6"/>
         <v>928.29</v>
       </c>
       <c r="K344" s="7">
@@ -27067,7 +27067,7 @@
         <v>95.46</v>
       </c>
       <c r="J345" s="7">
-        <f>SUM(G345*I345)</f>
+        <f t="shared" si="6"/>
         <v>763.68</v>
       </c>
       <c r="K345" s="7">
@@ -27141,7 +27141,7 @@
         <v>35.659999999999997</v>
       </c>
       <c r="J346" s="7">
-        <f>SUM(G346*I346)</f>
+        <f t="shared" si="6"/>
         <v>285.27999999999997</v>
       </c>
       <c r="K346" s="7">
@@ -27215,7 +27215,7 @@
         <v>84.93</v>
       </c>
       <c r="J347" s="7">
-        <f>SUM(G347*I347)</f>
+        <f t="shared" si="6"/>
         <v>934.23</v>
       </c>
       <c r="K347" s="7">
@@ -27286,7 +27286,7 @@
         <v>90.13</v>
       </c>
       <c r="J348" s="7">
-        <f>SUM(G348*I348)</f>
+        <f t="shared" si="6"/>
         <v>811.17</v>
       </c>
       <c r="K348" s="7">
@@ -27357,7 +27357,7 @@
         <v>41.68</v>
       </c>
       <c r="J349" s="7">
-        <f>SUM(G349*I349)</f>
+        <f t="shared" si="6"/>
         <v>541.84</v>
       </c>
       <c r="K349" s="7">
@@ -27428,7 +27428,7 @@
         <v>144.69999999999999</v>
       </c>
       <c r="J350" s="7">
-        <f>SUM(G350*I350)</f>
+        <f t="shared" si="6"/>
         <v>1302.3</v>
       </c>
       <c r="K350" s="7">
@@ -27499,7 +27499,7 @@
         <v>10.76</v>
       </c>
       <c r="J351" s="7">
-        <f>SUM(G351*I351)</f>
+        <f t="shared" si="6"/>
         <v>96.84</v>
       </c>
       <c r="K351" s="7">
@@ -27573,7 +27573,7 @@
         <v>2.68</v>
       </c>
       <c r="J352" s="7">
-        <f>SUM(G352*I352)</f>
+        <f t="shared" si="6"/>
         <v>32.160000000000004</v>
       </c>
       <c r="K352" s="7">
@@ -27647,7 +27647,7 @@
         <v>24.8</v>
       </c>
       <c r="J353" s="7">
-        <f>SUM(G353*I353)</f>
+        <f t="shared" si="6"/>
         <v>272.8</v>
       </c>
       <c r="K353" s="7">
@@ -27718,7 +27718,7 @@
         <v>55.56</v>
       </c>
       <c r="J354" s="7">
-        <f>SUM(G354*I354)</f>
+        <f t="shared" si="6"/>
         <v>611.16000000000008</v>
       </c>
       <c r="K354" s="7">
@@ -27789,7 +27789,7 @@
         <v>180.59</v>
       </c>
       <c r="J355" s="7">
-        <f>SUM(G355*I355)</f>
+        <f t="shared" si="6"/>
         <v>2167.08</v>
       </c>
       <c r="K355" s="7">
@@ -27860,7 +27860,7 @@
         <v>99.21</v>
       </c>
       <c r="J356" s="7">
-        <f>SUM(G356*I356)</f>
+        <f t="shared" si="6"/>
         <v>595.26</v>
       </c>
       <c r="K356" s="7">
@@ -27931,7 +27931,7 @@
         <v>70.53</v>
       </c>
       <c r="J357" s="7">
-        <f>SUM(G357*I357)</f>
+        <f t="shared" si="6"/>
         <v>775.83</v>
       </c>
       <c r="K357" s="7">
@@ -28005,7 +28005,7 @@
         <v>177.57</v>
       </c>
       <c r="J358" s="7">
-        <f>SUM(G358*I358)</f>
+        <f t="shared" si="6"/>
         <v>1242.99</v>
       </c>
       <c r="K358" s="7">
@@ -28079,7 +28079,7 @@
         <v>119.43</v>
       </c>
       <c r="J359" s="7">
-        <f>SUM(G359*I359)</f>
+        <f t="shared" si="6"/>
         <v>716.58</v>
       </c>
       <c r="K359" s="7">
@@ -28150,7 +28150,7 @@
         <v>86.4</v>
       </c>
       <c r="J360" s="7">
-        <f>SUM(G360*I360)</f>
+        <f t="shared" si="6"/>
         <v>604.80000000000007</v>
       </c>
       <c r="K360" s="7">
@@ -28221,7 +28221,7 @@
         <v>23.23</v>
       </c>
       <c r="J361" s="7">
-        <f>SUM(G361*I361)</f>
+        <f t="shared" si="6"/>
         <v>139.38</v>
       </c>
       <c r="K361" s="7">
@@ -28295,7 +28295,7 @@
         <v>194.84</v>
       </c>
       <c r="J362" s="7">
-        <f>SUM(G362*I362)</f>
+        <f t="shared" si="6"/>
         <v>2338.08</v>
       </c>
       <c r="K362" s="7">
@@ -28369,7 +28369,7 @@
         <v>74.08</v>
       </c>
       <c r="J363" s="7">
-        <f>SUM(G363*I363)</f>
+        <f t="shared" si="6"/>
         <v>814.88</v>
       </c>
       <c r="K363" s="7">
@@ -28443,7 +28443,7 @@
         <v>79.260000000000005</v>
       </c>
       <c r="J364" s="7">
-        <f>SUM(G364*I364)</f>
+        <f t="shared" si="6"/>
         <v>634.08000000000004</v>
       </c>
       <c r="K364" s="7">
@@ -28517,7 +28517,7 @@
         <v>8.07</v>
       </c>
       <c r="J365" s="7">
-        <f>SUM(G365*I365)</f>
+        <f t="shared" si="6"/>
         <v>96.84</v>
       </c>
       <c r="K365" s="7">
@@ -28588,7 +28588,7 @@
         <v>115.76</v>
       </c>
       <c r="J366" s="7">
-        <f>SUM(G366*I366)</f>
+        <f t="shared" si="6"/>
         <v>926.08</v>
       </c>
       <c r="K366" s="7">
@@ -28662,7 +28662,7 @@
         <v>85.51</v>
       </c>
       <c r="J367" s="7">
-        <f>SUM(G367*I367)</f>
+        <f t="shared" si="6"/>
         <v>684.08</v>
       </c>
       <c r="K367" s="7">
@@ -28736,7 +28736,7 @@
         <v>77.5</v>
       </c>
       <c r="J368" s="7">
-        <f>SUM(G368*I368)</f>
+        <f t="shared" si="6"/>
         <v>542.5</v>
       </c>
       <c r="K368" s="7">
@@ -28807,7 +28807,7 @@
         <v>29.18</v>
       </c>
       <c r="J369" s="7">
-        <f>SUM(G369*I369)</f>
+        <f t="shared" si="6"/>
         <v>379.34</v>
       </c>
       <c r="K369" s="7">
@@ -28878,7 +28878,7 @@
         <v>32.24</v>
       </c>
       <c r="J370" s="7">
-        <f>SUM(G370*I370)</f>
+        <f t="shared" si="6"/>
         <v>257.92</v>
       </c>
       <c r="K370" s="7">
@@ -28949,7 +28949,7 @@
         <v>55.36</v>
       </c>
       <c r="J371" s="7">
-        <f>SUM(G371*I371)</f>
+        <f t="shared" si="6"/>
         <v>387.52</v>
       </c>
       <c r="K371" s="7">
@@ -29020,7 +29020,7 @@
         <v>34.33</v>
       </c>
       <c r="J372" s="7">
-        <f>SUM(G372*I372)</f>
+        <f t="shared" si="6"/>
         <v>274.64</v>
       </c>
       <c r="K372" s="7">
@@ -29094,7 +29094,7 @@
         <v>94.96</v>
       </c>
       <c r="J373" s="7">
-        <f>SUM(G373*I373)</f>
+        <f t="shared" si="6"/>
         <v>949.59999999999991</v>
       </c>
       <c r="K373" s="7">
@@ -29168,7 +29168,7 @@
         <v>63</v>
       </c>
       <c r="J374" s="7">
-        <f>SUM(G374*I374)</f>
+        <f t="shared" si="6"/>
         <v>630</v>
       </c>
       <c r="K374" s="7">
@@ -29239,7 +29239,7 @@
         <v>84.4</v>
       </c>
       <c r="J375" s="7">
-        <f>SUM(G375*I375)</f>
+        <f t="shared" si="6"/>
         <v>675.2</v>
       </c>
       <c r="K375" s="7">
@@ -29313,7 +29313,7 @@
         <v>52.38</v>
       </c>
       <c r="J376" s="7">
-        <f>SUM(G376*I376)</f>
+        <f t="shared" si="6"/>
         <v>628.56000000000006</v>
       </c>
       <c r="K376" s="7">
@@ -29384,7 +29384,7 @@
         <v>199.46</v>
       </c>
       <c r="J377" s="7">
-        <f>SUM(G377*I377)</f>
+        <f t="shared" si="6"/>
         <v>1595.68</v>
       </c>
       <c r="K377" s="7">
@@ -29458,7 +29458,7 @@
         <v>88.86</v>
       </c>
       <c r="J378" s="7">
-        <f>SUM(G378*I378)</f>
+        <f t="shared" si="6"/>
         <v>1155.18</v>
       </c>
       <c r="K378" s="7">
@@ -29532,7 +29532,7 @@
         <v>18.55</v>
       </c>
       <c r="J379" s="7">
-        <f>SUM(G379*I379)</f>
+        <f t="shared" si="6"/>
         <v>148.4</v>
       </c>
       <c r="K379" s="7">
@@ -29606,7 +29606,7 @@
         <v>10</v>
       </c>
       <c r="J380" s="7">
-        <f>SUM(G380*I380)</f>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="K380" s="7">
@@ -29680,7 +29680,7 @@
         <v>77.05</v>
       </c>
       <c r="J381" s="7">
-        <f>SUM(G381*I381)</f>
+        <f t="shared" si="6"/>
         <v>1001.65</v>
       </c>
       <c r="K381" s="7">
@@ -29754,7 +29754,7 @@
         <v>81.099999999999994</v>
       </c>
       <c r="J382" s="7">
-        <f>SUM(G382*I382)</f>
+        <f t="shared" si="6"/>
         <v>1054.3</v>
       </c>
       <c r="K382" s="7">
@@ -29828,7 +29828,7 @@
         <v>73.45</v>
       </c>
       <c r="J383" s="7">
-        <f>SUM(G383*I383)</f>
+        <f t="shared" si="6"/>
         <v>1028.3</v>
       </c>
       <c r="K383" s="7">
@@ -29899,7 +29899,7 @@
         <v>54.92</v>
       </c>
       <c r="J384" s="7">
-        <f>SUM(G384*I384)</f>
+        <f t="shared" si="6"/>
         <v>274.60000000000002</v>
       </c>
       <c r="K384" s="7">
@@ -29970,7 +29970,7 @@
         <v>94.99</v>
       </c>
       <c r="J385" s="7">
-        <f>SUM(G385*I385)</f>
+        <f t="shared" si="6"/>
         <v>1329.86</v>
       </c>
       <c r="K385" s="7">
@@ -30041,7 +30041,7 @@
         <v>1.76</v>
       </c>
       <c r="J386" s="7">
-        <f>SUM(G386*I386)</f>
+        <f t="shared" ref="J386:J449" si="7">SUM(G386*I386)</f>
         <v>10.56</v>
       </c>
       <c r="K386" s="7">
@@ -30115,7 +30115,7 @@
         <v>1.07</v>
       </c>
       <c r="J387" s="7">
-        <f>SUM(G387*I387)</f>
+        <f t="shared" si="7"/>
         <v>12.84</v>
       </c>
       <c r="K387" s="7">
@@ -30186,7 +30186,7 @@
         <v>9.16</v>
       </c>
       <c r="J388" s="7">
-        <f>SUM(G388*I388)</f>
+        <f t="shared" si="7"/>
         <v>64.12</v>
       </c>
       <c r="K388" s="7">
@@ -30257,7 +30257,7 @@
         <v>90.45</v>
       </c>
       <c r="J389" s="7">
-        <f>SUM(G389*I389)</f>
+        <f t="shared" si="7"/>
         <v>1085.4000000000001</v>
       </c>
       <c r="K389" s="7">
@@ -30331,7 +30331,7 @@
         <v>93.55</v>
       </c>
       <c r="J390" s="7">
-        <f>SUM(G390*I390)</f>
+        <f t="shared" si="7"/>
         <v>935.5</v>
       </c>
       <c r="K390" s="7">
@@ -30405,7 +30405,7 @@
         <v>28.79</v>
       </c>
       <c r="J391" s="7">
-        <f>SUM(G391*I391)</f>
+        <f t="shared" si="7"/>
         <v>287.89999999999998</v>
       </c>
       <c r="K391" s="7">
@@ -30476,7 +30476,7 @@
         <v>95.94</v>
       </c>
       <c r="J392" s="7">
-        <f>SUM(G392*I392)</f>
+        <f t="shared" si="7"/>
         <v>671.57999999999993</v>
       </c>
       <c r="K392" s="7">
@@ -30547,7 +30547,7 @@
         <v>73.12</v>
       </c>
       <c r="J393" s="7">
-        <f>SUM(G393*I393)</f>
+        <f t="shared" si="7"/>
         <v>511.84000000000003</v>
       </c>
       <c r="K393" s="7">
@@ -30621,7 +30621,7 @@
         <v>33.76</v>
       </c>
       <c r="J394" s="7">
-        <f>SUM(G394*I394)</f>
+        <f t="shared" si="7"/>
         <v>303.83999999999997</v>
       </c>
       <c r="K394" s="7">
@@ -30692,7 +30692,7 @@
         <v>32.76</v>
       </c>
       <c r="J395" s="7">
-        <f>SUM(G395*I395)</f>
+        <f t="shared" si="7"/>
         <v>327.59999999999997</v>
       </c>
       <c r="K395" s="7">
@@ -30763,7 +30763,7 @@
         <v>28.29</v>
       </c>
       <c r="J396" s="7">
-        <f>SUM(G396*I396)</f>
+        <f t="shared" si="7"/>
         <v>339.48</v>
       </c>
       <c r="K396" s="7">
@@ -30837,7 +30837,7 @@
         <v>71.239999999999995</v>
       </c>
       <c r="J397" s="7">
-        <f>SUM(G397*I397)</f>
+        <f t="shared" si="7"/>
         <v>854.87999999999988</v>
       </c>
       <c r="K397" s="7">
@@ -30908,7 +30908,7 @@
         <v>8.41</v>
       </c>
       <c r="J398" s="7">
-        <f>SUM(G398*I398)</f>
+        <f t="shared" si="7"/>
         <v>84.1</v>
       </c>
       <c r="K398" s="7">
@@ -30979,7 +30979,7 @@
         <v>11.83</v>
       </c>
       <c r="J399" s="7">
-        <f>SUM(G399*I399)</f>
+        <f t="shared" si="7"/>
         <v>70.98</v>
       </c>
       <c r="K399" s="7">
@@ -31050,7 +31050,7 @@
         <v>73.11</v>
       </c>
       <c r="J400" s="7">
-        <f>SUM(G400*I400)</f>
+        <f t="shared" si="7"/>
         <v>731.1</v>
       </c>
       <c r="K400" s="7">
@@ -31121,7 +31121,7 @@
         <v>39.5</v>
       </c>
       <c r="J401" s="7">
-        <f>SUM(G401*I401)</f>
+        <f t="shared" si="7"/>
         <v>355.5</v>
       </c>
       <c r="K401" s="7">
@@ -31195,7 +31195,7 @@
         <v>11.91</v>
       </c>
       <c r="J402" s="7">
-        <f>SUM(G402*I402)</f>
+        <f t="shared" si="7"/>
         <v>107.19</v>
       </c>
       <c r="K402" s="7">
@@ -31266,7 +31266,7 @@
         <v>69.48</v>
       </c>
       <c r="J403" s="7">
-        <f>SUM(G403*I403)</f>
+        <f t="shared" si="7"/>
         <v>625.32000000000005</v>
       </c>
       <c r="K403" s="7">
@@ -31337,7 +31337,7 @@
         <v>42.14</v>
       </c>
       <c r="J404" s="7">
-        <f>SUM(G404*I404)</f>
+        <f t="shared" si="7"/>
         <v>252.84</v>
       </c>
       <c r="K404" s="7">
@@ -31408,7 +31408,7 @@
         <v>90.56</v>
       </c>
       <c r="J405" s="7">
-        <f>SUM(G405*I405)</f>
+        <f t="shared" si="7"/>
         <v>1177.28</v>
       </c>
       <c r="K405" s="7">
@@ -31482,7 +31482,7 @@
         <v>72.45</v>
       </c>
       <c r="J406" s="7">
-        <f>SUM(G406*I406)</f>
+        <f t="shared" si="7"/>
         <v>434.70000000000005</v>
       </c>
       <c r="K406" s="7">
@@ -31556,7 +31556,7 @@
         <v>74.38</v>
       </c>
       <c r="J407" s="7">
-        <f>SUM(G407*I407)</f>
+        <f t="shared" si="7"/>
         <v>446.28</v>
       </c>
       <c r="K407" s="7">
@@ -31627,7 +31627,7 @@
         <v>85.7</v>
       </c>
       <c r="J408" s="7">
-        <f>SUM(G408*I408)</f>
+        <f t="shared" si="7"/>
         <v>771.30000000000007</v>
       </c>
       <c r="K408" s="7">
@@ -31701,7 +31701,7 @@
         <v>65.16</v>
       </c>
       <c r="J409" s="7">
-        <f>SUM(G409*I409)</f>
+        <f t="shared" si="7"/>
         <v>456.12</v>
       </c>
       <c r="K409" s="7">
@@ -31772,7 +31772,7 @@
         <v>75.55</v>
       </c>
       <c r="J410" s="7">
-        <f>SUM(G410*I410)</f>
+        <f t="shared" si="7"/>
         <v>906.59999999999991</v>
       </c>
       <c r="K410" s="7">
@@ -31843,7 +31843,7 @@
         <v>78.319999999999993</v>
       </c>
       <c r="J411" s="7">
-        <f>SUM(G411*I411)</f>
+        <f t="shared" si="7"/>
         <v>548.24</v>
       </c>
       <c r="K411" s="7">
@@ -31914,7 +31914,7 @@
         <v>55.44</v>
       </c>
       <c r="J412" s="7">
-        <f>SUM(G412*I412)</f>
+        <f t="shared" si="7"/>
         <v>665.28</v>
       </c>
       <c r="K412" s="7">
@@ -31988,7 +31988,7 @@
         <v>41.58</v>
       </c>
       <c r="J413" s="7">
-        <f>SUM(G413*I413)</f>
+        <f t="shared" si="7"/>
         <v>332.64</v>
       </c>
       <c r="K413" s="7">
@@ -32059,7 +32059,7 @@
         <v>7.48</v>
       </c>
       <c r="J414" s="7">
-        <f>SUM(G414*I414)</f>
+        <f t="shared" si="7"/>
         <v>37.400000000000006</v>
       </c>
       <c r="K414" s="7">
@@ -32130,7 +32130,7 @@
         <v>52.82</v>
       </c>
       <c r="J415" s="7">
-        <f>SUM(G415*I415)</f>
+        <f t="shared" si="7"/>
         <v>316.92</v>
       </c>
       <c r="K415" s="7">
@@ -32201,7 +32201,7 @@
         <v>4.59</v>
       </c>
       <c r="J416" s="7">
-        <f>SUM(G416*I416)</f>
+        <f t="shared" si="7"/>
         <v>32.129999999999995</v>
       </c>
       <c r="K416" s="7">
@@ -32272,7 +32272,7 @@
         <v>1.99</v>
       </c>
       <c r="J417" s="7">
-        <f>SUM(G417*I417)</f>
+        <f t="shared" si="7"/>
         <v>19.899999999999999</v>
       </c>
       <c r="K417" s="7">
@@ -32343,7 +32343,7 @@
         <v>60.29</v>
       </c>
       <c r="J418" s="7">
-        <f>SUM(G418*I418)</f>
+        <f t="shared" si="7"/>
         <v>602.9</v>
       </c>
       <c r="K418" s="7">
@@ -32414,7 +32414,7 @@
         <v>91.52</v>
       </c>
       <c r="J419" s="7">
-        <f>SUM(G419*I419)</f>
+        <f t="shared" si="7"/>
         <v>549.12</v>
       </c>
       <c r="K419" s="7">
@@ -32485,7 +32485,7 @@
         <v>72.08</v>
       </c>
       <c r="J420" s="7">
-        <f>SUM(G420*I420)</f>
+        <f t="shared" si="7"/>
         <v>720.8</v>
       </c>
       <c r="K420" s="7">
@@ -32556,7 +32556,7 @@
         <v>16.059999999999999</v>
       </c>
       <c r="J421" s="7">
-        <f>SUM(G421*I421)</f>
+        <f t="shared" si="7"/>
         <v>176.66</v>
       </c>
       <c r="K421" s="7">
@@ -32630,7 +32630,7 @@
         <v>62.82</v>
       </c>
       <c r="J422" s="7">
-        <f>SUM(G422*I422)</f>
+        <f t="shared" si="7"/>
         <v>753.84</v>
       </c>
       <c r="K422" s="7">
@@ -32701,7 +32701,7 @@
         <v>10.56</v>
       </c>
       <c r="J423" s="7">
-        <f>SUM(G423*I423)</f>
+        <f t="shared" si="7"/>
         <v>95.04</v>
       </c>
       <c r="K423" s="7">
@@ -32772,7 +32772,7 @@
         <v>34.450000000000003</v>
       </c>
       <c r="J424" s="7">
-        <f>SUM(G424*I424)</f>
+        <f t="shared" si="7"/>
         <v>447.85</v>
       </c>
       <c r="K424" s="7">
@@ -32846,7 +32846,7 @@
         <v>41.32</v>
       </c>
       <c r="J425" s="7">
-        <f>SUM(G425*I425)</f>
+        <f t="shared" si="7"/>
         <v>371.88</v>
       </c>
       <c r="K425" s="7">
@@ -32917,7 +32917,7 @@
         <v>24.55</v>
       </c>
       <c r="J426" s="7">
-        <f>SUM(G426*I426)</f>
+        <f t="shared" si="7"/>
         <v>245.5</v>
       </c>
       <c r="K426" s="7">
@@ -32991,7 +32991,7 @@
         <v>13.07</v>
       </c>
       <c r="J427" s="7">
-        <f>SUM(G427*I427)</f>
+        <f t="shared" si="7"/>
         <v>65.349999999999994</v>
       </c>
       <c r="K427" s="7">
@@ -33065,7 +33065,7 @@
         <v>13.23</v>
       </c>
       <c r="J428" s="7">
-        <f>SUM(G428*I428)</f>
+        <f t="shared" si="7"/>
         <v>132.30000000000001</v>
       </c>
       <c r="K428" s="7">
@@ -33136,7 +33136,7 @@
         <v>79.12</v>
       </c>
       <c r="J429" s="7">
-        <f>SUM(G429*I429)</f>
+        <f t="shared" si="7"/>
         <v>791.2</v>
       </c>
       <c r="K429" s="7">
@@ -33210,7 +33210,7 @@
         <v>82.83</v>
       </c>
       <c r="J430" s="7">
-        <f>SUM(G430*I430)</f>
+        <f t="shared" si="7"/>
         <v>1076.79</v>
       </c>
       <c r="K430" s="7">
@@ -33284,7 +33284,7 @@
         <v>48.16</v>
       </c>
       <c r="J431" s="7">
-        <f>SUM(G431*I431)</f>
+        <f t="shared" si="7"/>
         <v>529.76</v>
       </c>
       <c r="K431" s="7">
@@ -33355,7 +33355,7 @@
         <v>74.25</v>
       </c>
       <c r="J432" s="7">
-        <f>SUM(G432*I432)</f>
+        <f t="shared" si="7"/>
         <v>816.75</v>
       </c>
       <c r="K432" s="7">
@@ -33426,7 +33426,7 @@
         <v>73.09</v>
       </c>
       <c r="J433" s="7">
-        <f>SUM(G433*I433)</f>
+        <f t="shared" si="7"/>
         <v>803.99</v>
       </c>
       <c r="K433" s="7">
@@ -33497,7 +33497,7 @@
         <v>65.17</v>
       </c>
       <c r="J434" s="7">
-        <f>SUM(G434*I434)</f>
+        <f t="shared" si="7"/>
         <v>391.02</v>
       </c>
       <c r="K434" s="7">
@@ -33571,7 +33571,7 @@
         <v>64.709999999999994</v>
       </c>
       <c r="J435" s="7">
-        <f>SUM(G435*I435)</f>
+        <f t="shared" si="7"/>
         <v>841.2299999999999</v>
       </c>
       <c r="K435" s="7">
@@ -33642,7 +33642,7 @@
         <v>12.97</v>
       </c>
       <c r="J436" s="7">
-        <f>SUM(G436*I436)</f>
+        <f t="shared" si="7"/>
         <v>90.79</v>
       </c>
       <c r="K436" s="7">
@@ -33716,7 +33716,7 @@
         <v>29.77</v>
       </c>
       <c r="J437" s="7">
-        <f>SUM(G437*I437)</f>
+        <f t="shared" si="7"/>
         <v>416.78</v>
       </c>
       <c r="K437" s="7">
@@ -33787,7 +33787,7 @@
         <v>87.43</v>
       </c>
       <c r="J438" s="7">
-        <f>SUM(G438*I438)</f>
+        <f t="shared" si="7"/>
         <v>961.73</v>
       </c>
       <c r="K438" s="7">
@@ -33861,7 +33861,7 @@
         <v>97.28</v>
       </c>
       <c r="J439" s="7">
-        <f>SUM(G439*I439)</f>
+        <f t="shared" si="7"/>
         <v>1361.92</v>
       </c>
       <c r="K439" s="7">
@@ -33935,7 +33935,7 @@
         <v>18.87</v>
       </c>
       <c r="J440" s="7">
-        <f>SUM(G440*I440)</f>
+        <f t="shared" si="7"/>
         <v>226.44</v>
       </c>
       <c r="K440" s="7">
@@ -34006,7 +34006,7 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J441" s="7">
-        <f>SUM(G441*I441)</f>
+        <f t="shared" si="7"/>
         <v>161.5</v>
       </c>
       <c r="K441" s="7">
@@ -34080,7 +34080,7 @@
         <v>29.95</v>
       </c>
       <c r="J442" s="7">
-        <f>SUM(G442*I442)</f>
+        <f t="shared" si="7"/>
         <v>209.65</v>
       </c>
       <c r="K442" s="7">
@@ -34154,7 +34154,7 @@
         <v>21.38</v>
       </c>
       <c r="J443" s="7">
-        <f>SUM(G443*I443)</f>
+        <f t="shared" si="7"/>
         <v>128.28</v>
       </c>
       <c r="K443" s="7">
@@ -34225,7 +34225,7 @@
         <v>87.81</v>
       </c>
       <c r="J444" s="7">
-        <f>SUM(G444*I444)</f>
+        <f t="shared" si="7"/>
         <v>439.05</v>
       </c>
       <c r="K444" s="7">
@@ -34296,7 +34296,7 @@
         <v>81.709999999999994</v>
       </c>
       <c r="J445" s="7">
-        <f>SUM(G445*I445)</f>
+        <f t="shared" si="7"/>
         <v>1143.9399999999998</v>
       </c>
       <c r="K445" s="7">
@@ -34370,7 +34370,7 @@
         <v>81.48</v>
       </c>
       <c r="J446" s="7">
-        <f>SUM(G446*I446)</f>
+        <f t="shared" si="7"/>
         <v>407.40000000000003</v>
       </c>
       <c r="K446" s="7">
@@ -34441,7 +34441,7 @@
         <v>50.22</v>
       </c>
       <c r="J447" s="7">
-        <f>SUM(G447*I447)</f>
+        <f t="shared" si="7"/>
         <v>451.98</v>
       </c>
       <c r="K447" s="7">
@@ -34512,7 +34512,7 @@
         <v>90.24</v>
       </c>
       <c r="J448" s="7">
-        <f>SUM(G448*I448)</f>
+        <f t="shared" si="7"/>
         <v>992.64</v>
       </c>
       <c r="K448" s="7">
@@ -34586,7 +34586,7 @@
         <v>5.33</v>
       </c>
       <c r="J449" s="7">
-        <f>SUM(G449*I449)</f>
+        <f t="shared" si="7"/>
         <v>58.63</v>
       </c>
       <c r="K449" s="7">
@@ -34660,7 +34660,7 @@
         <v>59.64</v>
       </c>
       <c r="J450" s="7">
-        <f>SUM(G450*I450)</f>
+        <f t="shared" ref="J450:J513" si="8">SUM(G450*I450)</f>
         <v>596.4</v>
       </c>
       <c r="K450" s="7">
@@ -34731,7 +34731,7 @@
         <v>87.31</v>
       </c>
       <c r="J451" s="7">
-        <f>SUM(G451*I451)</f>
+        <f t="shared" si="8"/>
         <v>1047.72</v>
       </c>
       <c r="K451" s="7">
@@ -34802,7 +34802,7 @@
         <v>34.11</v>
       </c>
       <c r="J452" s="7">
-        <f>SUM(G452*I452)</f>
+        <f t="shared" si="8"/>
         <v>204.66</v>
       </c>
       <c r="K452" s="7">
@@ -34873,7 +34873,7 @@
         <v>76.209999999999994</v>
       </c>
       <c r="J453" s="7">
-        <f>SUM(G453*I453)</f>
+        <f t="shared" si="8"/>
         <v>685.89</v>
       </c>
       <c r="K453" s="7">
@@ -34944,7 +34944,7 @@
         <v>57.27</v>
       </c>
       <c r="J454" s="7">
-        <f>SUM(G454*I454)</f>
+        <f t="shared" si="8"/>
         <v>343.62</v>
       </c>
       <c r="K454" s="7">
@@ -35015,7 +35015,7 @@
         <v>63.64</v>
       </c>
       <c r="J455" s="7">
-        <f>SUM(G455*I455)</f>
+        <f t="shared" si="8"/>
         <v>445.48</v>
       </c>
       <c r="K455" s="7">
@@ -35086,7 +35086,7 @@
         <v>95.01</v>
       </c>
       <c r="J456" s="7">
-        <f>SUM(G456*I456)</f>
+        <f t="shared" si="8"/>
         <v>665.07</v>
       </c>
       <c r="K456" s="7">
@@ -35157,7 +35157,7 @@
         <v>36.35</v>
       </c>
       <c r="J457" s="7">
-        <f>SUM(G457*I457)</f>
+        <f t="shared" si="8"/>
         <v>508.90000000000003</v>
       </c>
       <c r="K457" s="7">
@@ -35228,7 +35228,7 @@
         <v>25.92</v>
       </c>
       <c r="J458" s="7">
-        <f>SUM(G458*I458)</f>
+        <f t="shared" si="8"/>
         <v>207.36</v>
       </c>
       <c r="K458" s="7">
@@ -35299,7 +35299,7 @@
         <v>19.02</v>
       </c>
       <c r="J459" s="7">
-        <f>SUM(G459*I459)</f>
+        <f t="shared" si="8"/>
         <v>247.26</v>
       </c>
       <c r="K459" s="7">
@@ -35373,7 +35373,7 @@
         <v>52.23</v>
       </c>
       <c r="J460" s="7">
-        <f>SUM(G460*I460)</f>
+        <f t="shared" si="8"/>
         <v>365.60999999999996</v>
       </c>
       <c r="K460" s="7">
@@ -35444,7 +35444,7 @@
         <v>50.3</v>
       </c>
       <c r="J461" s="7">
-        <f>SUM(G461*I461)</f>
+        <f t="shared" si="8"/>
         <v>452.7</v>
       </c>
       <c r="K461" s="7">
@@ -35515,7 +35515,7 @@
         <v>60.39</v>
       </c>
       <c r="J462" s="7">
-        <f>SUM(G462*I462)</f>
+        <f t="shared" si="8"/>
         <v>483.12</v>
       </c>
       <c r="K462" s="7">
@@ -35589,7 +35589,7 @@
         <v>33.03</v>
       </c>
       <c r="J463" s="7">
-        <f>SUM(G463*I463)</f>
+        <f t="shared" si="8"/>
         <v>396.36</v>
       </c>
       <c r="K463" s="7">
@@ -35660,7 +35660,7 @@
         <v>60.47</v>
       </c>
       <c r="J464" s="7">
-        <f>SUM(G464*I464)</f>
+        <f t="shared" si="8"/>
         <v>302.35000000000002</v>
       </c>
       <c r="K464" s="7">
@@ -35721,7 +35721,7 @@
         <v>11</v>
       </c>
       <c r="F465">
-        <f>SUM(J465* 0.9)</f>
+        <f t="shared" ref="F465:F470" si="9">SUM(J465* 0.9)</f>
         <v>252.93600000000004</v>
       </c>
       <c r="G465">
@@ -35734,7 +35734,7 @@
         <v>35.130000000000003</v>
       </c>
       <c r="J465" s="7">
-        <f>SUM(G465*I465)</f>
+        <f t="shared" si="8"/>
         <v>281.04000000000002</v>
       </c>
       <c r="K465" s="7">
@@ -35795,7 +35795,7 @@
         <v>45</v>
       </c>
       <c r="F466">
-        <f>SUM(J466* 0.9)</f>
+        <f t="shared" si="9"/>
         <v>615.33000000000004</v>
       </c>
       <c r="G466">
@@ -35808,7 +35808,7 @@
         <v>68.37</v>
       </c>
       <c r="J466" s="7">
-        <f>SUM(G466*I466)</f>
+        <f t="shared" si="8"/>
         <v>683.7</v>
       </c>
       <c r="K466" s="7">
@@ -35869,7 +35869,7 @@
         <v>15</v>
       </c>
       <c r="F467">
-        <f>SUM(J467* 0.9)</f>
+        <f t="shared" si="9"/>
         <v>536.976</v>
       </c>
       <c r="G467">
@@ -35882,7 +35882,7 @@
         <v>74.58</v>
       </c>
       <c r="J467" s="7">
-        <f>SUM(G467*I467)</f>
+        <f t="shared" si="8"/>
         <v>596.64</v>
       </c>
       <c r="K467" s="7">
@@ -35943,7 +35943,7 @@
         <v>13</v>
       </c>
       <c r="F468">
-        <f>SUM(J468* 0.9)</f>
+        <f t="shared" si="9"/>
         <v>743.65200000000004</v>
       </c>
       <c r="G468">
@@ -35956,7 +35956,7 @@
         <v>59.02</v>
       </c>
       <c r="J468" s="7">
-        <f>SUM(G468*I468)</f>
+        <f t="shared" si="8"/>
         <v>826.28000000000009</v>
       </c>
       <c r="K468" s="7">
@@ -36017,7 +36017,7 @@
         <v>11</v>
       </c>
       <c r="F469">
-        <f>SUM(J469* 0.9)</f>
+        <f t="shared" si="9"/>
         <v>976.86000000000013</v>
       </c>
       <c r="G469">
@@ -36030,7 +36030,7 @@
         <v>90.45</v>
       </c>
       <c r="J469" s="7">
-        <f>SUM(G469*I469)</f>
+        <f t="shared" si="8"/>
         <v>1085.4000000000001</v>
       </c>
       <c r="K469" s="7">
@@ -36091,7 +36091,7 @@
         <v>13</v>
       </c>
       <c r="F470">
-        <f>SUM(J470* 0.9)</f>
+        <f t="shared" si="9"/>
         <v>1141.92</v>
       </c>
       <c r="G470">
@@ -36104,7 +36104,7 @@
         <v>97.6</v>
       </c>
       <c r="J470" s="7">
-        <f>SUM(G470*I470)</f>
+        <f t="shared" si="8"/>
         <v>1268.8</v>
       </c>
       <c r="K470" s="7">
@@ -36178,7 +36178,7 @@
         <v>58.92</v>
       </c>
       <c r="J471" s="7">
-        <f>SUM(G471*I471)</f>
+        <f t="shared" si="8"/>
         <v>530.28</v>
       </c>
       <c r="K471" s="7">
@@ -36249,7 +36249,7 @@
         <v>44.53</v>
       </c>
       <c r="J472" s="7">
-        <f>SUM(G472*I472)</f>
+        <f t="shared" si="8"/>
         <v>356.24</v>
       </c>
       <c r="K472" s="7">
@@ -36320,7 +36320,7 @@
         <v>49.12</v>
       </c>
       <c r="J473" s="7">
-        <f>SUM(G473*I473)</f>
+        <f t="shared" si="8"/>
         <v>392.96</v>
       </c>
       <c r="K473" s="7">
@@ -36394,7 +36394,7 @@
         <v>19.86</v>
       </c>
       <c r="J474" s="7">
-        <f>SUM(G474*I474)</f>
+        <f t="shared" si="8"/>
         <v>258.18</v>
       </c>
       <c r="K474" s="7">
@@ -36468,7 +36468,7 @@
         <v>45.08</v>
       </c>
       <c r="J475" s="7">
-        <f>SUM(G475*I475)</f>
+        <f t="shared" si="8"/>
         <v>450.79999999999995</v>
       </c>
       <c r="K475" s="7">
@@ -36539,7 +36539,7 @@
         <v>40.94</v>
       </c>
       <c r="J476" s="7">
-        <f>SUM(G476*I476)</f>
+        <f t="shared" si="8"/>
         <v>245.64</v>
       </c>
       <c r="K476" s="7">
@@ -36610,7 +36610,7 @@
         <v>43.22</v>
       </c>
       <c r="J477" s="7">
-        <f>SUM(G477*I477)</f>
+        <f t="shared" si="8"/>
         <v>432.2</v>
       </c>
       <c r="K477" s="7">
@@ -36681,7 +36681,7 @@
         <v>90.01</v>
       </c>
       <c r="J478" s="7">
-        <f>SUM(G478*I478)</f>
+        <f t="shared" si="8"/>
         <v>810.09</v>
       </c>
       <c r="K478" s="7">
@@ -36752,7 +36752,7 @@
         <v>84.96</v>
       </c>
       <c r="J479" s="7">
-        <f>SUM(G479*I479)</f>
+        <f t="shared" si="8"/>
         <v>679.68</v>
       </c>
       <c r="K479" s="7">
@@ -36826,7 +36826,7 @@
         <v>22.74</v>
       </c>
       <c r="J480" s="7">
-        <f>SUM(G480*I480)</f>
+        <f t="shared" si="8"/>
         <v>250.14</v>
       </c>
       <c r="K480" s="7">
@@ -36900,7 +36900,7 @@
         <v>51.39</v>
       </c>
       <c r="J481" s="7">
-        <f>SUM(G481*I481)</f>
+        <f t="shared" si="8"/>
         <v>359.73</v>
       </c>
       <c r="K481" s="7">
@@ -36974,7 +36974,7 @@
         <v>75.849999999999994</v>
       </c>
       <c r="J482" s="7">
-        <f>SUM(G482*I482)</f>
+        <f t="shared" si="8"/>
         <v>986.05</v>
       </c>
       <c r="K482" s="7">
@@ -37045,7 +37045,7 @@
         <v>21.8</v>
       </c>
       <c r="J483" s="7">
-        <f>SUM(G483*I483)</f>
+        <f t="shared" si="8"/>
         <v>196.20000000000002</v>
       </c>
       <c r="K483" s="7">
@@ -37119,7 +37119,7 @@
         <v>7.29</v>
       </c>
       <c r="J484" s="7">
-        <f>SUM(G484*I484)</f>
+        <f t="shared" si="8"/>
         <v>58.32</v>
       </c>
       <c r="K484" s="7">
@@ -37190,7 +37190,7 @@
         <v>8.86</v>
       </c>
       <c r="J485" s="7">
-        <f>SUM(G485*I485)</f>
+        <f t="shared" si="8"/>
         <v>115.17999999999999</v>
       </c>
       <c r="K485" s="7">
@@ -37264,7 +37264,7 @@
         <v>23.88</v>
       </c>
       <c r="J486" s="7">
-        <f>SUM(G486*I486)</f>
+        <f t="shared" si="8"/>
         <v>310.44</v>
       </c>
       <c r="K486" s="7">
@@ -37338,7 +37338,7 @@
         <v>12.64</v>
       </c>
       <c r="J487" s="7">
-        <f>SUM(G487*I487)</f>
+        <f t="shared" si="8"/>
         <v>88.48</v>
       </c>
       <c r="K487" s="7">
@@ -37409,7 +37409,7 @@
         <v>64.34</v>
       </c>
       <c r="J488" s="7">
-        <f>SUM(G488*I488)</f>
+        <f t="shared" si="8"/>
         <v>579.06000000000006</v>
       </c>
       <c r="K488" s="7">
@@ -37483,7 +37483,7 @@
         <v>98.09</v>
       </c>
       <c r="J489" s="7">
-        <f>SUM(G489*I489)</f>
+        <f t="shared" si="8"/>
         <v>882.81000000000006</v>
       </c>
       <c r="K489" s="7">
@@ -37554,7 +37554,7 @@
         <v>64.86</v>
       </c>
       <c r="J490" s="7">
-        <f>SUM(G490*I490)</f>
+        <f t="shared" si="8"/>
         <v>778.31999999999994</v>
       </c>
       <c r="K490" s="7">
@@ -37628,7 +37628,7 @@
         <v>25.02</v>
       </c>
       <c r="J491" s="7">
-        <f>SUM(G491*I491)</f>
+        <f t="shared" si="8"/>
         <v>275.21999999999997</v>
       </c>
       <c r="K491" s="7">
@@ -37699,7 +37699,7 @@
         <v>42.31</v>
       </c>
       <c r="J492" s="7">
-        <f>SUM(G492*I492)</f>
+        <f t="shared" si="8"/>
         <v>465.41</v>
       </c>
       <c r="K492" s="7">
@@ -37773,7 +37773,7 @@
         <v>34.92</v>
       </c>
       <c r="J493" s="7">
-        <f>SUM(G493*I493)</f>
+        <f t="shared" si="8"/>
         <v>279.36</v>
       </c>
       <c r="K493" s="7">
@@ -37844,7 +37844,7 @@
         <v>48.08</v>
       </c>
       <c r="J494" s="7">
-        <f>SUM(G494*I494)</f>
+        <f t="shared" si="8"/>
         <v>240.39999999999998</v>
       </c>
       <c r="K494" s="7">
@@ -37915,7 +37915,7 @@
         <v>71.790000000000006</v>
       </c>
       <c r="J495" s="7">
-        <f>SUM(G495*I495)</f>
+        <f t="shared" si="8"/>
         <v>1005.0600000000001</v>
       </c>
       <c r="K495" s="7">
@@ -37986,7 +37986,7 @@
         <v>31.66</v>
       </c>
       <c r="J496" s="7">
-        <f>SUM(G496*I496)</f>
+        <f t="shared" si="8"/>
         <v>284.94</v>
       </c>
       <c r="K496" s="7">
@@ -38060,7 +38060,7 @@
         <v>46.69</v>
       </c>
       <c r="J497" s="7">
-        <f>SUM(G497*I497)</f>
+        <f t="shared" si="8"/>
         <v>560.28</v>
       </c>
       <c r="K497" s="7">
@@ -38134,7 +38134,7 @@
         <v>23.06</v>
       </c>
       <c r="J498" s="7">
-        <f>SUM(G498*I498)</f>
+        <f t="shared" si="8"/>
         <v>230.6</v>
       </c>
       <c r="K498" s="7">
@@ -38205,7 +38205,7 @@
         <v>98.9</v>
       </c>
       <c r="J499" s="7">
-        <f>SUM(G499*I499)</f>
+        <f t="shared" si="8"/>
         <v>593.40000000000009</v>
       </c>
       <c r="K499" s="7">
@@ -38279,7 +38279,7 @@
         <v>27.94</v>
       </c>
       <c r="J500" s="7">
-        <f>SUM(G500*I500)</f>
+        <f t="shared" si="8"/>
         <v>391.16</v>
       </c>
       <c r="K500" s="7">
@@ -38350,7 +38350,7 @@
         <v>34.33</v>
       </c>
       <c r="J501" s="7">
-        <f>SUM(G501*I501)</f>
+        <f t="shared" si="8"/>
         <v>446.28999999999996</v>
       </c>
       <c r="K501" s="7">
@@ -38424,7 +38424,7 @@
         <v>54.93</v>
       </c>
       <c r="J502" s="7">
-        <f>SUM(G502*I502)</f>
+        <f t="shared" si="8"/>
         <v>659.16</v>
       </c>
       <c r="K502" s="7">
@@ -38495,7 +38495,7 @@
         <v>74.91</v>
       </c>
       <c r="J503" s="7">
-        <f>SUM(G503*I503)</f>
+        <f t="shared" si="8"/>
         <v>674.18999999999994</v>
       </c>
       <c r="K503" s="7">
@@ -38566,7 +38566,7 @@
         <v>63.53</v>
       </c>
       <c r="J504" s="7">
-        <f>SUM(G504*I504)</f>
+        <f t="shared" si="8"/>
         <v>571.77</v>
       </c>
       <c r="K504" s="7">
@@ -38637,7 +38637,7 @@
         <v>57.98</v>
       </c>
       <c r="J505" s="7">
-        <f>SUM(G505*I505)</f>
+        <f t="shared" si="8"/>
         <v>579.79999999999995</v>
       </c>
       <c r="K505" s="7">
@@ -38711,7 +38711,7 @@
         <v>27.52</v>
       </c>
       <c r="J506" s="7">
-        <f>SUM(G506*I506)</f>
+        <f t="shared" si="8"/>
         <v>357.76</v>
       </c>
       <c r="K506" s="7">
@@ -38782,7 +38782,7 @@
         <v>58.77</v>
       </c>
       <c r="J507" s="7">
-        <f>SUM(G507*I507)</f>
+        <f t="shared" si="8"/>
         <v>705.24</v>
       </c>
       <c r="K507" s="7">
@@ -38856,7 +38856,7 @@
         <v>53.89</v>
       </c>
       <c r="J508" s="7">
-        <f>SUM(G508*I508)</f>
+        <f t="shared" si="8"/>
         <v>538.9</v>
       </c>
       <c r="K508" s="7">
@@ -38927,7 +38927,7 @@
         <v>88.92</v>
       </c>
       <c r="J509" s="7">
-        <f>SUM(G509*I509)</f>
+        <f t="shared" si="8"/>
         <v>533.52</v>
       </c>
       <c r="K509" s="7">
@@ -39001,7 +39001,7 @@
         <v>18.829999999999998</v>
       </c>
       <c r="J510" s="7">
-        <f>SUM(G510*I510)</f>
+        <f t="shared" si="8"/>
         <v>225.95999999999998</v>
       </c>
       <c r="K510" s="7">
@@ -39072,7 +39072,7 @@
         <v>76.98</v>
       </c>
       <c r="J511" s="7">
-        <f>SUM(G511*I511)</f>
+        <f t="shared" si="8"/>
         <v>1000.74</v>
       </c>
       <c r="K511" s="7">
@@ -39143,7 +39143,7 @@
         <v>10.6</v>
       </c>
       <c r="J512" s="7">
-        <f>SUM(G512*I512)</f>
+        <f t="shared" si="8"/>
         <v>116.6</v>
       </c>
       <c r="K512" s="7">
@@ -39217,7 +39217,7 @@
         <v>96.88</v>
       </c>
       <c r="J513" s="7">
-        <f>SUM(G513*I513)</f>
+        <f t="shared" si="8"/>
         <v>871.92</v>
       </c>
       <c r="K513" s="7">
@@ -39288,7 +39288,7 @@
         <v>12.48</v>
       </c>
       <c r="J514" s="7">
-        <f>SUM(G514*I514)</f>
+        <f t="shared" ref="J514:J577" si="10">SUM(G514*I514)</f>
         <v>99.84</v>
       </c>
       <c r="K514" s="7">
@@ -39359,7 +39359,7 @@
         <v>47.93</v>
       </c>
       <c r="J515" s="7">
-        <f>SUM(G515*I515)</f>
+        <f t="shared" si="10"/>
         <v>575.16</v>
       </c>
       <c r="K515" s="7">
@@ -39430,7 +39430,7 @@
         <v>23.2</v>
       </c>
       <c r="J516" s="7">
-        <f>SUM(G516*I516)</f>
+        <f t="shared" si="10"/>
         <v>324.8</v>
       </c>
       <c r="K516" s="7">
@@ -39504,7 +39504,7 @@
         <v>55.9</v>
       </c>
       <c r="J517" s="7">
-        <f>SUM(G517*I517)</f>
+        <f t="shared" si="10"/>
         <v>279.5</v>
       </c>
       <c r="K517" s="7">
@@ -39578,7 +39578,7 @@
         <v>89.83</v>
       </c>
       <c r="J518" s="7">
-        <f>SUM(G518*I518)</f>
+        <f t="shared" si="10"/>
         <v>538.98</v>
       </c>
       <c r="K518" s="7">
@@ -39649,7 +39649,7 @@
         <v>60.42</v>
       </c>
       <c r="J519" s="7">
-        <f>SUM(G519*I519)</f>
+        <f t="shared" si="10"/>
         <v>422.94</v>
       </c>
       <c r="K519" s="7">
@@ -39720,7 +39720,7 @@
         <v>13.44</v>
       </c>
       <c r="J520" s="7">
-        <f>SUM(G520*I520)</f>
+        <f t="shared" si="10"/>
         <v>80.64</v>
       </c>
       <c r="K520" s="7">
@@ -39791,7 +39791,7 @@
         <v>24.92</v>
       </c>
       <c r="J521" s="7">
-        <f>SUM(G521*I521)</f>
+        <f t="shared" si="10"/>
         <v>249.20000000000002</v>
       </c>
       <c r="K521" s="7">
@@ -39865,7 +39865,7 @@
         <v>51.07</v>
       </c>
       <c r="J522" s="7">
-        <f>SUM(G522*I522)</f>
+        <f t="shared" si="10"/>
         <v>408.56</v>
       </c>
       <c r="K522" s="7">
@@ -39939,7 +39939,7 @@
         <v>53.61</v>
       </c>
       <c r="J523" s="7">
-        <f>SUM(G523*I523)</f>
+        <f t="shared" si="10"/>
         <v>589.71</v>
       </c>
       <c r="K523" s="7">
@@ -40013,7 +40013,7 @@
         <v>46.54</v>
       </c>
       <c r="J524" s="7">
-        <f>SUM(G524*I524)</f>
+        <f t="shared" si="10"/>
         <v>605.02</v>
       </c>
       <c r="K524" s="7">
@@ -40084,7 +40084,7 @@
         <v>70.84</v>
       </c>
       <c r="J525" s="7">
-        <f>SUM(G525*I525)</f>
+        <f t="shared" si="10"/>
         <v>708.40000000000009</v>
       </c>
       <c r="K525" s="7">
@@ -40155,7 +40155,7 @@
         <v>70.3</v>
       </c>
       <c r="J526" s="7">
-        <f>SUM(G526*I526)</f>
+        <f t="shared" si="10"/>
         <v>492.09999999999997</v>
       </c>
       <c r="K526" s="7">
@@ -40226,7 +40226,7 @@
         <v>88.81</v>
       </c>
       <c r="J527" s="7">
-        <f>SUM(G527*I527)</f>
+        <f t="shared" si="10"/>
         <v>888.1</v>
       </c>
       <c r="K527" s="7">
@@ -40297,7 +40297,7 @@
         <v>47.45</v>
       </c>
       <c r="J528" s="7">
-        <f>SUM(G528*I528)</f>
+        <f t="shared" si="10"/>
         <v>427.05</v>
       </c>
       <c r="K528" s="7">
@@ -40371,7 +40371,7 @@
         <v>37.96</v>
       </c>
       <c r="J529" s="7">
-        <f>SUM(G529*I529)</f>
+        <f t="shared" si="10"/>
         <v>227.76</v>
       </c>
       <c r="K529" s="7">
@@ -40442,7 +40442,7 @@
         <v>20.49</v>
       </c>
       <c r="J530" s="7">
-        <f>SUM(G530*I530)</f>
+        <f t="shared" si="10"/>
         <v>184.41</v>
       </c>
       <c r="K530" s="7">
@@ -40513,7 +40513,7 @@
         <v>88.02</v>
       </c>
       <c r="J531" s="7">
-        <f>SUM(G531*I531)</f>
+        <f t="shared" si="10"/>
         <v>528.12</v>
       </c>
       <c r="K531" s="7">
@@ -40587,7 +40587,7 @@
         <v>51.04</v>
       </c>
       <c r="J532" s="7">
-        <f>SUM(G532*I532)</f>
+        <f t="shared" si="10"/>
         <v>561.43999999999994</v>
       </c>
       <c r="K532" s="7">
@@ -40658,7 +40658,7 @@
         <v>45.49</v>
       </c>
       <c r="J533" s="7">
-        <f>SUM(G533*I533)</f>
+        <f t="shared" si="10"/>
         <v>363.92</v>
       </c>
       <c r="K533" s="7">
@@ -40729,7 +40729,7 @@
         <v>89.6</v>
       </c>
       <c r="J534" s="7">
-        <f>SUM(G534*I534)</f>
+        <f t="shared" si="10"/>
         <v>896</v>
       </c>
       <c r="K534" s="7">
@@ -40803,7 +40803,7 @@
         <v>30.16</v>
       </c>
       <c r="J535" s="7">
-        <f>SUM(G535*I535)</f>
+        <f t="shared" si="10"/>
         <v>271.44</v>
       </c>
       <c r="K535" s="7">
@@ -40874,7 +40874,7 @@
         <v>87.64</v>
       </c>
       <c r="J536" s="7">
-        <f>SUM(G536*I536)</f>
+        <f t="shared" si="10"/>
         <v>788.76</v>
       </c>
       <c r="K536" s="7">
@@ -40945,7 +40945,7 @@
         <v>43.87</v>
       </c>
       <c r="J537" s="7">
-        <f>SUM(G537*I537)</f>
+        <f t="shared" si="10"/>
         <v>482.57</v>
       </c>
       <c r="K537" s="7">
@@ -41016,7 +41016,7 @@
         <v>38.090000000000003</v>
       </c>
       <c r="J538" s="7">
-        <f>SUM(G538*I538)</f>
+        <f t="shared" si="10"/>
         <v>418.99</v>
       </c>
       <c r="K538" s="7">
@@ -41087,7 +41087,7 @@
         <v>81.150000000000006</v>
       </c>
       <c r="J539" s="7">
-        <f>SUM(G539*I539)</f>
+        <f t="shared" si="10"/>
         <v>1136.1000000000001</v>
       </c>
       <c r="K539" s="7">
@@ -41158,7 +41158,7 @@
         <v>75.12</v>
       </c>
       <c r="J540" s="7">
-        <f>SUM(G540*I540)</f>
+        <f t="shared" si="10"/>
         <v>375.6</v>
       </c>
       <c r="K540" s="7">
@@ -41229,7 +41229,7 @@
         <v>42.49</v>
       </c>
       <c r="J541" s="7">
-        <f>SUM(G541*I541)</f>
+        <f t="shared" si="10"/>
         <v>297.43</v>
       </c>
       <c r="K541" s="7">
@@ -41303,7 +41303,7 @@
         <v>44.5</v>
       </c>
       <c r="J542" s="7">
-        <f>SUM(G542*I542)</f>
+        <f t="shared" si="10"/>
         <v>534</v>
       </c>
       <c r="K542" s="7">
@@ -41377,7 +41377,7 @@
         <v>59.13</v>
       </c>
       <c r="J543" s="7">
-        <f>SUM(G543*I543)</f>
+        <f t="shared" si="10"/>
         <v>532.17000000000007</v>
       </c>
       <c r="K543" s="7">
@@ -41451,7 +41451,7 @@
         <v>0.77</v>
       </c>
       <c r="J544" s="7">
-        <f>SUM(G544*I544)</f>
+        <f t="shared" si="10"/>
         <v>5.3900000000000006</v>
       </c>
       <c r="K544" s="7">
@@ -41522,7 +41522,7 @@
         <v>21.02</v>
       </c>
       <c r="J545" s="7">
-        <f>SUM(G545*I545)</f>
+        <f t="shared" si="10"/>
         <v>210.2</v>
       </c>
       <c r="K545" s="7">
@@ -41596,7 +41596,7 @@
         <v>15.59</v>
       </c>
       <c r="J546" s="7">
-        <f>SUM(G546*I546)</f>
+        <f t="shared" si="10"/>
         <v>77.95</v>
       </c>
       <c r="K546" s="7">
@@ -41667,7 +41667,7 @@
         <v>53.69</v>
       </c>
       <c r="J547" s="7">
-        <f>SUM(G547*I547)</f>
+        <f t="shared" si="10"/>
         <v>644.28</v>
       </c>
       <c r="K547" s="7">
@@ -41738,7 +41738,7 @@
         <v>70.59</v>
       </c>
       <c r="J548" s="7">
-        <f>SUM(G548*I548)</f>
+        <f t="shared" si="10"/>
         <v>776.49</v>
       </c>
       <c r="K548" s="7">
@@ -41809,7 +41809,7 @@
         <v>67.790000000000006</v>
       </c>
       <c r="J549" s="7">
-        <f>SUM(G549*I549)</f>
+        <f t="shared" si="10"/>
         <v>338.95000000000005</v>
       </c>
       <c r="K549" s="7">
@@ -41880,7 +41880,7 @@
         <v>27.31</v>
       </c>
       <c r="J550" s="7">
-        <f>SUM(G550*I550)</f>
+        <f t="shared" si="10"/>
         <v>163.85999999999999</v>
       </c>
       <c r="K550" s="7">
@@ -41951,7 +41951,7 @@
         <v>82.11</v>
       </c>
       <c r="J551" s="7">
-        <f>SUM(G551*I551)</f>
+        <f t="shared" si="10"/>
         <v>656.88</v>
       </c>
       <c r="K551" s="7">
@@ -42022,7 +42022,7 @@
         <v>42.41</v>
       </c>
       <c r="J552" s="7">
-        <f>SUM(G552*I552)</f>
+        <f t="shared" si="10"/>
         <v>254.45999999999998</v>
       </c>
       <c r="K552" s="7">
@@ -42093,7 +42093,7 @@
         <v>21.79</v>
       </c>
       <c r="J553" s="7">
-        <f>SUM(G553*I553)</f>
+        <f t="shared" si="10"/>
         <v>196.10999999999999</v>
       </c>
       <c r="K553" s="7">
@@ -42164,7 +42164,7 @@
         <v>5.58</v>
       </c>
       <c r="J554" s="7">
-        <f>SUM(G554*I554)</f>
+        <f t="shared" si="10"/>
         <v>55.8</v>
       </c>
       <c r="K554" s="7">
@@ -42235,7 +42235,7 @@
         <v>94.85</v>
       </c>
       <c r="J555" s="7">
-        <f>SUM(G555*I555)</f>
+        <f t="shared" si="10"/>
         <v>758.8</v>
       </c>
       <c r="K555" s="7">
@@ -42306,7 +42306,7 @@
         <v>66.709999999999994</v>
       </c>
       <c r="J556" s="7">
-        <f>SUM(G556*I556)</f>
+        <f t="shared" si="10"/>
         <v>800.52</v>
       </c>
       <c r="K556" s="7">
@@ -42377,7 +42377,7 @@
         <v>96.52</v>
       </c>
       <c r="J557" s="7">
-        <f>SUM(G557*I557)</f>
+        <f t="shared" si="10"/>
         <v>1061.72</v>
       </c>
       <c r="K557" s="7">
@@ -42448,7 +42448,7 @@
         <v>31.4</v>
       </c>
       <c r="J558" s="7">
-        <f>SUM(G558*I558)</f>
+        <f t="shared" si="10"/>
         <v>188.39999999999998</v>
       </c>
       <c r="K558" s="7">
@@ -42522,7 +42522,7 @@
         <v>40.57</v>
       </c>
       <c r="J559" s="7">
-        <f>SUM(G559*I559)</f>
+        <f t="shared" si="10"/>
         <v>283.99</v>
       </c>
       <c r="K559" s="7">
@@ -42593,7 +42593,7 @@
         <v>91.55</v>
       </c>
       <c r="J560" s="7">
-        <f>SUM(G560*I560)</f>
+        <f t="shared" si="10"/>
         <v>1281.7</v>
       </c>
       <c r="K560" s="7">
@@ -42664,7 +42664,7 @@
         <v>26.19</v>
       </c>
       <c r="J561" s="7">
-        <f>SUM(G561*I561)</f>
+        <f t="shared" si="10"/>
         <v>340.47</v>
       </c>
       <c r="K561" s="7">
@@ -42735,7 +42735,7 @@
         <v>68.47</v>
       </c>
       <c r="J562" s="7">
-        <f>SUM(G562*I562)</f>
+        <f t="shared" si="10"/>
         <v>547.76</v>
       </c>
       <c r="K562" s="7">
@@ -42806,7 +42806,7 @@
         <v>87.27</v>
       </c>
       <c r="J563" s="7">
-        <f>SUM(G563*I563)</f>
+        <f t="shared" si="10"/>
         <v>698.16</v>
       </c>
       <c r="K563" s="7">
@@ -42877,7 +42877,7 @@
         <v>51.31</v>
       </c>
       <c r="J564" s="7">
-        <f>SUM(G564*I564)</f>
+        <f t="shared" si="10"/>
         <v>513.1</v>
       </c>
       <c r="K564" s="7">
@@ -42948,7 +42948,7 @@
         <v>56.89</v>
       </c>
       <c r="J565" s="7">
-        <f>SUM(G565*I565)</f>
+        <f t="shared" si="10"/>
         <v>682.68000000000006</v>
       </c>
       <c r="K565" s="7">
@@ -43019,7 +43019,7 @@
         <v>8.1</v>
       </c>
       <c r="J566" s="7">
-        <f>SUM(G566*I566)</f>
+        <f t="shared" si="10"/>
         <v>97.199999999999989</v>
       </c>
       <c r="K566" s="7">
@@ -43090,7 +43090,7 @@
         <v>67.83</v>
       </c>
       <c r="J567" s="7">
-        <f>SUM(G567*I567)</f>
+        <f t="shared" si="10"/>
         <v>881.79</v>
       </c>
       <c r="K567" s="7">
@@ -43161,7 +43161,7 @@
         <v>25.46</v>
       </c>
       <c r="J568" s="7">
-        <f>SUM(G568*I568)</f>
+        <f t="shared" si="10"/>
         <v>305.52</v>
       </c>
       <c r="K568" s="7">
@@ -43232,7 +43232,7 @@
         <v>99.21</v>
       </c>
       <c r="J569" s="7">
-        <f>SUM(G569*I569)</f>
+        <f t="shared" si="10"/>
         <v>694.46999999999991</v>
       </c>
       <c r="K569" s="7">
@@ -43303,7 +43303,7 @@
         <v>62.92</v>
       </c>
       <c r="J570" s="7">
-        <f>SUM(G570*I570)</f>
+        <f t="shared" si="10"/>
         <v>755.04</v>
       </c>
       <c r="K570" s="7">
@@ -43374,7 +43374,7 @@
         <v>49.08</v>
       </c>
       <c r="J571" s="7">
-        <f>SUM(G571*I571)</f>
+        <f t="shared" si="10"/>
         <v>687.12</v>
       </c>
       <c r="K571" s="7">
@@ -43445,7 +43445,7 @@
         <v>75.25</v>
       </c>
       <c r="J572" s="7">
-        <f>SUM(G572*I572)</f>
+        <f t="shared" si="10"/>
         <v>526.75</v>
       </c>
       <c r="K572" s="7">
@@ -43516,7 +43516,7 @@
         <v>84.9</v>
       </c>
       <c r="J573" s="7">
-        <f>SUM(G573*I573)</f>
+        <f t="shared" si="10"/>
         <v>764.1</v>
       </c>
       <c r="K573" s="7">
@@ -43587,7 +43587,7 @@
         <v>57.18</v>
       </c>
       <c r="J574" s="7">
-        <f>SUM(G574*I574)</f>
+        <f t="shared" si="10"/>
         <v>400.26</v>
       </c>
       <c r="K574" s="7">
@@ -43661,7 +43661,7 @@
         <v>85.81</v>
       </c>
       <c r="J575" s="7">
-        <f>SUM(G575*I575)</f>
+        <f t="shared" si="10"/>
         <v>686.48</v>
       </c>
       <c r="K575" s="7">
@@ -43732,7 +43732,7 @@
         <v>95.12</v>
       </c>
       <c r="J576" s="7">
-        <f>SUM(G576*I576)</f>
+        <f t="shared" si="10"/>
         <v>570.72</v>
       </c>
       <c r="K576" s="7">
@@ -43806,7 +43806,7 @@
         <v>85.85</v>
       </c>
       <c r="J577" s="7">
-        <f>SUM(G577*I577)</f>
+        <f t="shared" si="10"/>
         <v>944.34999999999991</v>
       </c>
       <c r="K577" s="7">
@@ -43877,7 +43877,7 @@
         <v>56.52</v>
       </c>
       <c r="J578" s="7">
-        <f>SUM(G578*I578)</f>
+        <f t="shared" ref="J578:J641" si="11">SUM(G578*I578)</f>
         <v>621.72</v>
       </c>
       <c r="K578" s="7">
@@ -43948,7 +43948,7 @@
         <v>99.11</v>
       </c>
       <c r="J579" s="7">
-        <f>SUM(G579*I579)</f>
+        <f t="shared" si="11"/>
         <v>1288.43</v>
       </c>
       <c r="K579" s="7">
@@ -44019,7 +44019,7 @@
         <v>62.35</v>
       </c>
       <c r="J580" s="7">
-        <f>SUM(G580*I580)</f>
+        <f t="shared" si="11"/>
         <v>436.45</v>
       </c>
       <c r="K580" s="7">
@@ -44090,7 +44090,7 @@
         <v>82.03</v>
       </c>
       <c r="J581" s="7">
-        <f>SUM(G581*I581)</f>
+        <f t="shared" si="11"/>
         <v>574.21</v>
       </c>
       <c r="K581" s="7">
@@ -44164,7 +44164,7 @@
         <v>65.2</v>
       </c>
       <c r="J582" s="7">
-        <f>SUM(G582*I582)</f>
+        <f t="shared" si="11"/>
         <v>586.80000000000007</v>
       </c>
       <c r="K582" s="7">
@@ -44238,7 +44238,7 @@
         <v>65.69</v>
       </c>
       <c r="J583" s="7">
-        <f>SUM(G583*I583)</f>
+        <f t="shared" si="11"/>
         <v>591.21</v>
       </c>
       <c r="K583" s="7">
@@ -44309,7 +44309,7 @@
         <v>35.56</v>
       </c>
       <c r="J584" s="7">
-        <f>SUM(G584*I584)</f>
+        <f t="shared" si="11"/>
         <v>213.36</v>
       </c>
       <c r="K584" s="7">
@@ -44380,7 +44380,7 @@
         <v>61.85</v>
       </c>
       <c r="J585" s="7">
-        <f>SUM(G585*I585)</f>
+        <f t="shared" si="11"/>
         <v>494.8</v>
       </c>
       <c r="K585" s="7">
@@ -44451,7 +44451,7 @@
         <v>55.86</v>
       </c>
       <c r="J586" s="7">
-        <f>SUM(G586*I586)</f>
+        <f t="shared" si="11"/>
         <v>670.31999999999994</v>
       </c>
       <c r="K586" s="7">
@@ -44522,7 +44522,7 @@
         <v>98.08</v>
       </c>
       <c r="J587" s="7">
-        <f>SUM(G587*I587)</f>
+        <f t="shared" si="11"/>
         <v>980.8</v>
       </c>
       <c r="K587" s="7">
@@ -44596,7 +44596,7 @@
         <v>69.62</v>
       </c>
       <c r="J588" s="7">
-        <f>SUM(G588*I588)</f>
+        <f t="shared" si="11"/>
         <v>626.58000000000004</v>
       </c>
       <c r="K588" s="7">
@@ -44670,7 +44670,7 @@
         <v>94.44</v>
       </c>
       <c r="J589" s="7">
-        <f>SUM(G589*I589)</f>
+        <f t="shared" si="11"/>
         <v>944.4</v>
       </c>
       <c r="K589" s="7">
@@ -44741,7 +44741,7 @@
         <v>73.180000000000007</v>
       </c>
       <c r="J590" s="7">
-        <f>SUM(G590*I590)</f>
+        <f t="shared" si="11"/>
         <v>439.08000000000004</v>
       </c>
       <c r="K590" s="7">
@@ -44815,7 +44815,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="J591" s="7">
-        <f>SUM(G591*I591)</f>
+        <f t="shared" si="11"/>
         <v>83.52</v>
       </c>
       <c r="K591" s="7">
@@ -44889,7 +44889,7 @@
         <v>64.7</v>
       </c>
       <c r="J592" s="7">
-        <f>SUM(G592*I592)</f>
+        <f t="shared" si="11"/>
         <v>711.7</v>
       </c>
       <c r="K592" s="7">
@@ -44963,7 +44963,7 @@
         <v>27.69</v>
       </c>
       <c r="J593" s="7">
-        <f>SUM(G593*I593)</f>
+        <f t="shared" si="11"/>
         <v>276.90000000000003</v>
       </c>
       <c r="K593" s="7">
@@ -45034,7 +45034,7 @@
         <v>77.08</v>
       </c>
       <c r="J594" s="7">
-        <f>SUM(G594*I594)</f>
+        <f t="shared" si="11"/>
         <v>1002.04</v>
       </c>
       <c r="K594" s="7">
@@ -45108,7 +45108,7 @@
         <v>16.37</v>
       </c>
       <c r="J595" s="7">
-        <f>SUM(G595*I595)</f>
+        <f t="shared" si="11"/>
         <v>81.850000000000009</v>
       </c>
       <c r="K595" s="7">
@@ -45179,7 +45179,7 @@
         <v>21.97</v>
       </c>
       <c r="J596" s="7">
-        <f>SUM(G596*I596)</f>
+        <f t="shared" si="11"/>
         <v>153.79</v>
       </c>
       <c r="K596" s="7">
@@ -45253,7 +45253,7 @@
         <v>26.24</v>
       </c>
       <c r="J597" s="7">
-        <f>SUM(G597*I597)</f>
+        <f t="shared" si="11"/>
         <v>157.44</v>
       </c>
       <c r="K597" s="7">
@@ -45324,7 +45324,7 @@
         <v>58.97</v>
       </c>
       <c r="J598" s="7">
-        <f>SUM(G598*I598)</f>
+        <f t="shared" si="11"/>
         <v>353.82</v>
       </c>
       <c r="K598" s="7">
@@ -45395,7 +45395,7 @@
         <v>85.03</v>
       </c>
       <c r="J599" s="7">
-        <f>SUM(G599*I599)</f>
+        <f t="shared" si="11"/>
         <v>680.24</v>
       </c>
       <c r="K599" s="7">
@@ -45469,7 +45469,7 @@
         <v>32</v>
       </c>
       <c r="J600" s="7">
-        <f>SUM(G600*I600)</f>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
       <c r="K600" s="7">
@@ -45543,7 +45543,7 @@
         <v>68.540000000000006</v>
       </c>
       <c r="J601" s="7">
-        <f>SUM(G601*I601)</f>
+        <f t="shared" si="11"/>
         <v>479.78000000000003</v>
       </c>
       <c r="K601" s="7">
@@ -45617,7 +45617,7 @@
         <v>60.05</v>
       </c>
       <c r="J602" s="7">
-        <f>SUM(G602*I602)</f>
+        <f t="shared" si="11"/>
         <v>540.44999999999993</v>
       </c>
       <c r="K602" s="7">
@@ -45688,7 +45688,7 @@
         <v>45.96</v>
       </c>
       <c r="J603" s="7">
-        <f>SUM(G603*I603)</f>
+        <f t="shared" si="11"/>
         <v>459.6</v>
       </c>
       <c r="K603" s="7">
@@ -45762,7 +45762,7 @@
         <v>67.7</v>
       </c>
       <c r="J604" s="7">
-        <f>SUM(G604*I604)</f>
+        <f t="shared" si="11"/>
         <v>880.1</v>
       </c>
       <c r="K604" s="7">
@@ -45836,7 +45836,7 @@
         <v>89.21</v>
       </c>
       <c r="J605" s="7">
-        <f>SUM(G605*I605)</f>
+        <f t="shared" si="11"/>
         <v>624.46999999999991</v>
       </c>
       <c r="K605" s="7">
@@ -45910,7 +45910,7 @@
         <v>23.28</v>
       </c>
       <c r="J606" s="7">
-        <f>SUM(G606*I606)</f>
+        <f t="shared" si="11"/>
         <v>256.08000000000004</v>
       </c>
       <c r="K606" s="7">
@@ -45981,7 +45981,7 @@
         <v>44.26</v>
       </c>
       <c r="J607" s="7">
-        <f>SUM(G607*I607)</f>
+        <f t="shared" si="11"/>
         <v>486.85999999999996</v>
       </c>
       <c r="K607" s="7">
@@ -46055,7 +46055,7 @@
         <v>46.68</v>
       </c>
       <c r="J608" s="7">
-        <f>SUM(G608*I608)</f>
+        <f t="shared" si="11"/>
         <v>560.16</v>
       </c>
       <c r="K608" s="7">
@@ -46126,7 +46126,7 @@
         <v>28.68</v>
       </c>
       <c r="J609" s="7">
-        <f>SUM(G609*I609)</f>
+        <f t="shared" si="11"/>
         <v>258.12</v>
       </c>
       <c r="K609" s="7">
@@ -46197,7 +46197,7 @@
         <v>27.33</v>
       </c>
       <c r="J610" s="7">
-        <f>SUM(G610*I610)</f>
+        <f t="shared" si="11"/>
         <v>273.29999999999995</v>
       </c>
       <c r="K610" s="7">
@@ -46271,7 +46271,7 @@
         <v>73.510000000000005</v>
       </c>
       <c r="J611" s="7">
-        <f>SUM(G611*I611)</f>
+        <f t="shared" si="11"/>
         <v>514.57000000000005</v>
       </c>
       <c r="K611" s="7">
@@ -46342,7 +46342,7 @@
         <v>7.03</v>
       </c>
       <c r="J612" s="7">
-        <f>SUM(G612*I612)</f>
+        <f t="shared" si="11"/>
         <v>84.36</v>
       </c>
       <c r="K612" s="7">
@@ -46413,7 +46413,7 @@
         <v>50.74</v>
       </c>
       <c r="J613" s="7">
-        <f>SUM(G613*I613)</f>
+        <f t="shared" si="11"/>
         <v>608.88</v>
       </c>
       <c r="K613" s="7">
@@ -46487,7 +46487,7 @@
         <v>77.09</v>
       </c>
       <c r="J614" s="7">
-        <f>SUM(G614*I614)</f>
+        <f t="shared" si="11"/>
         <v>616.72</v>
       </c>
       <c r="K614" s="7">
@@ -46558,7 +46558,7 @@
         <v>75.959999999999994</v>
       </c>
       <c r="J615" s="7">
-        <f>SUM(G615*I615)</f>
+        <f t="shared" si="11"/>
         <v>531.71999999999991</v>
       </c>
       <c r="K615" s="7">
@@ -46629,7 +46629,7 @@
         <v>84.82</v>
       </c>
       <c r="J616" s="7">
-        <f>SUM(G616*I616)</f>
+        <f t="shared" si="11"/>
         <v>1187.48</v>
       </c>
       <c r="K616" s="7">
@@ -46700,7 +46700,7 @@
         <v>34.6</v>
       </c>
       <c r="J617" s="7">
-        <f>SUM(G617*I617)</f>
+        <f t="shared" si="11"/>
         <v>484.40000000000003</v>
       </c>
       <c r="K617" s="7">
@@ -46774,7 +46774,7 @@
         <v>47.78</v>
       </c>
       <c r="J618" s="7">
-        <f>SUM(G618*I618)</f>
+        <f t="shared" si="11"/>
         <v>238.9</v>
       </c>
       <c r="K618" s="7">
@@ -46845,7 +46845,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="J619" s="7">
-        <f>SUM(G619*I619)</f>
+        <f t="shared" si="11"/>
         <v>94.600000000000009</v>
       </c>
       <c r="K619" s="7">
@@ -46916,7 +46916,7 @@
         <v>38.42</v>
       </c>
       <c r="J620" s="7">
-        <f>SUM(G620*I620)</f>
+        <f t="shared" si="11"/>
         <v>230.52</v>
       </c>
       <c r="K620" s="7">
@@ -46990,7 +46990,7 @@
         <v>79.98</v>
       </c>
       <c r="J621" s="7">
-        <f>SUM(G621*I621)</f>
+        <f t="shared" si="11"/>
         <v>879.78000000000009</v>
       </c>
       <c r="K621" s="7">
@@ -47061,7 +47061,7 @@
         <v>93.8</v>
       </c>
       <c r="J622" s="7">
-        <f>SUM(G622*I622)</f>
+        <f t="shared" si="11"/>
         <v>469</v>
       </c>
       <c r="K622" s="7">
@@ -47132,7 +47132,7 @@
         <v>25.25</v>
       </c>
       <c r="J623" s="7">
-        <f>SUM(G623*I623)</f>
+        <f t="shared" si="11"/>
         <v>328.25</v>
       </c>
       <c r="K623" s="7">
@@ -47203,7 +47203,7 @@
         <v>84.6</v>
       </c>
       <c r="J624" s="7">
-        <f>SUM(G624*I624)</f>
+        <f t="shared" si="11"/>
         <v>1015.1999999999999</v>
       </c>
       <c r="K624" s="7">
@@ -47274,7 +47274,7 @@
         <v>38.590000000000003</v>
       </c>
       <c r="J625" s="7">
-        <f>SUM(G625*I625)</f>
+        <f t="shared" si="11"/>
         <v>270.13</v>
       </c>
       <c r="K625" s="7">
@@ -47348,7 +47348,7 @@
         <v>6.95</v>
       </c>
       <c r="J626" s="7">
-        <f>SUM(G626*I626)</f>
+        <f t="shared" si="11"/>
         <v>62.550000000000004</v>
       </c>
       <c r="K626" s="7">
@@ -47419,7 +47419,7 @@
         <v>39.380000000000003</v>
       </c>
       <c r="J627" s="7">
-        <f>SUM(G627*I627)</f>
+        <f t="shared" si="11"/>
         <v>433.18</v>
       </c>
       <c r="K627" s="7">
@@ -47490,7 +47490,7 @@
         <v>9.57</v>
       </c>
       <c r="J628" s="7">
-        <f>SUM(G628*I628)</f>
+        <f t="shared" si="11"/>
         <v>66.990000000000009</v>
       </c>
       <c r="K628" s="7">
@@ -47561,7 +47561,7 @@
         <v>51.85</v>
       </c>
       <c r="J629" s="7">
-        <f>SUM(G629*I629)</f>
+        <f t="shared" si="11"/>
         <v>570.35</v>
       </c>
       <c r="K629" s="7">
@@ -47632,7 +47632,7 @@
         <v>95.95</v>
       </c>
       <c r="J630" s="7">
-        <f>SUM(G630*I630)</f>
+        <f t="shared" si="11"/>
         <v>1055.45</v>
       </c>
       <c r="K630" s="7">
@@ -47703,7 +47703,7 @@
         <v>36.78</v>
       </c>
       <c r="J631" s="7">
-        <f>SUM(G631*I631)</f>
+        <f t="shared" si="11"/>
         <v>404.58000000000004</v>
       </c>
       <c r="K631" s="7">
@@ -47774,7 +47774,7 @@
         <v>25.87</v>
       </c>
       <c r="J632" s="7">
-        <f>SUM(G632*I632)</f>
+        <f t="shared" si="11"/>
         <v>155.22</v>
       </c>
       <c r="K632" s="7">
@@ -47845,7 +47845,7 @@
         <v>21.26</v>
       </c>
       <c r="J633" s="7">
-        <f>SUM(G633*I633)</f>
+        <f t="shared" si="11"/>
         <v>127.56</v>
       </c>
       <c r="K633" s="7">
@@ -47919,7 +47919,7 @@
         <v>3.68</v>
       </c>
       <c r="J634" s="7">
-        <f>SUM(G634*I634)</f>
+        <f t="shared" si="11"/>
         <v>33.120000000000005</v>
       </c>
       <c r="K634" s="7">
@@ -47993,7 +47993,7 @@
         <v>74.34</v>
       </c>
       <c r="J635" s="7">
-        <f>SUM(G635*I635)</f>
+        <f t="shared" si="11"/>
         <v>966.42000000000007</v>
       </c>
       <c r="K635" s="7">
@@ -48064,7 +48064,7 @@
         <v>74.489999999999995</v>
       </c>
       <c r="J636" s="7">
-        <f>SUM(G636*I636)</f>
+        <f t="shared" si="11"/>
         <v>446.93999999999994</v>
       </c>
       <c r="K636" s="7">
@@ -48135,7 +48135,7 @@
         <v>18.93</v>
       </c>
       <c r="J637" s="7">
-        <f>SUM(G637*I637)</f>
+        <f t="shared" si="11"/>
         <v>227.16</v>
       </c>
       <c r="K637" s="7">
@@ -48206,7 +48206,7 @@
         <v>21.25</v>
       </c>
       <c r="J638" s="7">
-        <f>SUM(G638*I638)</f>
+        <f t="shared" si="11"/>
         <v>212.5</v>
       </c>
       <c r="K638" s="7">
@@ -48277,7 +48277,7 @@
         <v>41.05</v>
       </c>
       <c r="J639" s="7">
-        <f>SUM(G639*I639)</f>
+        <f t="shared" si="11"/>
         <v>410.5</v>
       </c>
       <c r="K639" s="7">
@@ -48351,7 +48351,7 @@
         <v>50.24</v>
       </c>
       <c r="J640" s="7">
-        <f>SUM(G640*I640)</f>
+        <f t="shared" si="11"/>
         <v>552.64</v>
       </c>
       <c r="K640" s="7">
@@ -48422,7 +48422,7 @@
         <v>81.260000000000005</v>
       </c>
       <c r="J641" s="7">
-        <f>SUM(G641*I641)</f>
+        <f t="shared" si="11"/>
         <v>650.08000000000004</v>
       </c>
       <c r="K641" s="7">
@@ -48493,7 +48493,7 @@
         <v>88.7</v>
       </c>
       <c r="J642" s="7">
-        <f>SUM(G642*I642)</f>
+        <f t="shared" ref="J642:J705" si="12">SUM(G642*I642)</f>
         <v>532.20000000000005</v>
       </c>
       <c r="K642" s="7">
@@ -48564,7 +48564,7 @@
         <v>11.49</v>
       </c>
       <c r="J643" s="7">
-        <f>SUM(G643*I643)</f>
+        <f t="shared" si="12"/>
         <v>103.41</v>
       </c>
       <c r="K643" s="7">
@@ -48635,7 +48635,7 @@
         <v>59.69</v>
       </c>
       <c r="J644" s="7">
-        <f>SUM(G644*I644)</f>
+        <f t="shared" si="12"/>
         <v>298.45</v>
       </c>
       <c r="K644" s="7">
@@ -48706,7 +48706,7 @@
         <v>8.17</v>
       </c>
       <c r="J645" s="7">
-        <f>SUM(G645*I645)</f>
+        <f t="shared" si="12"/>
         <v>40.85</v>
       </c>
       <c r="K645" s="7">
@@ -48780,7 +48780,7 @@
         <v>18.14</v>
       </c>
       <c r="J646" s="7">
-        <f>SUM(G646*I646)</f>
+        <f t="shared" si="12"/>
         <v>217.68</v>
       </c>
       <c r="K646" s="7">
@@ -48854,7 +48854,7 @@
         <v>31.98</v>
       </c>
       <c r="J647" s="7">
-        <f>SUM(G647*I647)</f>
+        <f t="shared" si="12"/>
         <v>223.86</v>
       </c>
       <c r="K647" s="7">
@@ -48925,7 +48925,7 @@
         <v>16.52</v>
       </c>
       <c r="J648" s="7">
-        <f>SUM(G648*I648)</f>
+        <f t="shared" si="12"/>
         <v>99.12</v>
       </c>
       <c r="K648" s="7">
@@ -48999,7 +48999,7 @@
         <v>13.11</v>
       </c>
       <c r="J649" s="7">
-        <f>SUM(G649*I649)</f>
+        <f t="shared" si="12"/>
         <v>131.1</v>
       </c>
       <c r="K649" s="7">
@@ -49070,7 +49070,7 @@
         <v>64.13</v>
       </c>
       <c r="J650" s="7">
-        <f>SUM(G650*I650)</f>
+        <f t="shared" si="12"/>
         <v>384.78</v>
       </c>
       <c r="K650" s="7">
@@ -49141,7 +49141,7 @@
         <v>19.25</v>
       </c>
       <c r="J651" s="7">
-        <f>SUM(G651*I651)</f>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
       <c r="K651" s="7">
@@ -49215,7 +49215,7 @@
         <v>26.39</v>
       </c>
       <c r="J652" s="7">
-        <f>SUM(G652*I652)</f>
+        <f t="shared" si="12"/>
         <v>158.34</v>
       </c>
       <c r="K652" s="7">
@@ -49286,7 +49286,7 @@
         <v>39.4</v>
       </c>
       <c r="J653" s="7">
-        <f>SUM(G653*I653)</f>
+        <f t="shared" si="12"/>
         <v>433.4</v>
       </c>
       <c r="K653" s="7">
@@ -49357,7 +49357,7 @@
         <v>30.02</v>
       </c>
       <c r="J654" s="7">
-        <f>SUM(G654*I654)</f>
+        <f t="shared" si="12"/>
         <v>420.28</v>
       </c>
       <c r="K654" s="7">
@@ -49431,7 +49431,7 @@
         <v>27.43</v>
       </c>
       <c r="J655" s="7">
-        <f>SUM(G655*I655)</f>
+        <f t="shared" si="12"/>
         <v>301.73</v>
       </c>
       <c r="K655" s="7">
@@ -49505,7 +49505,7 @@
         <v>25.9</v>
       </c>
       <c r="J656" s="7">
-        <f>SUM(G656*I656)</f>
+        <f t="shared" si="12"/>
         <v>207.2</v>
       </c>
       <c r="K656" s="7">
@@ -49579,7 +49579,7 @@
         <v>20.14</v>
       </c>
       <c r="J657" s="7">
-        <f>SUM(G657*I657)</f>
+        <f t="shared" si="12"/>
         <v>221.54000000000002</v>
       </c>
       <c r="K657" s="7">
@@ -49650,7 +49650,7 @@
         <v>69.92</v>
       </c>
       <c r="J658" s="7">
-        <f>SUM(G658*I658)</f>
+        <f t="shared" si="12"/>
         <v>489.44</v>
       </c>
       <c r="K658" s="7">
@@ -49721,7 +49721,7 @@
         <v>43.65</v>
       </c>
       <c r="J659" s="7">
-        <f>SUM(G659*I659)</f>
+        <f t="shared" si="12"/>
         <v>436.5</v>
       </c>
       <c r="K659" s="7">
@@ -49792,7 +49792,7 @@
         <v>29.05</v>
       </c>
       <c r="J660" s="7">
-        <f>SUM(G660*I660)</f>
+        <f t="shared" si="12"/>
         <v>261.45</v>
       </c>
       <c r="K660" s="7">
@@ -49866,7 +49866,7 @@
         <v>70.64</v>
       </c>
       <c r="J661" s="7">
-        <f>SUM(G661*I661)</f>
+        <f t="shared" si="12"/>
         <v>635.76</v>
       </c>
       <c r="K661" s="7">
@@ -49937,7 +49937,7 @@
         <v>99.13</v>
       </c>
       <c r="J662" s="7">
-        <f>SUM(G662*I662)</f>
+        <f t="shared" si="12"/>
         <v>1189.56</v>
       </c>
       <c r="K662" s="7">
@@ -50008,7 +50008,7 @@
         <v>95.92</v>
       </c>
       <c r="J663" s="7">
-        <f>SUM(G663*I663)</f>
+        <f t="shared" si="12"/>
         <v>1151.04</v>
       </c>
       <c r="K663" s="7">
@@ -50082,7 +50082,7 @@
         <v>53.77</v>
       </c>
       <c r="J664" s="7">
-        <f>SUM(G664*I664)</f>
+        <f t="shared" si="12"/>
         <v>699.01</v>
       </c>
       <c r="K664" s="7">
@@ -50156,7 +50156,7 @@
         <v>36.659999999999997</v>
       </c>
       <c r="J665" s="7">
-        <f>SUM(G665*I665)</f>
+        <f t="shared" si="12"/>
         <v>293.27999999999997</v>
       </c>
       <c r="K665" s="7">
@@ -50227,7 +50227,7 @@
         <v>82.04</v>
       </c>
       <c r="J666" s="7">
-        <f>SUM(G666*I666)</f>
+        <f t="shared" si="12"/>
         <v>820.40000000000009</v>
       </c>
       <c r="K666" s="7">
@@ -50301,7 +50301,7 @@
         <v>47.07</v>
       </c>
       <c r="J667" s="7">
-        <f>SUM(G667*I667)</f>
+        <f t="shared" si="12"/>
         <v>611.91</v>
       </c>
       <c r="K667" s="7">
@@ -50372,7 +50372,7 @@
         <v>34.729999999999997</v>
       </c>
       <c r="J668" s="7">
-        <f>SUM(G668*I668)</f>
+        <f t="shared" si="12"/>
         <v>312.57</v>
       </c>
       <c r="K668" s="7">
@@ -50446,7 +50446,7 @@
         <v>12.71</v>
       </c>
       <c r="J669" s="7">
-        <f>SUM(G669*I669)</f>
+        <f t="shared" si="12"/>
         <v>101.68</v>
       </c>
       <c r="K669" s="7">
@@ -50517,7 +50517,7 @@
         <v>21.15</v>
       </c>
       <c r="J670" s="7">
-        <f>SUM(G670*I670)</f>
+        <f t="shared" si="12"/>
         <v>148.04999999999998</v>
       </c>
       <c r="K670" s="7">
@@ -50591,7 +50591,7 @@
         <v>24.57</v>
       </c>
       <c r="J671" s="7">
-        <f>SUM(G671*I671)</f>
+        <f t="shared" si="12"/>
         <v>270.27</v>
       </c>
       <c r="K671" s="7">
@@ -50662,7 +50662,7 @@
         <v>45.31</v>
       </c>
       <c r="J672" s="7">
-        <f>SUM(G672*I672)</f>
+        <f t="shared" si="12"/>
         <v>362.48</v>
       </c>
       <c r="K672" s="7">
@@ -50733,7 +50733,7 @@
         <v>27.63</v>
       </c>
       <c r="J673" s="7">
-        <f>SUM(G673*I673)</f>
+        <f t="shared" si="12"/>
         <v>276.3</v>
       </c>
       <c r="K673" s="7">
@@ -50807,7 +50807,7 @@
         <v>55.58</v>
       </c>
       <c r="J674" s="7">
-        <f>SUM(G674*I674)</f>
+        <f t="shared" si="12"/>
         <v>611.38</v>
       </c>
       <c r="K674" s="7">
@@ -50881,7 +50881,7 @@
         <v>75.39</v>
       </c>
       <c r="J675" s="7">
-        <f>SUM(G675*I675)</f>
+        <f t="shared" si="12"/>
         <v>452.34000000000003</v>
       </c>
       <c r="K675" s="7">
@@ -50952,7 +50952,7 @@
         <v>59.85</v>
       </c>
       <c r="J676" s="7">
-        <f>SUM(G676*I676)</f>
+        <f t="shared" si="12"/>
         <v>718.2</v>
       </c>
       <c r="K676" s="7">
@@ -51023,7 +51023,7 @@
         <v>88.7</v>
       </c>
       <c r="J677" s="7">
-        <f>SUM(G677*I677)</f>
+        <f t="shared" si="12"/>
         <v>1241.8</v>
       </c>
       <c r="K677" s="7">
@@ -51097,7 +51097,7 @@
         <v>43.96</v>
       </c>
       <c r="J678" s="7">
-        <f>SUM(G678*I678)</f>
+        <f t="shared" si="12"/>
         <v>439.6</v>
       </c>
       <c r="K678" s="7">
@@ -51168,7 +51168,7 @@
         <v>94.42</v>
       </c>
       <c r="J679" s="7">
-        <f>SUM(G679*I679)</f>
+        <f t="shared" si="12"/>
         <v>1038.6200000000001</v>
       </c>
       <c r="K679" s="7">
@@ -51239,7 +51239,7 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="J680" s="7">
-        <f>SUM(G680*I680)</f>
+        <f t="shared" si="12"/>
         <v>97.8</v>
       </c>
       <c r="K680" s="7">
@@ -51313,7 +51313,7 @@
         <v>61.22</v>
       </c>
       <c r="J681" s="7">
-        <f>SUM(G681*I681)</f>
+        <f t="shared" si="12"/>
         <v>673.42</v>
       </c>
       <c r="K681" s="7">
@@ -51384,7 +51384,7 @@
         <v>29.74</v>
       </c>
       <c r="J682" s="7">
-        <f>SUM(G682*I682)</f>
+        <f t="shared" si="12"/>
         <v>208.17999999999998</v>
       </c>
       <c r="K682" s="7">
@@ -51455,7 +51455,7 @@
         <v>91.3</v>
       </c>
       <c r="J683" s="7">
-        <f>SUM(G683*I683)</f>
+        <f t="shared" si="12"/>
         <v>1186.8999999999999</v>
       </c>
       <c r="K683" s="7">
@@ -51526,7 +51526,7 @@
         <v>38.69</v>
       </c>
       <c r="J684" s="7">
-        <f>SUM(G684*I684)</f>
+        <f t="shared" si="12"/>
         <v>232.14</v>
       </c>
       <c r="K684" s="7">
@@ -51597,7 +51597,7 @@
         <v>68.180000000000007</v>
       </c>
       <c r="J685" s="7">
-        <f>SUM(G685*I685)</f>
+        <f t="shared" si="12"/>
         <v>749.98</v>
       </c>
       <c r="K685" s="7">
@@ -51668,7 +51668,7 @@
         <v>53.26</v>
       </c>
       <c r="J686" s="7">
-        <f>SUM(G686*I686)</f>
+        <f t="shared" si="12"/>
         <v>532.6</v>
       </c>
       <c r="K686" s="7">
@@ -51739,7 +51739,7 @@
         <v>56.79</v>
       </c>
       <c r="J687" s="7">
-        <f>SUM(G687*I687)</f>
+        <f t="shared" si="12"/>
         <v>397.53</v>
       </c>
       <c r="K687" s="7">
@@ -51810,7 +51810,7 @@
         <v>20.170000000000002</v>
       </c>
       <c r="J688" s="7">
-        <f>SUM(G688*I688)</f>
+        <f t="shared" si="12"/>
         <v>121.02000000000001</v>
       </c>
       <c r="K688" s="7">
@@ -51881,7 +51881,7 @@
         <v>41.78</v>
       </c>
       <c r="J689" s="7">
-        <f>SUM(G689*I689)</f>
+        <f t="shared" si="12"/>
         <v>250.68</v>
       </c>
       <c r="K689" s="7">
@@ -51952,7 +51952,7 @@
         <v>71.81</v>
       </c>
       <c r="J690" s="7">
-        <f>SUM(G690*I690)</f>
+        <f t="shared" si="12"/>
         <v>933.53</v>
       </c>
       <c r="K690" s="7">
@@ -52023,7 +52023,7 @@
         <v>83.65</v>
       </c>
       <c r="J691" s="7">
-        <f>SUM(G691*I691)</f>
+        <f t="shared" si="12"/>
         <v>752.85</v>
       </c>
       <c r="K691" s="7">
@@ -52094,7 +52094,7 @@
         <v>91.11</v>
       </c>
       <c r="J692" s="7">
-        <f>SUM(G692*I692)</f>
+        <f t="shared" si="12"/>
         <v>819.99</v>
       </c>
       <c r="K692" s="7">
@@ -52168,7 +52168,7 @@
         <v>54</v>
       </c>
       <c r="J693" s="7">
-        <f>SUM(G693*I693)</f>
+        <f t="shared" si="12"/>
         <v>594</v>
       </c>
       <c r="K693" s="7">
@@ -52239,7 +52239,7 @@
         <v>68.14</v>
       </c>
       <c r="J694" s="7">
-        <f>SUM(G694*I694)</f>
+        <f t="shared" si="12"/>
         <v>545.12</v>
       </c>
       <c r="K694" s="7">
@@ -52313,7 +52313,7 @@
         <v>37.549999999999997</v>
       </c>
       <c r="J695" s="7">
-        <f>SUM(G695*I695)</f>
+        <f t="shared" si="12"/>
         <v>525.69999999999993</v>
       </c>
       <c r="K695" s="7">
@@ -52384,7 +52384,7 @@
         <v>13.78</v>
       </c>
       <c r="J696" s="7">
-        <f>SUM(G696*I696)</f>
+        <f t="shared" si="12"/>
         <v>124.02</v>
       </c>
       <c r="K696" s="7">
@@ -52455,7 +52455,7 @@
         <v>29.58</v>
       </c>
       <c r="J697" s="7">
-        <f>SUM(G697*I697)</f>
+        <f t="shared" si="12"/>
         <v>295.79999999999995</v>
       </c>
       <c r="K697" s="7">
@@ -52526,7 +52526,7 @@
         <v>44.81</v>
       </c>
       <c r="J698" s="7">
-        <f>SUM(G698*I698)</f>
+        <f t="shared" si="12"/>
         <v>582.53</v>
       </c>
       <c r="K698" s="7">
@@ -52597,7 +52597,7 @@
         <v>59.87</v>
       </c>
       <c r="J699" s="7">
-        <f>SUM(G699*I699)</f>
+        <f t="shared" si="12"/>
         <v>658.56999999999994</v>
       </c>
       <c r="K699" s="7">
@@ -52668,7 +52668,7 @@
         <v>69.069999999999993</v>
       </c>
       <c r="J700" s="7">
-        <f>SUM(G700*I700)</f>
+        <f t="shared" si="12"/>
         <v>966.9799999999999</v>
       </c>
       <c r="K700" s="7">
@@ -52742,7 +52742,7 @@
         <v>48.36</v>
       </c>
       <c r="J701" s="7">
-        <f>SUM(G701*I701)</f>
+        <f t="shared" si="12"/>
         <v>531.96</v>
       </c>
       <c r="K701" s="7">
@@ -52813,7 +52813,7 @@
         <v>67.540000000000006</v>
       </c>
       <c r="J702" s="7">
-        <f>SUM(G702*I702)</f>
+        <f t="shared" si="12"/>
         <v>607.86</v>
       </c>
       <c r="K702" s="7">
@@ -52887,7 +52887,7 @@
         <v>90.22</v>
       </c>
       <c r="J703" s="7">
-        <f>SUM(G703*I703)</f>
+        <f t="shared" si="12"/>
         <v>902.2</v>
       </c>
       <c r="K703" s="7">
@@ -52961,7 +52961,7 @@
         <v>59.47</v>
       </c>
       <c r="J704" s="7">
-        <f>SUM(G704*I704)</f>
+        <f t="shared" si="12"/>
         <v>713.64</v>
       </c>
       <c r="K704" s="7">
@@ -53032,7 +53032,7 @@
         <v>59.88</v>
       </c>
       <c r="J705" s="7">
-        <f>SUM(G705*I705)</f>
+        <f t="shared" si="12"/>
         <v>598.80000000000007</v>
       </c>
       <c r="K705" s="7">
@@ -53106,7 +53106,7 @@
         <v>89.16</v>
       </c>
       <c r="J706" s="7">
-        <f>SUM(G706*I706)</f>
+        <f t="shared" ref="J706:J769" si="13">SUM(G706*I706)</f>
         <v>624.12</v>
       </c>
       <c r="K706" s="7">
@@ -53177,7 +53177,7 @@
         <v>8.11</v>
       </c>
       <c r="J707" s="7">
-        <f>SUM(G707*I707)</f>
+        <f t="shared" si="13"/>
         <v>72.989999999999995</v>
       </c>
       <c r="K707" s="7">
@@ -53248,7 +53248,7 @@
         <v>82.22</v>
       </c>
       <c r="J708" s="7">
-        <f>SUM(G708*I708)</f>
+        <f t="shared" si="13"/>
         <v>493.32</v>
       </c>
       <c r="K708" s="7">
@@ -53319,7 +53319,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="J709" s="7">
-        <f>SUM(G709*I709)</f>
+        <f t="shared" si="13"/>
         <v>464.40000000000003</v>
       </c>
       <c r="K709" s="7">
@@ -53390,7 +53390,7 @@
         <v>7.21</v>
       </c>
       <c r="J710" s="7">
-        <f>SUM(G710*I710)</f>
+        <f t="shared" si="13"/>
         <v>57.68</v>
       </c>
       <c r="K710" s="7">
@@ -53464,7 +53464,7 @@
         <v>8.51</v>
       </c>
       <c r="J711" s="7">
-        <f>SUM(G711*I711)</f>
+        <f t="shared" si="13"/>
         <v>76.59</v>
       </c>
       <c r="K711" s="7">
@@ -53538,7 +53538,7 @@
         <v>84.73</v>
       </c>
       <c r="J712" s="7">
-        <f>SUM(G712*I712)</f>
+        <f t="shared" si="13"/>
         <v>1016.76</v>
       </c>
       <c r="K712" s="7">
@@ -53609,7 +53609,7 @@
         <v>67.69</v>
       </c>
       <c r="J713" s="7">
-        <f>SUM(G713*I713)</f>
+        <f t="shared" si="13"/>
         <v>676.9</v>
       </c>
       <c r="K713" s="7">
@@ -53680,7 +53680,7 @@
         <v>61.03</v>
       </c>
       <c r="J714" s="7">
-        <f>SUM(G714*I714)</f>
+        <f t="shared" si="13"/>
         <v>610.29999999999995</v>
       </c>
       <c r="K714" s="7">
@@ -53751,7 +53751,7 @@
         <v>60.44</v>
       </c>
       <c r="J715" s="7">
-        <f>SUM(G715*I715)</f>
+        <f t="shared" si="13"/>
         <v>302.2</v>
       </c>
       <c r="K715" s="7">
@@ -53822,7 +53822,7 @@
         <v>9.33</v>
       </c>
       <c r="J716" s="7">
-        <f>SUM(G716*I716)</f>
+        <f t="shared" si="13"/>
         <v>46.65</v>
       </c>
       <c r="K716" s="7">
@@ -53893,7 +53893,7 @@
         <v>42.2</v>
       </c>
       <c r="J717" s="7">
-        <f>SUM(G717*I717)</f>
+        <f t="shared" si="13"/>
         <v>464.20000000000005</v>
       </c>
       <c r="K717" s="7">
@@ -53967,7 +53967,7 @@
         <v>84.96</v>
       </c>
       <c r="J718" s="7">
-        <f>SUM(G718*I718)</f>
+        <f t="shared" si="13"/>
         <v>594.71999999999991</v>
       </c>
       <c r="K718" s="7">
@@ -54038,7 +54038,7 @@
         <v>55.92</v>
       </c>
       <c r="J719" s="7">
-        <f>SUM(G719*I719)</f>
+        <f t="shared" si="13"/>
         <v>335.52</v>
       </c>
       <c r="K719" s="7">
@@ -54112,7 +54112,7 @@
         <v>99.33</v>
       </c>
       <c r="J720" s="7">
-        <f>SUM(G720*I720)</f>
+        <f t="shared" si="13"/>
         <v>1291.29</v>
       </c>
       <c r="K720" s="7">
@@ -54186,7 +54186,7 @@
         <v>12.5</v>
       </c>
       <c r="J721" s="7">
-        <f>SUM(G721*I721)</f>
+        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="K721" s="7">
@@ -54257,7 +54257,7 @@
         <v>10.98</v>
       </c>
       <c r="J722" s="7">
-        <f>SUM(G722*I722)</f>
+        <f t="shared" si="13"/>
         <v>142.74</v>
       </c>
       <c r="K722" s="7">
@@ -54328,7 +54328,7 @@
         <v>27.04</v>
       </c>
       <c r="J723" s="7">
-        <f>SUM(G723*I723)</f>
+        <f t="shared" si="13"/>
         <v>216.32</v>
       </c>
       <c r="K723" s="7">
@@ -54399,7 +54399,7 @@
         <v>9.18</v>
       </c>
       <c r="J724" s="7">
-        <f>SUM(G724*I724)</f>
+        <f t="shared" si="13"/>
         <v>55.08</v>
       </c>
       <c r="K724" s="7">
@@ -54470,7 +54470,7 @@
         <v>19.2</v>
       </c>
       <c r="J725" s="7">
-        <f>SUM(G725*I725)</f>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="K725" s="7">
@@ -54544,7 +54544,7 @@
         <v>91.85</v>
       </c>
       <c r="J726" s="7">
-        <f>SUM(G726*I726)</f>
+        <f t="shared" si="13"/>
         <v>918.5</v>
       </c>
       <c r="K726" s="7">
@@ -54615,7 +54615,7 @@
         <v>4.97</v>
       </c>
       <c r="J727" s="7">
-        <f>SUM(G727*I727)</f>
+        <f t="shared" si="13"/>
         <v>59.64</v>
       </c>
       <c r="K727" s="7">
@@ -54686,7 +54686,7 @@
         <v>58.31</v>
       </c>
       <c r="J728" s="7">
-        <f>SUM(G728*I728)</f>
+        <f t="shared" si="13"/>
         <v>524.79</v>
       </c>
       <c r="K728" s="7">
@@ -54760,7 +54760,7 @@
         <v>36.770000000000003</v>
       </c>
       <c r="J729" s="7">
-        <f>SUM(G729*I729)</f>
+        <f t="shared" si="13"/>
         <v>404.47</v>
       </c>
       <c r="K729" s="7">
@@ -54831,7 +54831,7 @@
         <v>21.55</v>
       </c>
       <c r="J730" s="7">
-        <f>SUM(G730*I730)</f>
+        <f t="shared" si="13"/>
         <v>193.95000000000002</v>
       </c>
       <c r="K730" s="7">
@@ -54902,7 +54902,7 @@
         <v>7.8</v>
       </c>
       <c r="J731" s="7">
-        <f>SUM(G731*I731)</f>
+        <f t="shared" si="13"/>
         <v>46.8</v>
       </c>
       <c r="K731" s="7">
@@ -54976,7 +54976,7 @@
         <v>0.12</v>
       </c>
       <c r="J732" s="7">
-        <f>SUM(G732*I732)</f>
+        <f t="shared" si="13"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="K732" s="7">
@@ -55050,7 +55050,7 @@
         <v>42.23</v>
       </c>
       <c r="J733" s="7">
-        <f>SUM(G733*I733)</f>
+        <f t="shared" si="13"/>
         <v>337.84</v>
       </c>
       <c r="K733" s="7">
@@ -55124,7 +55124,7 @@
         <v>80.680000000000007</v>
       </c>
       <c r="J734" s="7">
-        <f>SUM(G734*I734)</f>
+        <f t="shared" si="13"/>
         <v>1129.52</v>
       </c>
       <c r="K734" s="7">
@@ -55198,7 +55198,7 @@
         <v>61.33</v>
       </c>
       <c r="J735" s="7">
-        <f>SUM(G735*I735)</f>
+        <f t="shared" si="13"/>
         <v>306.64999999999998</v>
       </c>
       <c r="K735" s="7">
@@ -55272,7 +55272,7 @@
         <v>11.86</v>
       </c>
       <c r="J736" s="7">
-        <f>SUM(G736*I736)</f>
+        <f t="shared" si="13"/>
         <v>94.88</v>
       </c>
       <c r="K736" s="7">
@@ -55343,7 +55343,7 @@
         <v>67.819999999999993</v>
       </c>
       <c r="J737" s="7">
-        <f>SUM(G737*I737)</f>
+        <f t="shared" si="13"/>
         <v>406.91999999999996</v>
       </c>
       <c r="K737" s="7">
@@ -55414,7 +55414,7 @@
         <v>16.559999999999999</v>
       </c>
       <c r="J738" s="7">
-        <f>SUM(G738*I738)</f>
+        <f t="shared" si="13"/>
         <v>182.16</v>
       </c>
       <c r="K738" s="7">
@@ -55485,7 +55485,7 @@
         <v>43.54</v>
       </c>
       <c r="J739" s="7">
-        <f>SUM(G739*I739)</f>
+        <f t="shared" si="13"/>
         <v>217.7</v>
       </c>
       <c r="K739" s="7">
@@ -55559,7 +55559,7 @@
         <v>28.94</v>
       </c>
       <c r="J740" s="7">
-        <f>SUM(G740*I740)</f>
+        <f t="shared" si="13"/>
         <v>260.46000000000004</v>
       </c>
       <c r="K740" s="7">
@@ -55630,7 +55630,7 @@
         <v>61.43</v>
       </c>
       <c r="J741" s="7">
-        <f>SUM(G741*I741)</f>
+        <f t="shared" si="13"/>
         <v>614.29999999999995</v>
       </c>
       <c r="K741" s="7">
@@ -55701,7 +55701,7 @@
         <v>67.61</v>
       </c>
       <c r="J742" s="7">
-        <f>SUM(G742*I742)</f>
+        <f t="shared" si="13"/>
         <v>540.88</v>
       </c>
       <c r="K742" s="7">
@@ -55775,7 +55775,7 @@
         <v>27.86</v>
       </c>
       <c r="J743" s="7">
-        <f>SUM(G743*I743)</f>
+        <f t="shared" si="13"/>
         <v>278.60000000000002</v>
       </c>
       <c r="K743" s="7">
@@ -55846,7 +55846,7 @@
         <v>94.7</v>
       </c>
       <c r="J744" s="7">
-        <f>SUM(G744*I744)</f>
+        <f t="shared" si="13"/>
         <v>568.20000000000005</v>
       </c>
       <c r="K744" s="7">
@@ -55920,7 +55920,7 @@
         <v>69.97</v>
       </c>
       <c r="J745" s="7">
-        <f>SUM(G745*I745)</f>
+        <f t="shared" si="13"/>
         <v>769.67</v>
       </c>
       <c r="K745" s="7">
@@ -55991,7 +55991,7 @@
         <v>32.97</v>
       </c>
       <c r="J746" s="7">
-        <f>SUM(G746*I746)</f>
+        <f t="shared" si="13"/>
         <v>362.66999999999996</v>
       </c>
       <c r="K746" s="7">
@@ -56062,7 +56062,7 @@
         <v>33.75</v>
       </c>
       <c r="J747" s="7">
-        <f>SUM(G747*I747)</f>
+        <f t="shared" si="13"/>
         <v>438.75</v>
       </c>
       <c r="K747" s="7">
@@ -56133,7 +56133,7 @@
         <v>64.72</v>
       </c>
       <c r="J748" s="7">
-        <f>SUM(G748*I748)</f>
+        <f t="shared" si="13"/>
         <v>776.64</v>
       </c>
       <c r="K748" s="7">
@@ -56204,7 +56204,7 @@
         <v>54.66</v>
       </c>
       <c r="J749" s="7">
-        <f>SUM(G749*I749)</f>
+        <f t="shared" si="13"/>
         <v>601.26</v>
       </c>
       <c r="K749" s="7">
@@ -56275,7 +56275,7 @@
         <v>58.28</v>
       </c>
       <c r="J750" s="7">
-        <f>SUM(G750*I750)</f>
+        <f t="shared" si="13"/>
         <v>582.79999999999995</v>
       </c>
       <c r="K750" s="7">
@@ -56349,7 +56349,7 @@
         <v>94.71</v>
       </c>
       <c r="J751" s="7">
-        <f>SUM(G751*I751)</f>
+        <f t="shared" si="13"/>
         <v>1231.23</v>
       </c>
       <c r="K751" s="7">
@@ -56420,7 +56420,7 @@
         <v>7.44</v>
       </c>
       <c r="J752" s="7">
-        <f>SUM(G752*I752)</f>
+        <f t="shared" si="13"/>
         <v>37.200000000000003</v>
       </c>
       <c r="K752" s="7">
@@ -56491,7 +56491,7 @@
         <v>93.53</v>
       </c>
       <c r="J753" s="7">
-        <f>SUM(G753*I753)</f>
+        <f t="shared" si="13"/>
         <v>654.71</v>
       </c>
       <c r="K753" s="7">
@@ -56565,7 +56565,7 @@
         <v>68.83</v>
       </c>
       <c r="J754" s="7">
-        <f>SUM(G754*I754)</f>
+        <f t="shared" si="13"/>
         <v>757.13</v>
       </c>
       <c r="K754" s="7">
@@ -56636,7 +56636,7 @@
         <v>35.22</v>
       </c>
       <c r="J755" s="7">
-        <f>SUM(G755*I755)</f>
+        <f t="shared" si="13"/>
         <v>281.76</v>
       </c>
       <c r="K755" s="7">
@@ -56710,7 +56710,7 @@
         <v>64.989999999999995</v>
       </c>
       <c r="J756" s="7">
-        <f>SUM(G756*I756)</f>
+        <f t="shared" si="13"/>
         <v>649.9</v>
       </c>
       <c r="K756" s="7">
@@ -56781,7 +56781,7 @@
         <v>58.54</v>
       </c>
       <c r="J757" s="7">
-        <f>SUM(G757*I757)</f>
+        <f t="shared" si="13"/>
         <v>351.24</v>
       </c>
       <c r="K757" s="7">
@@ -56855,7 +56855,7 @@
         <v>81.38</v>
       </c>
       <c r="J758" s="7">
-        <f>SUM(G758*I758)</f>
+        <f t="shared" si="13"/>
         <v>651.04</v>
       </c>
       <c r="K758" s="7">
@@ -56929,7 +56929,7 @@
         <v>63.84</v>
       </c>
       <c r="J759" s="7">
-        <f>SUM(G759*I759)</f>
+        <f t="shared" si="13"/>
         <v>702.24</v>
       </c>
       <c r="K759" s="7">
@@ -57003,7 +57003,7 @@
         <v>88</v>
       </c>
       <c r="J760" s="7">
-        <f>SUM(G760*I760)</f>
+        <f t="shared" si="13"/>
         <v>1144</v>
       </c>
       <c r="K760" s="7">
@@ -57074,7 +57074,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="J761" s="7">
-        <f>SUM(G761*I761)</f>
+        <f t="shared" si="13"/>
         <v>816</v>
       </c>
       <c r="K761" s="7">
@@ -57145,7 +57145,7 @@
         <v>95.28</v>
       </c>
       <c r="J762" s="7">
-        <f>SUM(G762*I762)</f>
+        <f t="shared" si="13"/>
         <v>1048.08</v>
       </c>
       <c r="K762" s="7">
@@ -57219,7 +57219,7 @@
         <v>11.87</v>
       </c>
       <c r="J763" s="7">
-        <f>SUM(G763*I763)</f>
+        <f t="shared" si="13"/>
         <v>94.96</v>
       </c>
       <c r="K763" s="7">
@@ -57290,7 +57290,7 @@
         <v>15.2</v>
       </c>
       <c r="J764" s="7">
-        <f>SUM(G764*I764)</f>
+        <f t="shared" si="13"/>
         <v>167.2</v>
       </c>
       <c r="K764" s="7">
@@ -57361,7 +57361,7 @@
         <v>79.87</v>
       </c>
       <c r="J765" s="7">
-        <f>SUM(G765*I765)</f>
+        <f t="shared" si="13"/>
         <v>958.44</v>
       </c>
       <c r="K765" s="7">
@@ -57432,7 +57432,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="J766" s="7">
-        <f>SUM(G766*I766)</f>
+        <f t="shared" si="13"/>
         <v>113.39999999999999</v>
       </c>
       <c r="K766" s="7">
@@ -57506,7 +57506,7 @@
         <v>0.81</v>
       </c>
       <c r="J767" s="7">
-        <f>SUM(G767*I767)</f>
+        <f t="shared" si="13"/>
         <v>10.530000000000001</v>
       </c>
       <c r="K767" s="7">
@@ -57577,7 +57577,7 @@
         <v>41.12</v>
       </c>
       <c r="J768" s="7">
-        <f>SUM(G768*I768)</f>
+        <f t="shared" si="13"/>
         <v>534.55999999999995</v>
       </c>
       <c r="K768" s="7">
@@ -57648,7 +57648,7 @@
         <v>87.12</v>
       </c>
       <c r="J769" s="7">
-        <f>SUM(G769*I769)</f>
+        <f t="shared" si="13"/>
         <v>696.96</v>
       </c>
       <c r="K769" s="7">
@@ -57719,7 +57719,7 @@
         <v>61.37</v>
       </c>
       <c r="J770" s="7">
-        <f>SUM(G770*I770)</f>
+        <f t="shared" ref="J770:J833" si="14">SUM(G770*I770)</f>
         <v>613.69999999999993</v>
       </c>
       <c r="K770" s="7">
@@ -57790,7 +57790,7 @@
         <v>14.78</v>
       </c>
       <c r="J771" s="7">
-        <f>SUM(G771*I771)</f>
+        <f t="shared" si="14"/>
         <v>73.899999999999991</v>
       </c>
       <c r="K771" s="7">
@@ -57861,7 +57861,7 @@
         <v>85.59</v>
       </c>
       <c r="J772" s="7">
-        <f>SUM(G772*I772)</f>
+        <f t="shared" si="14"/>
         <v>1027.08</v>
       </c>
       <c r="K772" s="7">
@@ -57932,7 +57932,7 @@
         <v>40.69</v>
       </c>
       <c r="J773" s="7">
-        <f>SUM(G773*I773)</f>
+        <f t="shared" si="14"/>
         <v>447.59</v>
       </c>
       <c r="K773" s="7">
@@ -58003,7 +58003,7 @@
         <v>79.8</v>
       </c>
       <c r="J774" s="7">
-        <f>SUM(G774*I774)</f>
+        <f t="shared" si="14"/>
         <v>1037.3999999999999</v>
       </c>
       <c r="K774" s="7">
@@ -58074,7 +58074,7 @@
         <v>11.04</v>
       </c>
       <c r="J775" s="7">
-        <f>SUM(G775*I775)</f>
+        <f t="shared" si="14"/>
         <v>66.239999999999995</v>
       </c>
       <c r="K775" s="7">
@@ -58145,7 +58145,7 @@
         <v>39.19</v>
       </c>
       <c r="J776" s="7">
-        <f>SUM(G776*I776)</f>
+        <f t="shared" si="14"/>
         <v>509.46999999999997</v>
       </c>
       <c r="K776" s="7">
@@ -58216,7 +58216,7 @@
         <v>44.46</v>
       </c>
       <c r="J777" s="7">
-        <f>SUM(G777*I777)</f>
+        <f t="shared" si="14"/>
         <v>266.76</v>
       </c>
       <c r="K777" s="7">
@@ -58290,7 +58290,7 @@
         <v>84.83</v>
       </c>
       <c r="J778" s="7">
-        <f>SUM(G778*I778)</f>
+        <f t="shared" si="14"/>
         <v>678.64</v>
       </c>
       <c r="K778" s="7">
@@ -58364,7 +58364,7 @@
         <v>85.47</v>
       </c>
       <c r="J779" s="7">
-        <f>SUM(G779*I779)</f>
+        <f t="shared" si="14"/>
         <v>598.29</v>
       </c>
       <c r="K779" s="7">
@@ -58435,7 +58435,7 @@
         <v>42.95</v>
       </c>
       <c r="J780" s="7">
-        <f>SUM(G780*I780)</f>
+        <f t="shared" si="14"/>
         <v>515.40000000000009</v>
       </c>
       <c r="K780" s="7">
@@ -58509,7 +58509,7 @@
         <v>9.56</v>
       </c>
       <c r="J781" s="7">
-        <f>SUM(G781*I781)</f>
+        <f t="shared" si="14"/>
         <v>95.600000000000009</v>
       </c>
       <c r="K781" s="7">
@@ -58583,7 +58583,7 @@
         <v>97.36</v>
       </c>
       <c r="J782" s="7">
-        <f>SUM(G782*I782)</f>
+        <f t="shared" si="14"/>
         <v>876.24</v>
       </c>
       <c r="K782" s="7">
@@ -58654,7 +58654,7 @@
         <v>73.92</v>
       </c>
       <c r="J783" s="7">
-        <f>SUM(G783*I783)</f>
+        <f t="shared" si="14"/>
         <v>887.04</v>
       </c>
       <c r="K783" s="7">
@@ -58725,7 +58725,7 @@
         <v>46.37</v>
       </c>
       <c r="J784" s="7">
-        <f>SUM(G784*I784)</f>
+        <f t="shared" si="14"/>
         <v>278.21999999999997</v>
       </c>
       <c r="K784" s="7">
@@ -58796,7 +58796,7 @@
         <v>79.19</v>
       </c>
       <c r="J785" s="7">
-        <f>SUM(G785*I785)</f>
+        <f t="shared" si="14"/>
         <v>791.9</v>
       </c>
       <c r="K785" s="7">
@@ -58867,7 +58867,7 @@
         <v>33.49</v>
       </c>
       <c r="J786" s="7">
-        <f>SUM(G786*I786)</f>
+        <f t="shared" si="14"/>
         <v>368.39000000000004</v>
       </c>
       <c r="K786" s="7">
@@ -58938,7 +58938,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="J787" s="7">
-        <f>SUM(G787*I787)</f>
+        <f t="shared" si="14"/>
         <v>1047.8</v>
       </c>
       <c r="K787" s="7">
@@ -59012,7 +59012,7 @@
         <v>29.45</v>
       </c>
       <c r="J788" s="7">
-        <f>SUM(G788*I788)</f>
+        <f t="shared" si="14"/>
         <v>235.6</v>
       </c>
       <c r="K788" s="7">
@@ -59086,7 +59086,7 @@
         <v>47.65</v>
       </c>
       <c r="J789" s="7">
-        <f>SUM(G789*I789)</f>
+        <f t="shared" si="14"/>
         <v>476.5</v>
       </c>
       <c r="K789" s="7">
@@ -59157,7 +59157,7 @@
         <v>62.93</v>
       </c>
       <c r="J790" s="7">
-        <f>SUM(G790*I790)</f>
+        <f t="shared" si="14"/>
         <v>755.16</v>
       </c>
       <c r="K790" s="7">
@@ -59228,7 +59228,7 @@
         <v>86.65</v>
       </c>
       <c r="J791" s="7">
-        <f>SUM(G791*I791)</f>
+        <f t="shared" si="14"/>
         <v>1126.45</v>
       </c>
       <c r="K791" s="7">
@@ -59299,7 +59299,7 @@
         <v>82.48</v>
       </c>
       <c r="J792" s="7">
-        <f>SUM(G792*I792)</f>
+        <f t="shared" si="14"/>
         <v>742.32</v>
       </c>
       <c r="K792" s="7">
@@ -59373,7 +59373,7 @@
         <v>61.23</v>
       </c>
       <c r="J793" s="7">
-        <f>SUM(G793*I793)</f>
+        <f t="shared" si="14"/>
         <v>734.76</v>
       </c>
       <c r="K793" s="7">
@@ -59447,7 +59447,7 @@
         <v>20.48</v>
       </c>
       <c r="J794" s="7">
-        <f>SUM(G794*I794)</f>
+        <f t="shared" si="14"/>
         <v>245.76</v>
       </c>
       <c r="K794" s="7">
@@ -59518,7 +59518,7 @@
         <v>36.03</v>
       </c>
       <c r="J795" s="7">
-        <f>SUM(G795*I795)</f>
+        <f t="shared" si="14"/>
         <v>216.18</v>
       </c>
       <c r="K795" s="7">
@@ -59589,7 +59589,7 @@
         <v>71.47</v>
       </c>
       <c r="J796" s="7">
-        <f>SUM(G796*I796)</f>
+        <f t="shared" si="14"/>
         <v>500.28999999999996</v>
       </c>
       <c r="K796" s="7">
@@ -59663,7 +59663,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="J797" s="7">
-        <f>SUM(G797*I797)</f>
+        <f t="shared" si="14"/>
         <v>796</v>
       </c>
       <c r="K797" s="7">
@@ -59734,7 +59734,7 @@
         <v>4.37</v>
       </c>
       <c r="J798" s="7">
-        <f>SUM(G798*I798)</f>
+        <f t="shared" si="14"/>
         <v>43.7</v>
       </c>
       <c r="K798" s="7">
@@ -59805,7 +59805,7 @@
         <v>7.5</v>
       </c>
       <c r="J799" s="7">
-        <f>SUM(G799*I799)</f>
+        <f t="shared" si="14"/>
         <v>52.5</v>
       </c>
       <c r="K799" s="7">
@@ -59879,7 +59879,7 @@
         <v>86.69</v>
       </c>
       <c r="J800" s="7">
-        <f>SUM(G800*I800)</f>
+        <f t="shared" si="14"/>
         <v>520.14</v>
       </c>
       <c r="K800" s="7">
@@ -59950,7 +59950,7 @@
         <v>67.81</v>
       </c>
       <c r="J801" s="7">
-        <f>SUM(G801*I801)</f>
+        <f t="shared" si="14"/>
         <v>474.67</v>
       </c>
       <c r="K801" s="7">

--- a/DataSets/NorthwindOrders.xlsx
+++ b/DataSets/NorthwindOrders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo/adaptableblotter-demo/DataSets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo-dev/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0302DB-0D2E-B649-83EA-CFF4AEB1933D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040CB82-273E-174C-A68B-E29913D8315A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="31880" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="31880" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NorthwindOrders" sheetId="1" r:id="rId1"/>
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:W801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57719,7 +57719,7 @@
         <v>61.37</v>
       </c>
       <c r="J770" s="7">
-        <f t="shared" ref="J770:J833" si="14">SUM(G770*I770)</f>
+        <f t="shared" ref="J770:J801" si="14">SUM(G770*I770)</f>
         <v>613.69999999999993</v>
       </c>
       <c r="K770" s="7">

--- a/DataSets/NorthwindOrders.xlsx
+++ b/DataSets/NorthwindOrders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo-dev/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8279E3-D73C-2643-BBCE-DFD7E0B7BDD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061EE8B6-40A4-6947-BDDA-185F4675B522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="31880" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,9 +1806,6 @@
     <t>InvoicedCost</t>
   </si>
   <si>
-    <t>ArriveOnTime</t>
-  </si>
-  <si>
     <t>PackageCost</t>
   </si>
   <si>
@@ -1820,13 +1817,16 @@
   <si>
     <t>LastUpdatedTime</t>
   </si>
+  <si>
+    <t>IsValid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1899,8 +1899,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2242,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2293,7 @@
         <v>585</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>587</v>
@@ -2302,7 +2302,7 @@
         <v>586</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>574</v>
@@ -2338,10 +2338,10 @@
         <v>583</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -6412,7 +6412,7 @@
         <v>330</v>
       </c>
       <c r="T55" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U55" t="s">
         <v>331</v>
@@ -8603,7 +8603,7 @@
         <v>330</v>
       </c>
       <c r="T84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U84" t="s">
         <v>331</v>
@@ -10190,7 +10190,7 @@
         <v>330</v>
       </c>
       <c r="T105" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U105" t="s">
         <v>331</v>
@@ -10415,7 +10415,7 @@
         <v>330</v>
       </c>
       <c r="T108" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U108" t="s">
         <v>331</v>
@@ -23356,7 +23356,7 @@
         <v>330</v>
       </c>
       <c r="T280" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U280" t="s">
         <v>331</v>
@@ -23655,7 +23655,7 @@
         <v>330</v>
       </c>
       <c r="T284" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U284" t="s">
         <v>331</v>
@@ -28922,7 +28922,7 @@
         <v>330</v>
       </c>
       <c r="T354" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U354" t="s">
         <v>331</v>
@@ -33875,7 +33875,7 @@
         <v>330</v>
       </c>
       <c r="T420" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U420" t="s">
         <v>331</v>
@@ -40376,7 +40376,7 @@
         <v>330</v>
       </c>
       <c r="T507" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U507" t="s">
         <v>331</v>
@@ -42025,7 +42025,7 @@
         <v>330</v>
       </c>
       <c r="T529" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U529" t="s">
         <v>331</v>
@@ -53719,7 +53719,7 @@
         <v>330</v>
       </c>
       <c r="T685" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U685" t="s">
         <v>331</v>
@@ -60294,7 +60294,7 @@
         <v>330</v>
       </c>
       <c r="T773" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U773" t="s">
         <v>331</v>
@@ -60371,7 +60371,7 @@
         <v>330</v>
       </c>
       <c r="T774" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U774" t="s">
         <v>331</v>

--- a/DataSets/NorthwindOrders.xlsx
+++ b/DataSets/NorthwindOrders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo-dev/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5D7A4-BA70-B143-A578-1F571F03CB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136A53B-5F82-6740-83A0-D28896EB5934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="31880" windowHeight="19260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2245,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2439,10 +2439,10 @@
       </c>
       <c r="F3">
         <f>SUM(J3* 1.03)</f>
-        <v>535.74419999999998</v>
+        <v>89.290700000000001</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>-10</v>
@@ -2452,11 +2452,11 @@
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>520.14</v>
+        <v>86.69</v>
       </c>
       <c r="K3" s="7">
         <f>SUM(G3*1.15)</f>
-        <v>6.8999999999999995</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L3" s="11">
         <v>42926</v>
@@ -2664,10 +2664,10 @@
       </c>
       <c r="F6">
         <f>SUM(J6* 0.93)</f>
-        <v>740.28000000000009</v>
+        <v>222.084</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>-4</v>
@@ -2677,11 +2677,11 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>796</v>
+        <v>238.79999999999998</v>
       </c>
       <c r="K6" s="7">
         <f>SUM(G6*1.27)</f>
-        <v>12.7</v>
+        <v>3.81</v>
       </c>
       <c r="L6" s="11">
         <v>42930</v>
@@ -2815,10 +2815,10 @@
       </c>
       <c r="F8">
         <f>SUM(J8* 0.85)</f>
-        <v>183.75300000000001</v>
+        <v>275.62949999999995</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>-19</v>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>216.18</v>
+        <v>324.27</v>
       </c>
       <c r="K8" s="7">
         <f>SUM(G8*1.15)</f>
-        <v>6.8999999999999995</v>
+        <v>10.35</v>
       </c>
       <c r="L8" s="11">
         <v>42932</v>
@@ -2889,10 +2889,10 @@
       </c>
       <c r="F9">
         <f>SUM(J9* 0.85)</f>
-        <v>208.89599999999999</v>
+        <v>34.816000000000003</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>-2</v>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>245.76</v>
+        <v>40.96</v>
       </c>
       <c r="K9" s="7">
         <f>SUM(G9*1.27)</f>
-        <v>15.24</v>
+        <v>2.54</v>
       </c>
       <c r="L9" s="11">
         <v>42933</v>
@@ -3191,10 +3191,10 @@
       </c>
       <c r="F13">
         <f>SUM(J13* 1.15)</f>
-        <v>868.43399999999986</v>
+        <v>289.47799999999995</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>20</v>
@@ -3204,11 +3204,11 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>755.16</v>
+        <v>251.72</v>
       </c>
       <c r="K13" s="7">
         <f>SUM(G13*1.429)</f>
-        <v>17.148</v>
+        <v>5.7160000000000002</v>
       </c>
       <c r="L13" s="11">
         <v>42939</v>
@@ -3265,10 +3265,10 @@
       </c>
       <c r="F14">
         <f>SUM(J14* 1.15)</f>
-        <v>547.97499999999991</v>
+        <v>164.39249999999998</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>26</v>
@@ -3278,11 +3278,11 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="0"/>
-        <v>476.5</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="K14" s="7">
         <f>SUM(G14*1.429)</f>
-        <v>14.290000000000001</v>
+        <v>4.2869999999999999</v>
       </c>
       <c r="L14" s="11">
         <v>42940</v>
@@ -3567,10 +3567,10 @@
       </c>
       <c r="F18">
         <f>SUM(J18* 0.93)</f>
-        <v>736.46699999999998</v>
+        <v>220.9401</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -3580,11 +3580,11 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="0"/>
-        <v>791.9</v>
+        <v>237.57</v>
       </c>
       <c r="K18" s="7">
         <f>SUM(G18*1.27)</f>
-        <v>12.7</v>
+        <v>3.81</v>
       </c>
       <c r="L18" s="11">
         <v>42945</v>
@@ -4091,10 +4091,10 @@
       </c>
       <c r="F25">
         <f>SUM(J25* 1.05)</f>
-        <v>712.572</v>
+        <v>267.21450000000004</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>12</v>
@@ -4104,11 +4104,11 @@
       </c>
       <c r="J25" s="7">
         <f t="shared" si="0"/>
-        <v>678.64</v>
+        <v>254.49</v>
       </c>
       <c r="K25" s="7">
         <f>SUM(G25*1.429)</f>
-        <v>11.432</v>
+        <v>4.2869999999999999</v>
       </c>
       <c r="L25" s="11">
         <v>42953</v>
@@ -4541,10 +4541,10 @@
       </c>
       <c r="F31">
         <f>SUM(J31* 1.15)</f>
-        <v>1181.1419999999998</v>
+        <v>196.857</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>-23</v>
@@ -4554,11 +4554,11 @@
       </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>1027.08</v>
+        <v>171.18</v>
       </c>
       <c r="K31" s="7">
         <f>SUM(G31*1.15)</f>
-        <v>13.799999999999999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L31" s="11">
         <v>42961</v>
@@ -4837,10 +4837,10 @@
       </c>
       <c r="F35">
         <f>SUM(J35* 0.85)</f>
-        <v>454.37599999999992</v>
+        <v>139.80799999999999</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>-9</v>
@@ -4850,11 +4850,11 @@
       </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>534.55999999999995</v>
+        <v>164.48</v>
       </c>
       <c r="K35" s="7">
         <f>SUM(G35*1.15)</f>
-        <v>14.95</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L35" s="11">
         <v>42966</v>
@@ -5284,10 +5284,10 @@
       </c>
       <c r="F41">
         <f>SUM(J41* 1.15)</f>
-        <v>1205.2919999999999</v>
+        <v>109.57199999999999</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>-2</v>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>1048.08</v>
+        <v>95.28</v>
       </c>
       <c r="K41" s="7">
         <f>SUM(G41*1.27)</f>
-        <v>13.97</v>
+        <v>1.27</v>
       </c>
       <c r="L41" s="11">
         <v>42974</v>
@@ -5509,10 +5509,10 @@
       </c>
       <c r="F44">
         <f>SUM(J44* 0.85)</f>
-        <v>596.904</v>
+        <v>162.792</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>-3</v>
@@ -5522,11 +5522,11 @@
       </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>702.24</v>
+        <v>191.52</v>
       </c>
       <c r="K44" s="7">
         <f>SUM(G44*1.27)</f>
-        <v>13.97</v>
+        <v>3.81</v>
       </c>
       <c r="L44" s="11">
         <v>42979</v>
@@ -60046,7 +60046,7 @@
         <v>28.32</v>
       </c>
       <c r="J770" s="7">
-        <f t="shared" ref="J770:J833" si="14">SUM(G770*I770)</f>
+        <f t="shared" ref="J770:J801" si="14">SUM(G770*I770)</f>
         <v>226.56</v>
       </c>
       <c r="K770" s="7">
